--- a/Materials/DKAC/FileTemplate/Export-LSX.xlsx
+++ b/Materials/DKAC/FileTemplate/Export-LSX.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21768" windowHeight="9168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="9165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
   <si>
     <t>Tổng</t>
   </si>
@@ -315,9 +315,6 @@
     <t>&lt;#tp_sl_bangkeo&gt;</t>
   </si>
   <si>
-    <t>Số lượng tổng: &lt;#so_luong_tong&gt;</t>
-  </si>
-  <si>
     <t>&lt;#if(&lt;#tp_vat_tu&gt;=1;"Băng keo";"Băng keo đặc biệt")&gt;</t>
   </si>
   <si>
@@ -364,12 +361,22 @@
   </si>
   <si>
     <t>Ngày giao hàng: &lt;#ngay_giao_hang&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#so_luong_tong&gt;</t>
+  </si>
+  <si>
+    <t>Số lượng tổng:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ _₫;[Red]#,##0\ _₫"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -581,12 +588,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -631,80 +660,101 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="18"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="18"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1039,1304 +1089,1303 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.8984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.09765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.296875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.8984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.09765625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.69921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.59765625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="7.8984375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="7.59765625" style="1" customWidth="1"/>
-    <col min="18" max="249" width="8.19921875" style="1"/>
-    <col min="250" max="250" width="3.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="7.875" style="1" customWidth="1"/>
+    <col min="16" max="17" width="7.625" style="1" customWidth="1"/>
+    <col min="18" max="249" width="8.25" style="1"/>
+    <col min="250" max="250" width="3.25" style="1" customWidth="1"/>
     <col min="251" max="251" width="7.5" style="1" customWidth="1"/>
-    <col min="252" max="252" width="20.19921875" style="1" customWidth="1"/>
+    <col min="252" max="252" width="20.25" style="1" customWidth="1"/>
     <col min="253" max="253" width="6" style="1" customWidth="1"/>
-    <col min="254" max="254" width="4.8984375" style="1" customWidth="1"/>
+    <col min="254" max="254" width="4.875" style="1" customWidth="1"/>
     <col min="255" max="255" width="4" style="1" customWidth="1"/>
-    <col min="256" max="256" width="6.59765625" style="1" customWidth="1"/>
-    <col min="257" max="257" width="5.69921875" style="1" customWidth="1"/>
-    <col min="258" max="258" width="8.69921875" style="1" customWidth="1"/>
-    <col min="259" max="259" width="8.19921875" style="1"/>
-    <col min="260" max="261" width="6.69921875" style="1" customWidth="1"/>
+    <col min="256" max="256" width="6.625" style="1" customWidth="1"/>
+    <col min="257" max="257" width="5.75" style="1" customWidth="1"/>
+    <col min="258" max="258" width="8.75" style="1" customWidth="1"/>
+    <col min="259" max="259" width="8.25" style="1"/>
+    <col min="260" max="261" width="6.75" style="1" customWidth="1"/>
     <col min="262" max="262" width="9" style="1" customWidth="1"/>
-    <col min="263" max="263" width="6.69921875" style="1" customWidth="1"/>
+    <col min="263" max="263" width="6.75" style="1" customWidth="1"/>
     <col min="264" max="264" width="13.5" style="1" customWidth="1"/>
     <col min="265" max="265" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="8.19921875" style="1"/>
+    <col min="266" max="266" width="8.25" style="1"/>
     <col min="267" max="267" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="268" max="505" width="8.19921875" style="1"/>
-    <col min="506" max="506" width="3.19921875" style="1" customWidth="1"/>
+    <col min="268" max="505" width="8.25" style="1"/>
+    <col min="506" max="506" width="3.25" style="1" customWidth="1"/>
     <col min="507" max="507" width="7.5" style="1" customWidth="1"/>
-    <col min="508" max="508" width="20.19921875" style="1" customWidth="1"/>
+    <col min="508" max="508" width="20.25" style="1" customWidth="1"/>
     <col min="509" max="509" width="6" style="1" customWidth="1"/>
-    <col min="510" max="510" width="4.8984375" style="1" customWidth="1"/>
+    <col min="510" max="510" width="4.875" style="1" customWidth="1"/>
     <col min="511" max="511" width="4" style="1" customWidth="1"/>
-    <col min="512" max="512" width="6.59765625" style="1" customWidth="1"/>
-    <col min="513" max="513" width="5.69921875" style="1" customWidth="1"/>
-    <col min="514" max="514" width="8.69921875" style="1" customWidth="1"/>
-    <col min="515" max="515" width="8.19921875" style="1"/>
-    <col min="516" max="517" width="6.69921875" style="1" customWidth="1"/>
+    <col min="512" max="512" width="6.625" style="1" customWidth="1"/>
+    <col min="513" max="513" width="5.75" style="1" customWidth="1"/>
+    <col min="514" max="514" width="8.75" style="1" customWidth="1"/>
+    <col min="515" max="515" width="8.25" style="1"/>
+    <col min="516" max="517" width="6.75" style="1" customWidth="1"/>
     <col min="518" max="518" width="9" style="1" customWidth="1"/>
-    <col min="519" max="519" width="6.69921875" style="1" customWidth="1"/>
+    <col min="519" max="519" width="6.75" style="1" customWidth="1"/>
     <col min="520" max="520" width="13.5" style="1" customWidth="1"/>
     <col min="521" max="521" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="8.19921875" style="1"/>
+    <col min="522" max="522" width="8.25" style="1"/>
     <col min="523" max="523" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="524" max="761" width="8.19921875" style="1"/>
-    <col min="762" max="762" width="3.19921875" style="1" customWidth="1"/>
+    <col min="524" max="761" width="8.25" style="1"/>
+    <col min="762" max="762" width="3.25" style="1" customWidth="1"/>
     <col min="763" max="763" width="7.5" style="1" customWidth="1"/>
-    <col min="764" max="764" width="20.19921875" style="1" customWidth="1"/>
+    <col min="764" max="764" width="20.25" style="1" customWidth="1"/>
     <col min="765" max="765" width="6" style="1" customWidth="1"/>
-    <col min="766" max="766" width="4.8984375" style="1" customWidth="1"/>
+    <col min="766" max="766" width="4.875" style="1" customWidth="1"/>
     <col min="767" max="767" width="4" style="1" customWidth="1"/>
-    <col min="768" max="768" width="6.59765625" style="1" customWidth="1"/>
-    <col min="769" max="769" width="5.69921875" style="1" customWidth="1"/>
-    <col min="770" max="770" width="8.69921875" style="1" customWidth="1"/>
-    <col min="771" max="771" width="8.19921875" style="1"/>
-    <col min="772" max="773" width="6.69921875" style="1" customWidth="1"/>
+    <col min="768" max="768" width="6.625" style="1" customWidth="1"/>
+    <col min="769" max="769" width="5.75" style="1" customWidth="1"/>
+    <col min="770" max="770" width="8.75" style="1" customWidth="1"/>
+    <col min="771" max="771" width="8.25" style="1"/>
+    <col min="772" max="773" width="6.75" style="1" customWidth="1"/>
     <col min="774" max="774" width="9" style="1" customWidth="1"/>
-    <col min="775" max="775" width="6.69921875" style="1" customWidth="1"/>
+    <col min="775" max="775" width="6.75" style="1" customWidth="1"/>
     <col min="776" max="776" width="13.5" style="1" customWidth="1"/>
     <col min="777" max="777" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="8.19921875" style="1"/>
+    <col min="778" max="778" width="8.25" style="1"/>
     <col min="779" max="779" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="780" max="1017" width="8.19921875" style="1"/>
-    <col min="1018" max="1018" width="3.19921875" style="1" customWidth="1"/>
+    <col min="780" max="1017" width="8.25" style="1"/>
+    <col min="1018" max="1018" width="3.25" style="1" customWidth="1"/>
     <col min="1019" max="1019" width="7.5" style="1" customWidth="1"/>
-    <col min="1020" max="1020" width="20.19921875" style="1" customWidth="1"/>
+    <col min="1020" max="1020" width="20.25" style="1" customWidth="1"/>
     <col min="1021" max="1021" width="6" style="1" customWidth="1"/>
-    <col min="1022" max="1022" width="4.8984375" style="1" customWidth="1"/>
+    <col min="1022" max="1022" width="4.875" style="1" customWidth="1"/>
     <col min="1023" max="1023" width="4" style="1" customWidth="1"/>
-    <col min="1024" max="1024" width="6.59765625" style="1" customWidth="1"/>
-    <col min="1025" max="1025" width="5.69921875" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="8.69921875" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="8.19921875" style="1"/>
-    <col min="1028" max="1029" width="6.69921875" style="1" customWidth="1"/>
+    <col min="1024" max="1024" width="6.625" style="1" customWidth="1"/>
+    <col min="1025" max="1025" width="5.75" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="8.75" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="8.25" style="1"/>
+    <col min="1028" max="1029" width="6.75" style="1" customWidth="1"/>
     <col min="1030" max="1030" width="9" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="6.69921875" style="1" customWidth="1"/>
+    <col min="1031" max="1031" width="6.75" style="1" customWidth="1"/>
     <col min="1032" max="1032" width="13.5" style="1" customWidth="1"/>
     <col min="1033" max="1033" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="8.19921875" style="1"/>
+    <col min="1034" max="1034" width="8.25" style="1"/>
     <col min="1035" max="1035" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1273" width="8.19921875" style="1"/>
-    <col min="1274" max="1274" width="3.19921875" style="1" customWidth="1"/>
+    <col min="1036" max="1273" width="8.25" style="1"/>
+    <col min="1274" max="1274" width="3.25" style="1" customWidth="1"/>
     <col min="1275" max="1275" width="7.5" style="1" customWidth="1"/>
-    <col min="1276" max="1276" width="20.19921875" style="1" customWidth="1"/>
+    <col min="1276" max="1276" width="20.25" style="1" customWidth="1"/>
     <col min="1277" max="1277" width="6" style="1" customWidth="1"/>
-    <col min="1278" max="1278" width="4.8984375" style="1" customWidth="1"/>
+    <col min="1278" max="1278" width="4.875" style="1" customWidth="1"/>
     <col min="1279" max="1279" width="4" style="1" customWidth="1"/>
-    <col min="1280" max="1280" width="6.59765625" style="1" customWidth="1"/>
-    <col min="1281" max="1281" width="5.69921875" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="8.69921875" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="8.19921875" style="1"/>
-    <col min="1284" max="1285" width="6.69921875" style="1" customWidth="1"/>
+    <col min="1280" max="1280" width="6.625" style="1" customWidth="1"/>
+    <col min="1281" max="1281" width="5.75" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="8.75" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="8.25" style="1"/>
+    <col min="1284" max="1285" width="6.75" style="1" customWidth="1"/>
     <col min="1286" max="1286" width="9" style="1" customWidth="1"/>
-    <col min="1287" max="1287" width="6.69921875" style="1" customWidth="1"/>
+    <col min="1287" max="1287" width="6.75" style="1" customWidth="1"/>
     <col min="1288" max="1288" width="13.5" style="1" customWidth="1"/>
     <col min="1289" max="1289" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="8.19921875" style="1"/>
+    <col min="1290" max="1290" width="8.25" style="1"/>
     <col min="1291" max="1291" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1529" width="8.19921875" style="1"/>
-    <col min="1530" max="1530" width="3.19921875" style="1" customWidth="1"/>
+    <col min="1292" max="1529" width="8.25" style="1"/>
+    <col min="1530" max="1530" width="3.25" style="1" customWidth="1"/>
     <col min="1531" max="1531" width="7.5" style="1" customWidth="1"/>
-    <col min="1532" max="1532" width="20.19921875" style="1" customWidth="1"/>
+    <col min="1532" max="1532" width="20.25" style="1" customWidth="1"/>
     <col min="1533" max="1533" width="6" style="1" customWidth="1"/>
-    <col min="1534" max="1534" width="4.8984375" style="1" customWidth="1"/>
+    <col min="1534" max="1534" width="4.875" style="1" customWidth="1"/>
     <col min="1535" max="1535" width="4" style="1" customWidth="1"/>
-    <col min="1536" max="1536" width="6.59765625" style="1" customWidth="1"/>
-    <col min="1537" max="1537" width="5.69921875" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="8.69921875" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="8.19921875" style="1"/>
-    <col min="1540" max="1541" width="6.69921875" style="1" customWidth="1"/>
+    <col min="1536" max="1536" width="6.625" style="1" customWidth="1"/>
+    <col min="1537" max="1537" width="5.75" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="8.75" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="8.25" style="1"/>
+    <col min="1540" max="1541" width="6.75" style="1" customWidth="1"/>
     <col min="1542" max="1542" width="9" style="1" customWidth="1"/>
-    <col min="1543" max="1543" width="6.69921875" style="1" customWidth="1"/>
+    <col min="1543" max="1543" width="6.75" style="1" customWidth="1"/>
     <col min="1544" max="1544" width="13.5" style="1" customWidth="1"/>
     <col min="1545" max="1545" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="8.19921875" style="1"/>
+    <col min="1546" max="1546" width="8.25" style="1"/>
     <col min="1547" max="1547" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1785" width="8.19921875" style="1"/>
-    <col min="1786" max="1786" width="3.19921875" style="1" customWidth="1"/>
+    <col min="1548" max="1785" width="8.25" style="1"/>
+    <col min="1786" max="1786" width="3.25" style="1" customWidth="1"/>
     <col min="1787" max="1787" width="7.5" style="1" customWidth="1"/>
-    <col min="1788" max="1788" width="20.19921875" style="1" customWidth="1"/>
+    <col min="1788" max="1788" width="20.25" style="1" customWidth="1"/>
     <col min="1789" max="1789" width="6" style="1" customWidth="1"/>
-    <col min="1790" max="1790" width="4.8984375" style="1" customWidth="1"/>
+    <col min="1790" max="1790" width="4.875" style="1" customWidth="1"/>
     <col min="1791" max="1791" width="4" style="1" customWidth="1"/>
-    <col min="1792" max="1792" width="6.59765625" style="1" customWidth="1"/>
-    <col min="1793" max="1793" width="5.69921875" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="8.69921875" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="8.19921875" style="1"/>
-    <col min="1796" max="1797" width="6.69921875" style="1" customWidth="1"/>
+    <col min="1792" max="1792" width="6.625" style="1" customWidth="1"/>
+    <col min="1793" max="1793" width="5.75" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="8.75" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="8.25" style="1"/>
+    <col min="1796" max="1797" width="6.75" style="1" customWidth="1"/>
     <col min="1798" max="1798" width="9" style="1" customWidth="1"/>
-    <col min="1799" max="1799" width="6.69921875" style="1" customWidth="1"/>
+    <col min="1799" max="1799" width="6.75" style="1" customWidth="1"/>
     <col min="1800" max="1800" width="13.5" style="1" customWidth="1"/>
     <col min="1801" max="1801" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="8.19921875" style="1"/>
+    <col min="1802" max="1802" width="8.25" style="1"/>
     <col min="1803" max="1803" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1804" max="2041" width="8.19921875" style="1"/>
-    <col min="2042" max="2042" width="3.19921875" style="1" customWidth="1"/>
+    <col min="1804" max="2041" width="8.25" style="1"/>
+    <col min="2042" max="2042" width="3.25" style="1" customWidth="1"/>
     <col min="2043" max="2043" width="7.5" style="1" customWidth="1"/>
-    <col min="2044" max="2044" width="20.19921875" style="1" customWidth="1"/>
+    <col min="2044" max="2044" width="20.25" style="1" customWidth="1"/>
     <col min="2045" max="2045" width="6" style="1" customWidth="1"/>
-    <col min="2046" max="2046" width="4.8984375" style="1" customWidth="1"/>
+    <col min="2046" max="2046" width="4.875" style="1" customWidth="1"/>
     <col min="2047" max="2047" width="4" style="1" customWidth="1"/>
-    <col min="2048" max="2048" width="6.59765625" style="1" customWidth="1"/>
-    <col min="2049" max="2049" width="5.69921875" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="8.69921875" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="8.19921875" style="1"/>
-    <col min="2052" max="2053" width="6.69921875" style="1" customWidth="1"/>
+    <col min="2048" max="2048" width="6.625" style="1" customWidth="1"/>
+    <col min="2049" max="2049" width="5.75" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="8.75" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="8.25" style="1"/>
+    <col min="2052" max="2053" width="6.75" style="1" customWidth="1"/>
     <col min="2054" max="2054" width="9" style="1" customWidth="1"/>
-    <col min="2055" max="2055" width="6.69921875" style="1" customWidth="1"/>
+    <col min="2055" max="2055" width="6.75" style="1" customWidth="1"/>
     <col min="2056" max="2056" width="13.5" style="1" customWidth="1"/>
     <col min="2057" max="2057" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="8.19921875" style="1"/>
+    <col min="2058" max="2058" width="8.25" style="1"/>
     <col min="2059" max="2059" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2297" width="8.19921875" style="1"/>
-    <col min="2298" max="2298" width="3.19921875" style="1" customWidth="1"/>
+    <col min="2060" max="2297" width="8.25" style="1"/>
+    <col min="2298" max="2298" width="3.25" style="1" customWidth="1"/>
     <col min="2299" max="2299" width="7.5" style="1" customWidth="1"/>
-    <col min="2300" max="2300" width="20.19921875" style="1" customWidth="1"/>
+    <col min="2300" max="2300" width="20.25" style="1" customWidth="1"/>
     <col min="2301" max="2301" width="6" style="1" customWidth="1"/>
-    <col min="2302" max="2302" width="4.8984375" style="1" customWidth="1"/>
+    <col min="2302" max="2302" width="4.875" style="1" customWidth="1"/>
     <col min="2303" max="2303" width="4" style="1" customWidth="1"/>
-    <col min="2304" max="2304" width="6.59765625" style="1" customWidth="1"/>
-    <col min="2305" max="2305" width="5.69921875" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="8.69921875" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="8.19921875" style="1"/>
-    <col min="2308" max="2309" width="6.69921875" style="1" customWidth="1"/>
+    <col min="2304" max="2304" width="6.625" style="1" customWidth="1"/>
+    <col min="2305" max="2305" width="5.75" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="8.75" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="8.25" style="1"/>
+    <col min="2308" max="2309" width="6.75" style="1" customWidth="1"/>
     <col min="2310" max="2310" width="9" style="1" customWidth="1"/>
-    <col min="2311" max="2311" width="6.69921875" style="1" customWidth="1"/>
+    <col min="2311" max="2311" width="6.75" style="1" customWidth="1"/>
     <col min="2312" max="2312" width="13.5" style="1" customWidth="1"/>
     <col min="2313" max="2313" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="8.19921875" style="1"/>
+    <col min="2314" max="2314" width="8.25" style="1"/>
     <col min="2315" max="2315" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2553" width="8.19921875" style="1"/>
-    <col min="2554" max="2554" width="3.19921875" style="1" customWidth="1"/>
+    <col min="2316" max="2553" width="8.25" style="1"/>
+    <col min="2554" max="2554" width="3.25" style="1" customWidth="1"/>
     <col min="2555" max="2555" width="7.5" style="1" customWidth="1"/>
-    <col min="2556" max="2556" width="20.19921875" style="1" customWidth="1"/>
+    <col min="2556" max="2556" width="20.25" style="1" customWidth="1"/>
     <col min="2557" max="2557" width="6" style="1" customWidth="1"/>
-    <col min="2558" max="2558" width="4.8984375" style="1" customWidth="1"/>
+    <col min="2558" max="2558" width="4.875" style="1" customWidth="1"/>
     <col min="2559" max="2559" width="4" style="1" customWidth="1"/>
-    <col min="2560" max="2560" width="6.59765625" style="1" customWidth="1"/>
-    <col min="2561" max="2561" width="5.69921875" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="8.69921875" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="8.19921875" style="1"/>
-    <col min="2564" max="2565" width="6.69921875" style="1" customWidth="1"/>
+    <col min="2560" max="2560" width="6.625" style="1" customWidth="1"/>
+    <col min="2561" max="2561" width="5.75" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="8.75" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="8.25" style="1"/>
+    <col min="2564" max="2565" width="6.75" style="1" customWidth="1"/>
     <col min="2566" max="2566" width="9" style="1" customWidth="1"/>
-    <col min="2567" max="2567" width="6.69921875" style="1" customWidth="1"/>
+    <col min="2567" max="2567" width="6.75" style="1" customWidth="1"/>
     <col min="2568" max="2568" width="13.5" style="1" customWidth="1"/>
     <col min="2569" max="2569" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="8.19921875" style="1"/>
+    <col min="2570" max="2570" width="8.25" style="1"/>
     <col min="2571" max="2571" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2809" width="8.19921875" style="1"/>
-    <col min="2810" max="2810" width="3.19921875" style="1" customWidth="1"/>
+    <col min="2572" max="2809" width="8.25" style="1"/>
+    <col min="2810" max="2810" width="3.25" style="1" customWidth="1"/>
     <col min="2811" max="2811" width="7.5" style="1" customWidth="1"/>
-    <col min="2812" max="2812" width="20.19921875" style="1" customWidth="1"/>
+    <col min="2812" max="2812" width="20.25" style="1" customWidth="1"/>
     <col min="2813" max="2813" width="6" style="1" customWidth="1"/>
-    <col min="2814" max="2814" width="4.8984375" style="1" customWidth="1"/>
+    <col min="2814" max="2814" width="4.875" style="1" customWidth="1"/>
     <col min="2815" max="2815" width="4" style="1" customWidth="1"/>
-    <col min="2816" max="2816" width="6.59765625" style="1" customWidth="1"/>
-    <col min="2817" max="2817" width="5.69921875" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="8.69921875" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="8.19921875" style="1"/>
-    <col min="2820" max="2821" width="6.69921875" style="1" customWidth="1"/>
+    <col min="2816" max="2816" width="6.625" style="1" customWidth="1"/>
+    <col min="2817" max="2817" width="5.75" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="8.75" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="8.25" style="1"/>
+    <col min="2820" max="2821" width="6.75" style="1" customWidth="1"/>
     <col min="2822" max="2822" width="9" style="1" customWidth="1"/>
-    <col min="2823" max="2823" width="6.69921875" style="1" customWidth="1"/>
+    <col min="2823" max="2823" width="6.75" style="1" customWidth="1"/>
     <col min="2824" max="2824" width="13.5" style="1" customWidth="1"/>
     <col min="2825" max="2825" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="8.19921875" style="1"/>
+    <col min="2826" max="2826" width="8.25" style="1"/>
     <col min="2827" max="2827" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2828" max="3065" width="8.19921875" style="1"/>
-    <col min="3066" max="3066" width="3.19921875" style="1" customWidth="1"/>
+    <col min="2828" max="3065" width="8.25" style="1"/>
+    <col min="3066" max="3066" width="3.25" style="1" customWidth="1"/>
     <col min="3067" max="3067" width="7.5" style="1" customWidth="1"/>
-    <col min="3068" max="3068" width="20.19921875" style="1" customWidth="1"/>
+    <col min="3068" max="3068" width="20.25" style="1" customWidth="1"/>
     <col min="3069" max="3069" width="6" style="1" customWidth="1"/>
-    <col min="3070" max="3070" width="4.8984375" style="1" customWidth="1"/>
+    <col min="3070" max="3070" width="4.875" style="1" customWidth="1"/>
     <col min="3071" max="3071" width="4" style="1" customWidth="1"/>
-    <col min="3072" max="3072" width="6.59765625" style="1" customWidth="1"/>
-    <col min="3073" max="3073" width="5.69921875" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="8.69921875" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="8.19921875" style="1"/>
-    <col min="3076" max="3077" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3072" max="3072" width="6.625" style="1" customWidth="1"/>
+    <col min="3073" max="3073" width="5.75" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="8.75" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="8.25" style="1"/>
+    <col min="3076" max="3077" width="6.75" style="1" customWidth="1"/>
     <col min="3078" max="3078" width="9" style="1" customWidth="1"/>
-    <col min="3079" max="3079" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3079" max="3079" width="6.75" style="1" customWidth="1"/>
     <col min="3080" max="3080" width="13.5" style="1" customWidth="1"/>
     <col min="3081" max="3081" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="8.19921875" style="1"/>
+    <col min="3082" max="3082" width="8.25" style="1"/>
     <col min="3083" max="3083" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3321" width="8.19921875" style="1"/>
-    <col min="3322" max="3322" width="3.19921875" style="1" customWidth="1"/>
+    <col min="3084" max="3321" width="8.25" style="1"/>
+    <col min="3322" max="3322" width="3.25" style="1" customWidth="1"/>
     <col min="3323" max="3323" width="7.5" style="1" customWidth="1"/>
-    <col min="3324" max="3324" width="20.19921875" style="1" customWidth="1"/>
+    <col min="3324" max="3324" width="20.25" style="1" customWidth="1"/>
     <col min="3325" max="3325" width="6" style="1" customWidth="1"/>
-    <col min="3326" max="3326" width="4.8984375" style="1" customWidth="1"/>
+    <col min="3326" max="3326" width="4.875" style="1" customWidth="1"/>
     <col min="3327" max="3327" width="4" style="1" customWidth="1"/>
-    <col min="3328" max="3328" width="6.59765625" style="1" customWidth="1"/>
-    <col min="3329" max="3329" width="5.69921875" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="8.69921875" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="8.19921875" style="1"/>
-    <col min="3332" max="3333" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3328" max="3328" width="6.625" style="1" customWidth="1"/>
+    <col min="3329" max="3329" width="5.75" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="8.75" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="8.25" style="1"/>
+    <col min="3332" max="3333" width="6.75" style="1" customWidth="1"/>
     <col min="3334" max="3334" width="9" style="1" customWidth="1"/>
-    <col min="3335" max="3335" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3335" max="3335" width="6.75" style="1" customWidth="1"/>
     <col min="3336" max="3336" width="13.5" style="1" customWidth="1"/>
     <col min="3337" max="3337" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="8.19921875" style="1"/>
+    <col min="3338" max="3338" width="8.25" style="1"/>
     <col min="3339" max="3339" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3577" width="8.19921875" style="1"/>
-    <col min="3578" max="3578" width="3.19921875" style="1" customWidth="1"/>
+    <col min="3340" max="3577" width="8.25" style="1"/>
+    <col min="3578" max="3578" width="3.25" style="1" customWidth="1"/>
     <col min="3579" max="3579" width="7.5" style="1" customWidth="1"/>
-    <col min="3580" max="3580" width="20.19921875" style="1" customWidth="1"/>
+    <col min="3580" max="3580" width="20.25" style="1" customWidth="1"/>
     <col min="3581" max="3581" width="6" style="1" customWidth="1"/>
-    <col min="3582" max="3582" width="4.8984375" style="1" customWidth="1"/>
+    <col min="3582" max="3582" width="4.875" style="1" customWidth="1"/>
     <col min="3583" max="3583" width="4" style="1" customWidth="1"/>
-    <col min="3584" max="3584" width="6.59765625" style="1" customWidth="1"/>
-    <col min="3585" max="3585" width="5.69921875" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="8.69921875" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="8.19921875" style="1"/>
-    <col min="3588" max="3589" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3584" max="3584" width="6.625" style="1" customWidth="1"/>
+    <col min="3585" max="3585" width="5.75" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="8.75" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="8.25" style="1"/>
+    <col min="3588" max="3589" width="6.75" style="1" customWidth="1"/>
     <col min="3590" max="3590" width="9" style="1" customWidth="1"/>
-    <col min="3591" max="3591" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3591" max="3591" width="6.75" style="1" customWidth="1"/>
     <col min="3592" max="3592" width="13.5" style="1" customWidth="1"/>
     <col min="3593" max="3593" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="8.19921875" style="1"/>
+    <col min="3594" max="3594" width="8.25" style="1"/>
     <col min="3595" max="3595" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3833" width="8.19921875" style="1"/>
-    <col min="3834" max="3834" width="3.19921875" style="1" customWidth="1"/>
+    <col min="3596" max="3833" width="8.25" style="1"/>
+    <col min="3834" max="3834" width="3.25" style="1" customWidth="1"/>
     <col min="3835" max="3835" width="7.5" style="1" customWidth="1"/>
-    <col min="3836" max="3836" width="20.19921875" style="1" customWidth="1"/>
+    <col min="3836" max="3836" width="20.25" style="1" customWidth="1"/>
     <col min="3837" max="3837" width="6" style="1" customWidth="1"/>
-    <col min="3838" max="3838" width="4.8984375" style="1" customWidth="1"/>
+    <col min="3838" max="3838" width="4.875" style="1" customWidth="1"/>
     <col min="3839" max="3839" width="4" style="1" customWidth="1"/>
-    <col min="3840" max="3840" width="6.59765625" style="1" customWidth="1"/>
-    <col min="3841" max="3841" width="5.69921875" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="8.69921875" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="8.19921875" style="1"/>
-    <col min="3844" max="3845" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3840" max="3840" width="6.625" style="1" customWidth="1"/>
+    <col min="3841" max="3841" width="5.75" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="8.75" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="8.25" style="1"/>
+    <col min="3844" max="3845" width="6.75" style="1" customWidth="1"/>
     <col min="3846" max="3846" width="9" style="1" customWidth="1"/>
-    <col min="3847" max="3847" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3847" max="3847" width="6.75" style="1" customWidth="1"/>
     <col min="3848" max="3848" width="13.5" style="1" customWidth="1"/>
     <col min="3849" max="3849" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="8.19921875" style="1"/>
+    <col min="3850" max="3850" width="8.25" style="1"/>
     <col min="3851" max="3851" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3852" max="4089" width="8.19921875" style="1"/>
-    <col min="4090" max="4090" width="3.19921875" style="1" customWidth="1"/>
+    <col min="3852" max="4089" width="8.25" style="1"/>
+    <col min="4090" max="4090" width="3.25" style="1" customWidth="1"/>
     <col min="4091" max="4091" width="7.5" style="1" customWidth="1"/>
-    <col min="4092" max="4092" width="20.19921875" style="1" customWidth="1"/>
+    <col min="4092" max="4092" width="20.25" style="1" customWidth="1"/>
     <col min="4093" max="4093" width="6" style="1" customWidth="1"/>
-    <col min="4094" max="4094" width="4.8984375" style="1" customWidth="1"/>
+    <col min="4094" max="4094" width="4.875" style="1" customWidth="1"/>
     <col min="4095" max="4095" width="4" style="1" customWidth="1"/>
-    <col min="4096" max="4096" width="6.59765625" style="1" customWidth="1"/>
-    <col min="4097" max="4097" width="5.69921875" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="8.69921875" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="8.19921875" style="1"/>
-    <col min="4100" max="4101" width="6.69921875" style="1" customWidth="1"/>
+    <col min="4096" max="4096" width="6.625" style="1" customWidth="1"/>
+    <col min="4097" max="4097" width="5.75" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="8.75" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="8.25" style="1"/>
+    <col min="4100" max="4101" width="6.75" style="1" customWidth="1"/>
     <col min="4102" max="4102" width="9" style="1" customWidth="1"/>
-    <col min="4103" max="4103" width="6.69921875" style="1" customWidth="1"/>
+    <col min="4103" max="4103" width="6.75" style="1" customWidth="1"/>
     <col min="4104" max="4104" width="13.5" style="1" customWidth="1"/>
     <col min="4105" max="4105" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="8.19921875" style="1"/>
+    <col min="4106" max="4106" width="8.25" style="1"/>
     <col min="4107" max="4107" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4345" width="8.19921875" style="1"/>
-    <col min="4346" max="4346" width="3.19921875" style="1" customWidth="1"/>
+    <col min="4108" max="4345" width="8.25" style="1"/>
+    <col min="4346" max="4346" width="3.25" style="1" customWidth="1"/>
     <col min="4347" max="4347" width="7.5" style="1" customWidth="1"/>
-    <col min="4348" max="4348" width="20.19921875" style="1" customWidth="1"/>
+    <col min="4348" max="4348" width="20.25" style="1" customWidth="1"/>
     <col min="4349" max="4349" width="6" style="1" customWidth="1"/>
-    <col min="4350" max="4350" width="4.8984375" style="1" customWidth="1"/>
+    <col min="4350" max="4350" width="4.875" style="1" customWidth="1"/>
     <col min="4351" max="4351" width="4" style="1" customWidth="1"/>
-    <col min="4352" max="4352" width="6.59765625" style="1" customWidth="1"/>
-    <col min="4353" max="4353" width="5.69921875" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="8.69921875" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="8.19921875" style="1"/>
-    <col min="4356" max="4357" width="6.69921875" style="1" customWidth="1"/>
+    <col min="4352" max="4352" width="6.625" style="1" customWidth="1"/>
+    <col min="4353" max="4353" width="5.75" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="8.75" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="8.25" style="1"/>
+    <col min="4356" max="4357" width="6.75" style="1" customWidth="1"/>
     <col min="4358" max="4358" width="9" style="1" customWidth="1"/>
-    <col min="4359" max="4359" width="6.69921875" style="1" customWidth="1"/>
+    <col min="4359" max="4359" width="6.75" style="1" customWidth="1"/>
     <col min="4360" max="4360" width="13.5" style="1" customWidth="1"/>
     <col min="4361" max="4361" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="8.19921875" style="1"/>
+    <col min="4362" max="4362" width="8.25" style="1"/>
     <col min="4363" max="4363" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4601" width="8.19921875" style="1"/>
-    <col min="4602" max="4602" width="3.19921875" style="1" customWidth="1"/>
+    <col min="4364" max="4601" width="8.25" style="1"/>
+    <col min="4602" max="4602" width="3.25" style="1" customWidth="1"/>
     <col min="4603" max="4603" width="7.5" style="1" customWidth="1"/>
-    <col min="4604" max="4604" width="20.19921875" style="1" customWidth="1"/>
+    <col min="4604" max="4604" width="20.25" style="1" customWidth="1"/>
     <col min="4605" max="4605" width="6" style="1" customWidth="1"/>
-    <col min="4606" max="4606" width="4.8984375" style="1" customWidth="1"/>
+    <col min="4606" max="4606" width="4.875" style="1" customWidth="1"/>
     <col min="4607" max="4607" width="4" style="1" customWidth="1"/>
-    <col min="4608" max="4608" width="6.59765625" style="1" customWidth="1"/>
-    <col min="4609" max="4609" width="5.69921875" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="8.69921875" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="8.19921875" style="1"/>
-    <col min="4612" max="4613" width="6.69921875" style="1" customWidth="1"/>
+    <col min="4608" max="4608" width="6.625" style="1" customWidth="1"/>
+    <col min="4609" max="4609" width="5.75" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="8.75" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="8.25" style="1"/>
+    <col min="4612" max="4613" width="6.75" style="1" customWidth="1"/>
     <col min="4614" max="4614" width="9" style="1" customWidth="1"/>
-    <col min="4615" max="4615" width="6.69921875" style="1" customWidth="1"/>
+    <col min="4615" max="4615" width="6.75" style="1" customWidth="1"/>
     <col min="4616" max="4616" width="13.5" style="1" customWidth="1"/>
     <col min="4617" max="4617" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="8.19921875" style="1"/>
+    <col min="4618" max="4618" width="8.25" style="1"/>
     <col min="4619" max="4619" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4857" width="8.19921875" style="1"/>
-    <col min="4858" max="4858" width="3.19921875" style="1" customWidth="1"/>
+    <col min="4620" max="4857" width="8.25" style="1"/>
+    <col min="4858" max="4858" width="3.25" style="1" customWidth="1"/>
     <col min="4859" max="4859" width="7.5" style="1" customWidth="1"/>
-    <col min="4860" max="4860" width="20.19921875" style="1" customWidth="1"/>
+    <col min="4860" max="4860" width="20.25" style="1" customWidth="1"/>
     <col min="4861" max="4861" width="6" style="1" customWidth="1"/>
-    <col min="4862" max="4862" width="4.8984375" style="1" customWidth="1"/>
+    <col min="4862" max="4862" width="4.875" style="1" customWidth="1"/>
     <col min="4863" max="4863" width="4" style="1" customWidth="1"/>
-    <col min="4864" max="4864" width="6.59765625" style="1" customWidth="1"/>
-    <col min="4865" max="4865" width="5.69921875" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="8.69921875" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="8.19921875" style="1"/>
-    <col min="4868" max="4869" width="6.69921875" style="1" customWidth="1"/>
+    <col min="4864" max="4864" width="6.625" style="1" customWidth="1"/>
+    <col min="4865" max="4865" width="5.75" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="8.75" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="8.25" style="1"/>
+    <col min="4868" max="4869" width="6.75" style="1" customWidth="1"/>
     <col min="4870" max="4870" width="9" style="1" customWidth="1"/>
-    <col min="4871" max="4871" width="6.69921875" style="1" customWidth="1"/>
+    <col min="4871" max="4871" width="6.75" style="1" customWidth="1"/>
     <col min="4872" max="4872" width="13.5" style="1" customWidth="1"/>
     <col min="4873" max="4873" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="8.19921875" style="1"/>
+    <col min="4874" max="4874" width="8.25" style="1"/>
     <col min="4875" max="4875" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4876" max="5113" width="8.19921875" style="1"/>
-    <col min="5114" max="5114" width="3.19921875" style="1" customWidth="1"/>
+    <col min="4876" max="5113" width="8.25" style="1"/>
+    <col min="5114" max="5114" width="3.25" style="1" customWidth="1"/>
     <col min="5115" max="5115" width="7.5" style="1" customWidth="1"/>
-    <col min="5116" max="5116" width="20.19921875" style="1" customWidth="1"/>
+    <col min="5116" max="5116" width="20.25" style="1" customWidth="1"/>
     <col min="5117" max="5117" width="6" style="1" customWidth="1"/>
-    <col min="5118" max="5118" width="4.8984375" style="1" customWidth="1"/>
+    <col min="5118" max="5118" width="4.875" style="1" customWidth="1"/>
     <col min="5119" max="5119" width="4" style="1" customWidth="1"/>
-    <col min="5120" max="5120" width="6.59765625" style="1" customWidth="1"/>
-    <col min="5121" max="5121" width="5.69921875" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="8.69921875" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="8.19921875" style="1"/>
-    <col min="5124" max="5125" width="6.69921875" style="1" customWidth="1"/>
+    <col min="5120" max="5120" width="6.625" style="1" customWidth="1"/>
+    <col min="5121" max="5121" width="5.75" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="8.75" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="8.25" style="1"/>
+    <col min="5124" max="5125" width="6.75" style="1" customWidth="1"/>
     <col min="5126" max="5126" width="9" style="1" customWidth="1"/>
-    <col min="5127" max="5127" width="6.69921875" style="1" customWidth="1"/>
+    <col min="5127" max="5127" width="6.75" style="1" customWidth="1"/>
     <col min="5128" max="5128" width="13.5" style="1" customWidth="1"/>
     <col min="5129" max="5129" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="8.19921875" style="1"/>
+    <col min="5130" max="5130" width="8.25" style="1"/>
     <col min="5131" max="5131" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5369" width="8.19921875" style="1"/>
-    <col min="5370" max="5370" width="3.19921875" style="1" customWidth="1"/>
+    <col min="5132" max="5369" width="8.25" style="1"/>
+    <col min="5370" max="5370" width="3.25" style="1" customWidth="1"/>
     <col min="5371" max="5371" width="7.5" style="1" customWidth="1"/>
-    <col min="5372" max="5372" width="20.19921875" style="1" customWidth="1"/>
+    <col min="5372" max="5372" width="20.25" style="1" customWidth="1"/>
     <col min="5373" max="5373" width="6" style="1" customWidth="1"/>
-    <col min="5374" max="5374" width="4.8984375" style="1" customWidth="1"/>
+    <col min="5374" max="5374" width="4.875" style="1" customWidth="1"/>
     <col min="5375" max="5375" width="4" style="1" customWidth="1"/>
-    <col min="5376" max="5376" width="6.59765625" style="1" customWidth="1"/>
-    <col min="5377" max="5377" width="5.69921875" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="8.69921875" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="8.19921875" style="1"/>
-    <col min="5380" max="5381" width="6.69921875" style="1" customWidth="1"/>
+    <col min="5376" max="5376" width="6.625" style="1" customWidth="1"/>
+    <col min="5377" max="5377" width="5.75" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="8.75" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="8.25" style="1"/>
+    <col min="5380" max="5381" width="6.75" style="1" customWidth="1"/>
     <col min="5382" max="5382" width="9" style="1" customWidth="1"/>
-    <col min="5383" max="5383" width="6.69921875" style="1" customWidth="1"/>
+    <col min="5383" max="5383" width="6.75" style="1" customWidth="1"/>
     <col min="5384" max="5384" width="13.5" style="1" customWidth="1"/>
     <col min="5385" max="5385" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="8.19921875" style="1"/>
+    <col min="5386" max="5386" width="8.25" style="1"/>
     <col min="5387" max="5387" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5625" width="8.19921875" style="1"/>
-    <col min="5626" max="5626" width="3.19921875" style="1" customWidth="1"/>
+    <col min="5388" max="5625" width="8.25" style="1"/>
+    <col min="5626" max="5626" width="3.25" style="1" customWidth="1"/>
     <col min="5627" max="5627" width="7.5" style="1" customWidth="1"/>
-    <col min="5628" max="5628" width="20.19921875" style="1" customWidth="1"/>
+    <col min="5628" max="5628" width="20.25" style="1" customWidth="1"/>
     <col min="5629" max="5629" width="6" style="1" customWidth="1"/>
-    <col min="5630" max="5630" width="4.8984375" style="1" customWidth="1"/>
+    <col min="5630" max="5630" width="4.875" style="1" customWidth="1"/>
     <col min="5631" max="5631" width="4" style="1" customWidth="1"/>
-    <col min="5632" max="5632" width="6.59765625" style="1" customWidth="1"/>
-    <col min="5633" max="5633" width="5.69921875" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="8.69921875" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="8.19921875" style="1"/>
-    <col min="5636" max="5637" width="6.69921875" style="1" customWidth="1"/>
+    <col min="5632" max="5632" width="6.625" style="1" customWidth="1"/>
+    <col min="5633" max="5633" width="5.75" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="8.75" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="8.25" style="1"/>
+    <col min="5636" max="5637" width="6.75" style="1" customWidth="1"/>
     <col min="5638" max="5638" width="9" style="1" customWidth="1"/>
-    <col min="5639" max="5639" width="6.69921875" style="1" customWidth="1"/>
+    <col min="5639" max="5639" width="6.75" style="1" customWidth="1"/>
     <col min="5640" max="5640" width="13.5" style="1" customWidth="1"/>
     <col min="5641" max="5641" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="8.19921875" style="1"/>
+    <col min="5642" max="5642" width="8.25" style="1"/>
     <col min="5643" max="5643" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5881" width="8.19921875" style="1"/>
-    <col min="5882" max="5882" width="3.19921875" style="1" customWidth="1"/>
+    <col min="5644" max="5881" width="8.25" style="1"/>
+    <col min="5882" max="5882" width="3.25" style="1" customWidth="1"/>
     <col min="5883" max="5883" width="7.5" style="1" customWidth="1"/>
-    <col min="5884" max="5884" width="20.19921875" style="1" customWidth="1"/>
+    <col min="5884" max="5884" width="20.25" style="1" customWidth="1"/>
     <col min="5885" max="5885" width="6" style="1" customWidth="1"/>
-    <col min="5886" max="5886" width="4.8984375" style="1" customWidth="1"/>
+    <col min="5886" max="5886" width="4.875" style="1" customWidth="1"/>
     <col min="5887" max="5887" width="4" style="1" customWidth="1"/>
-    <col min="5888" max="5888" width="6.59765625" style="1" customWidth="1"/>
-    <col min="5889" max="5889" width="5.69921875" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="8.69921875" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="8.19921875" style="1"/>
-    <col min="5892" max="5893" width="6.69921875" style="1" customWidth="1"/>
+    <col min="5888" max="5888" width="6.625" style="1" customWidth="1"/>
+    <col min="5889" max="5889" width="5.75" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="8.75" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="8.25" style="1"/>
+    <col min="5892" max="5893" width="6.75" style="1" customWidth="1"/>
     <col min="5894" max="5894" width="9" style="1" customWidth="1"/>
-    <col min="5895" max="5895" width="6.69921875" style="1" customWidth="1"/>
+    <col min="5895" max="5895" width="6.75" style="1" customWidth="1"/>
     <col min="5896" max="5896" width="13.5" style="1" customWidth="1"/>
     <col min="5897" max="5897" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="8.19921875" style="1"/>
+    <col min="5898" max="5898" width="8.25" style="1"/>
     <col min="5899" max="5899" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5900" max="6137" width="8.19921875" style="1"/>
-    <col min="6138" max="6138" width="3.19921875" style="1" customWidth="1"/>
+    <col min="5900" max="6137" width="8.25" style="1"/>
+    <col min="6138" max="6138" width="3.25" style="1" customWidth="1"/>
     <col min="6139" max="6139" width="7.5" style="1" customWidth="1"/>
-    <col min="6140" max="6140" width="20.19921875" style="1" customWidth="1"/>
+    <col min="6140" max="6140" width="20.25" style="1" customWidth="1"/>
     <col min="6141" max="6141" width="6" style="1" customWidth="1"/>
-    <col min="6142" max="6142" width="4.8984375" style="1" customWidth="1"/>
+    <col min="6142" max="6142" width="4.875" style="1" customWidth="1"/>
     <col min="6143" max="6143" width="4" style="1" customWidth="1"/>
-    <col min="6144" max="6144" width="6.59765625" style="1" customWidth="1"/>
-    <col min="6145" max="6145" width="5.69921875" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="8.69921875" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="8.19921875" style="1"/>
-    <col min="6148" max="6149" width="6.69921875" style="1" customWidth="1"/>
+    <col min="6144" max="6144" width="6.625" style="1" customWidth="1"/>
+    <col min="6145" max="6145" width="5.75" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="8.75" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="8.25" style="1"/>
+    <col min="6148" max="6149" width="6.75" style="1" customWidth="1"/>
     <col min="6150" max="6150" width="9" style="1" customWidth="1"/>
-    <col min="6151" max="6151" width="6.69921875" style="1" customWidth="1"/>
+    <col min="6151" max="6151" width="6.75" style="1" customWidth="1"/>
     <col min="6152" max="6152" width="13.5" style="1" customWidth="1"/>
     <col min="6153" max="6153" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="8.19921875" style="1"/>
+    <col min="6154" max="6154" width="8.25" style="1"/>
     <col min="6155" max="6155" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6393" width="8.19921875" style="1"/>
-    <col min="6394" max="6394" width="3.19921875" style="1" customWidth="1"/>
+    <col min="6156" max="6393" width="8.25" style="1"/>
+    <col min="6394" max="6394" width="3.25" style="1" customWidth="1"/>
     <col min="6395" max="6395" width="7.5" style="1" customWidth="1"/>
-    <col min="6396" max="6396" width="20.19921875" style="1" customWidth="1"/>
+    <col min="6396" max="6396" width="20.25" style="1" customWidth="1"/>
     <col min="6397" max="6397" width="6" style="1" customWidth="1"/>
-    <col min="6398" max="6398" width="4.8984375" style="1" customWidth="1"/>
+    <col min="6398" max="6398" width="4.875" style="1" customWidth="1"/>
     <col min="6399" max="6399" width="4" style="1" customWidth="1"/>
-    <col min="6400" max="6400" width="6.59765625" style="1" customWidth="1"/>
-    <col min="6401" max="6401" width="5.69921875" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="8.69921875" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="8.19921875" style="1"/>
-    <col min="6404" max="6405" width="6.69921875" style="1" customWidth="1"/>
+    <col min="6400" max="6400" width="6.625" style="1" customWidth="1"/>
+    <col min="6401" max="6401" width="5.75" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="8.75" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="8.25" style="1"/>
+    <col min="6404" max="6405" width="6.75" style="1" customWidth="1"/>
     <col min="6406" max="6406" width="9" style="1" customWidth="1"/>
-    <col min="6407" max="6407" width="6.69921875" style="1" customWidth="1"/>
+    <col min="6407" max="6407" width="6.75" style="1" customWidth="1"/>
     <col min="6408" max="6408" width="13.5" style="1" customWidth="1"/>
     <col min="6409" max="6409" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="8.19921875" style="1"/>
+    <col min="6410" max="6410" width="8.25" style="1"/>
     <col min="6411" max="6411" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6649" width="8.19921875" style="1"/>
-    <col min="6650" max="6650" width="3.19921875" style="1" customWidth="1"/>
+    <col min="6412" max="6649" width="8.25" style="1"/>
+    <col min="6650" max="6650" width="3.25" style="1" customWidth="1"/>
     <col min="6651" max="6651" width="7.5" style="1" customWidth="1"/>
-    <col min="6652" max="6652" width="20.19921875" style="1" customWidth="1"/>
+    <col min="6652" max="6652" width="20.25" style="1" customWidth="1"/>
     <col min="6653" max="6653" width="6" style="1" customWidth="1"/>
-    <col min="6654" max="6654" width="4.8984375" style="1" customWidth="1"/>
+    <col min="6654" max="6654" width="4.875" style="1" customWidth="1"/>
     <col min="6655" max="6655" width="4" style="1" customWidth="1"/>
-    <col min="6656" max="6656" width="6.59765625" style="1" customWidth="1"/>
-    <col min="6657" max="6657" width="5.69921875" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="8.69921875" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="8.19921875" style="1"/>
-    <col min="6660" max="6661" width="6.69921875" style="1" customWidth="1"/>
+    <col min="6656" max="6656" width="6.625" style="1" customWidth="1"/>
+    <col min="6657" max="6657" width="5.75" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="8.75" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="8.25" style="1"/>
+    <col min="6660" max="6661" width="6.75" style="1" customWidth="1"/>
     <col min="6662" max="6662" width="9" style="1" customWidth="1"/>
-    <col min="6663" max="6663" width="6.69921875" style="1" customWidth="1"/>
+    <col min="6663" max="6663" width="6.75" style="1" customWidth="1"/>
     <col min="6664" max="6664" width="13.5" style="1" customWidth="1"/>
     <col min="6665" max="6665" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="8.19921875" style="1"/>
+    <col min="6666" max="6666" width="8.25" style="1"/>
     <col min="6667" max="6667" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6905" width="8.19921875" style="1"/>
-    <col min="6906" max="6906" width="3.19921875" style="1" customWidth="1"/>
+    <col min="6668" max="6905" width="8.25" style="1"/>
+    <col min="6906" max="6906" width="3.25" style="1" customWidth="1"/>
     <col min="6907" max="6907" width="7.5" style="1" customWidth="1"/>
-    <col min="6908" max="6908" width="20.19921875" style="1" customWidth="1"/>
+    <col min="6908" max="6908" width="20.25" style="1" customWidth="1"/>
     <col min="6909" max="6909" width="6" style="1" customWidth="1"/>
-    <col min="6910" max="6910" width="4.8984375" style="1" customWidth="1"/>
+    <col min="6910" max="6910" width="4.875" style="1" customWidth="1"/>
     <col min="6911" max="6911" width="4" style="1" customWidth="1"/>
-    <col min="6912" max="6912" width="6.59765625" style="1" customWidth="1"/>
-    <col min="6913" max="6913" width="5.69921875" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="8.69921875" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="8.19921875" style="1"/>
-    <col min="6916" max="6917" width="6.69921875" style="1" customWidth="1"/>
+    <col min="6912" max="6912" width="6.625" style="1" customWidth="1"/>
+    <col min="6913" max="6913" width="5.75" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="8.75" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="8.25" style="1"/>
+    <col min="6916" max="6917" width="6.75" style="1" customWidth="1"/>
     <col min="6918" max="6918" width="9" style="1" customWidth="1"/>
-    <col min="6919" max="6919" width="6.69921875" style="1" customWidth="1"/>
+    <col min="6919" max="6919" width="6.75" style="1" customWidth="1"/>
     <col min="6920" max="6920" width="13.5" style="1" customWidth="1"/>
     <col min="6921" max="6921" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="8.19921875" style="1"/>
+    <col min="6922" max="6922" width="8.25" style="1"/>
     <col min="6923" max="6923" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6924" max="7161" width="8.19921875" style="1"/>
-    <col min="7162" max="7162" width="3.19921875" style="1" customWidth="1"/>
+    <col min="6924" max="7161" width="8.25" style="1"/>
+    <col min="7162" max="7162" width="3.25" style="1" customWidth="1"/>
     <col min="7163" max="7163" width="7.5" style="1" customWidth="1"/>
-    <col min="7164" max="7164" width="20.19921875" style="1" customWidth="1"/>
+    <col min="7164" max="7164" width="20.25" style="1" customWidth="1"/>
     <col min="7165" max="7165" width="6" style="1" customWidth="1"/>
-    <col min="7166" max="7166" width="4.8984375" style="1" customWidth="1"/>
+    <col min="7166" max="7166" width="4.875" style="1" customWidth="1"/>
     <col min="7167" max="7167" width="4" style="1" customWidth="1"/>
-    <col min="7168" max="7168" width="6.59765625" style="1" customWidth="1"/>
-    <col min="7169" max="7169" width="5.69921875" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="8.69921875" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="8.19921875" style="1"/>
-    <col min="7172" max="7173" width="6.69921875" style="1" customWidth="1"/>
+    <col min="7168" max="7168" width="6.625" style="1" customWidth="1"/>
+    <col min="7169" max="7169" width="5.75" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="8.75" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="8.25" style="1"/>
+    <col min="7172" max="7173" width="6.75" style="1" customWidth="1"/>
     <col min="7174" max="7174" width="9" style="1" customWidth="1"/>
-    <col min="7175" max="7175" width="6.69921875" style="1" customWidth="1"/>
+    <col min="7175" max="7175" width="6.75" style="1" customWidth="1"/>
     <col min="7176" max="7176" width="13.5" style="1" customWidth="1"/>
     <col min="7177" max="7177" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="8.19921875" style="1"/>
+    <col min="7178" max="7178" width="8.25" style="1"/>
     <col min="7179" max="7179" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7417" width="8.19921875" style="1"/>
-    <col min="7418" max="7418" width="3.19921875" style="1" customWidth="1"/>
+    <col min="7180" max="7417" width="8.25" style="1"/>
+    <col min="7418" max="7418" width="3.25" style="1" customWidth="1"/>
     <col min="7419" max="7419" width="7.5" style="1" customWidth="1"/>
-    <col min="7420" max="7420" width="20.19921875" style="1" customWidth="1"/>
+    <col min="7420" max="7420" width="20.25" style="1" customWidth="1"/>
     <col min="7421" max="7421" width="6" style="1" customWidth="1"/>
-    <col min="7422" max="7422" width="4.8984375" style="1" customWidth="1"/>
+    <col min="7422" max="7422" width="4.875" style="1" customWidth="1"/>
     <col min="7423" max="7423" width="4" style="1" customWidth="1"/>
-    <col min="7424" max="7424" width="6.59765625" style="1" customWidth="1"/>
-    <col min="7425" max="7425" width="5.69921875" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="8.69921875" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="8.19921875" style="1"/>
-    <col min="7428" max="7429" width="6.69921875" style="1" customWidth="1"/>
+    <col min="7424" max="7424" width="6.625" style="1" customWidth="1"/>
+    <col min="7425" max="7425" width="5.75" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="8.75" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="8.25" style="1"/>
+    <col min="7428" max="7429" width="6.75" style="1" customWidth="1"/>
     <col min="7430" max="7430" width="9" style="1" customWidth="1"/>
-    <col min="7431" max="7431" width="6.69921875" style="1" customWidth="1"/>
+    <col min="7431" max="7431" width="6.75" style="1" customWidth="1"/>
     <col min="7432" max="7432" width="13.5" style="1" customWidth="1"/>
     <col min="7433" max="7433" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="8.19921875" style="1"/>
+    <col min="7434" max="7434" width="8.25" style="1"/>
     <col min="7435" max="7435" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7673" width="8.19921875" style="1"/>
-    <col min="7674" max="7674" width="3.19921875" style="1" customWidth="1"/>
+    <col min="7436" max="7673" width="8.25" style="1"/>
+    <col min="7674" max="7674" width="3.25" style="1" customWidth="1"/>
     <col min="7675" max="7675" width="7.5" style="1" customWidth="1"/>
-    <col min="7676" max="7676" width="20.19921875" style="1" customWidth="1"/>
+    <col min="7676" max="7676" width="20.25" style="1" customWidth="1"/>
     <col min="7677" max="7677" width="6" style="1" customWidth="1"/>
-    <col min="7678" max="7678" width="4.8984375" style="1" customWidth="1"/>
+    <col min="7678" max="7678" width="4.875" style="1" customWidth="1"/>
     <col min="7679" max="7679" width="4" style="1" customWidth="1"/>
-    <col min="7680" max="7680" width="6.59765625" style="1" customWidth="1"/>
-    <col min="7681" max="7681" width="5.69921875" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="8.69921875" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="8.19921875" style="1"/>
-    <col min="7684" max="7685" width="6.69921875" style="1" customWidth="1"/>
+    <col min="7680" max="7680" width="6.625" style="1" customWidth="1"/>
+    <col min="7681" max="7681" width="5.75" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="8.75" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="8.25" style="1"/>
+    <col min="7684" max="7685" width="6.75" style="1" customWidth="1"/>
     <col min="7686" max="7686" width="9" style="1" customWidth="1"/>
-    <col min="7687" max="7687" width="6.69921875" style="1" customWidth="1"/>
+    <col min="7687" max="7687" width="6.75" style="1" customWidth="1"/>
     <col min="7688" max="7688" width="13.5" style="1" customWidth="1"/>
     <col min="7689" max="7689" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="8.19921875" style="1"/>
+    <col min="7690" max="7690" width="8.25" style="1"/>
     <col min="7691" max="7691" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7929" width="8.19921875" style="1"/>
-    <col min="7930" max="7930" width="3.19921875" style="1" customWidth="1"/>
+    <col min="7692" max="7929" width="8.25" style="1"/>
+    <col min="7930" max="7930" width="3.25" style="1" customWidth="1"/>
     <col min="7931" max="7931" width="7.5" style="1" customWidth="1"/>
-    <col min="7932" max="7932" width="20.19921875" style="1" customWidth="1"/>
+    <col min="7932" max="7932" width="20.25" style="1" customWidth="1"/>
     <col min="7933" max="7933" width="6" style="1" customWidth="1"/>
-    <col min="7934" max="7934" width="4.8984375" style="1" customWidth="1"/>
+    <col min="7934" max="7934" width="4.875" style="1" customWidth="1"/>
     <col min="7935" max="7935" width="4" style="1" customWidth="1"/>
-    <col min="7936" max="7936" width="6.59765625" style="1" customWidth="1"/>
-    <col min="7937" max="7937" width="5.69921875" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="8.69921875" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="8.19921875" style="1"/>
-    <col min="7940" max="7941" width="6.69921875" style="1" customWidth="1"/>
+    <col min="7936" max="7936" width="6.625" style="1" customWidth="1"/>
+    <col min="7937" max="7937" width="5.75" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="8.75" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="8.25" style="1"/>
+    <col min="7940" max="7941" width="6.75" style="1" customWidth="1"/>
     <col min="7942" max="7942" width="9" style="1" customWidth="1"/>
-    <col min="7943" max="7943" width="6.69921875" style="1" customWidth="1"/>
+    <col min="7943" max="7943" width="6.75" style="1" customWidth="1"/>
     <col min="7944" max="7944" width="13.5" style="1" customWidth="1"/>
     <col min="7945" max="7945" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="8.19921875" style="1"/>
+    <col min="7946" max="7946" width="8.25" style="1"/>
     <col min="7947" max="7947" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7948" max="8185" width="8.19921875" style="1"/>
-    <col min="8186" max="8186" width="3.19921875" style="1" customWidth="1"/>
+    <col min="7948" max="8185" width="8.25" style="1"/>
+    <col min="8186" max="8186" width="3.25" style="1" customWidth="1"/>
     <col min="8187" max="8187" width="7.5" style="1" customWidth="1"/>
-    <col min="8188" max="8188" width="20.19921875" style="1" customWidth="1"/>
+    <col min="8188" max="8188" width="20.25" style="1" customWidth="1"/>
     <col min="8189" max="8189" width="6" style="1" customWidth="1"/>
-    <col min="8190" max="8190" width="4.8984375" style="1" customWidth="1"/>
+    <col min="8190" max="8190" width="4.875" style="1" customWidth="1"/>
     <col min="8191" max="8191" width="4" style="1" customWidth="1"/>
-    <col min="8192" max="8192" width="6.59765625" style="1" customWidth="1"/>
-    <col min="8193" max="8193" width="5.69921875" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="8.69921875" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="8.19921875" style="1"/>
-    <col min="8196" max="8197" width="6.69921875" style="1" customWidth="1"/>
+    <col min="8192" max="8192" width="6.625" style="1" customWidth="1"/>
+    <col min="8193" max="8193" width="5.75" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="8.75" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="8.25" style="1"/>
+    <col min="8196" max="8197" width="6.75" style="1" customWidth="1"/>
     <col min="8198" max="8198" width="9" style="1" customWidth="1"/>
-    <col min="8199" max="8199" width="6.69921875" style="1" customWidth="1"/>
+    <col min="8199" max="8199" width="6.75" style="1" customWidth="1"/>
     <col min="8200" max="8200" width="13.5" style="1" customWidth="1"/>
     <col min="8201" max="8201" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="8.19921875" style="1"/>
+    <col min="8202" max="8202" width="8.25" style="1"/>
     <col min="8203" max="8203" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8441" width="8.19921875" style="1"/>
-    <col min="8442" max="8442" width="3.19921875" style="1" customWidth="1"/>
+    <col min="8204" max="8441" width="8.25" style="1"/>
+    <col min="8442" max="8442" width="3.25" style="1" customWidth="1"/>
     <col min="8443" max="8443" width="7.5" style="1" customWidth="1"/>
-    <col min="8444" max="8444" width="20.19921875" style="1" customWidth="1"/>
+    <col min="8444" max="8444" width="20.25" style="1" customWidth="1"/>
     <col min="8445" max="8445" width="6" style="1" customWidth="1"/>
-    <col min="8446" max="8446" width="4.8984375" style="1" customWidth="1"/>
+    <col min="8446" max="8446" width="4.875" style="1" customWidth="1"/>
     <col min="8447" max="8447" width="4" style="1" customWidth="1"/>
-    <col min="8448" max="8448" width="6.59765625" style="1" customWidth="1"/>
-    <col min="8449" max="8449" width="5.69921875" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="8.69921875" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="8.19921875" style="1"/>
-    <col min="8452" max="8453" width="6.69921875" style="1" customWidth="1"/>
+    <col min="8448" max="8448" width="6.625" style="1" customWidth="1"/>
+    <col min="8449" max="8449" width="5.75" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="8.75" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="8.25" style="1"/>
+    <col min="8452" max="8453" width="6.75" style="1" customWidth="1"/>
     <col min="8454" max="8454" width="9" style="1" customWidth="1"/>
-    <col min="8455" max="8455" width="6.69921875" style="1" customWidth="1"/>
+    <col min="8455" max="8455" width="6.75" style="1" customWidth="1"/>
     <col min="8456" max="8456" width="13.5" style="1" customWidth="1"/>
     <col min="8457" max="8457" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="8.19921875" style="1"/>
+    <col min="8458" max="8458" width="8.25" style="1"/>
     <col min="8459" max="8459" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8697" width="8.19921875" style="1"/>
-    <col min="8698" max="8698" width="3.19921875" style="1" customWidth="1"/>
+    <col min="8460" max="8697" width="8.25" style="1"/>
+    <col min="8698" max="8698" width="3.25" style="1" customWidth="1"/>
     <col min="8699" max="8699" width="7.5" style="1" customWidth="1"/>
-    <col min="8700" max="8700" width="20.19921875" style="1" customWidth="1"/>
+    <col min="8700" max="8700" width="20.25" style="1" customWidth="1"/>
     <col min="8701" max="8701" width="6" style="1" customWidth="1"/>
-    <col min="8702" max="8702" width="4.8984375" style="1" customWidth="1"/>
+    <col min="8702" max="8702" width="4.875" style="1" customWidth="1"/>
     <col min="8703" max="8703" width="4" style="1" customWidth="1"/>
-    <col min="8704" max="8704" width="6.59765625" style="1" customWidth="1"/>
-    <col min="8705" max="8705" width="5.69921875" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="8.69921875" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="8.19921875" style="1"/>
-    <col min="8708" max="8709" width="6.69921875" style="1" customWidth="1"/>
+    <col min="8704" max="8704" width="6.625" style="1" customWidth="1"/>
+    <col min="8705" max="8705" width="5.75" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="8.75" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="8.25" style="1"/>
+    <col min="8708" max="8709" width="6.75" style="1" customWidth="1"/>
     <col min="8710" max="8710" width="9" style="1" customWidth="1"/>
-    <col min="8711" max="8711" width="6.69921875" style="1" customWidth="1"/>
+    <col min="8711" max="8711" width="6.75" style="1" customWidth="1"/>
     <col min="8712" max="8712" width="13.5" style="1" customWidth="1"/>
     <col min="8713" max="8713" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="8.19921875" style="1"/>
+    <col min="8714" max="8714" width="8.25" style="1"/>
     <col min="8715" max="8715" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8953" width="8.19921875" style="1"/>
-    <col min="8954" max="8954" width="3.19921875" style="1" customWidth="1"/>
+    <col min="8716" max="8953" width="8.25" style="1"/>
+    <col min="8954" max="8954" width="3.25" style="1" customWidth="1"/>
     <col min="8955" max="8955" width="7.5" style="1" customWidth="1"/>
-    <col min="8956" max="8956" width="20.19921875" style="1" customWidth="1"/>
+    <col min="8956" max="8956" width="20.25" style="1" customWidth="1"/>
     <col min="8957" max="8957" width="6" style="1" customWidth="1"/>
-    <col min="8958" max="8958" width="4.8984375" style="1" customWidth="1"/>
+    <col min="8958" max="8958" width="4.875" style="1" customWidth="1"/>
     <col min="8959" max="8959" width="4" style="1" customWidth="1"/>
-    <col min="8960" max="8960" width="6.59765625" style="1" customWidth="1"/>
-    <col min="8961" max="8961" width="5.69921875" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="8.69921875" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="8.19921875" style="1"/>
-    <col min="8964" max="8965" width="6.69921875" style="1" customWidth="1"/>
+    <col min="8960" max="8960" width="6.625" style="1" customWidth="1"/>
+    <col min="8961" max="8961" width="5.75" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="8.75" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="8.25" style="1"/>
+    <col min="8964" max="8965" width="6.75" style="1" customWidth="1"/>
     <col min="8966" max="8966" width="9" style="1" customWidth="1"/>
-    <col min="8967" max="8967" width="6.69921875" style="1" customWidth="1"/>
+    <col min="8967" max="8967" width="6.75" style="1" customWidth="1"/>
     <col min="8968" max="8968" width="13.5" style="1" customWidth="1"/>
     <col min="8969" max="8969" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="8.19921875" style="1"/>
+    <col min="8970" max="8970" width="8.25" style="1"/>
     <col min="8971" max="8971" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8972" max="9209" width="8.19921875" style="1"/>
-    <col min="9210" max="9210" width="3.19921875" style="1" customWidth="1"/>
+    <col min="8972" max="9209" width="8.25" style="1"/>
+    <col min="9210" max="9210" width="3.25" style="1" customWidth="1"/>
     <col min="9211" max="9211" width="7.5" style="1" customWidth="1"/>
-    <col min="9212" max="9212" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9212" max="9212" width="20.25" style="1" customWidth="1"/>
     <col min="9213" max="9213" width="6" style="1" customWidth="1"/>
-    <col min="9214" max="9214" width="4.8984375" style="1" customWidth="1"/>
+    <col min="9214" max="9214" width="4.875" style="1" customWidth="1"/>
     <col min="9215" max="9215" width="4" style="1" customWidth="1"/>
-    <col min="9216" max="9216" width="6.59765625" style="1" customWidth="1"/>
-    <col min="9217" max="9217" width="5.69921875" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="8.69921875" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="8.19921875" style="1"/>
-    <col min="9220" max="9221" width="6.69921875" style="1" customWidth="1"/>
+    <col min="9216" max="9216" width="6.625" style="1" customWidth="1"/>
+    <col min="9217" max="9217" width="5.75" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="8.75" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="8.25" style="1"/>
+    <col min="9220" max="9221" width="6.75" style="1" customWidth="1"/>
     <col min="9222" max="9222" width="9" style="1" customWidth="1"/>
-    <col min="9223" max="9223" width="6.69921875" style="1" customWidth="1"/>
+    <col min="9223" max="9223" width="6.75" style="1" customWidth="1"/>
     <col min="9224" max="9224" width="13.5" style="1" customWidth="1"/>
     <col min="9225" max="9225" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="8.19921875" style="1"/>
+    <col min="9226" max="9226" width="8.25" style="1"/>
     <col min="9227" max="9227" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9465" width="8.19921875" style="1"/>
-    <col min="9466" max="9466" width="3.19921875" style="1" customWidth="1"/>
+    <col min="9228" max="9465" width="8.25" style="1"/>
+    <col min="9466" max="9466" width="3.25" style="1" customWidth="1"/>
     <col min="9467" max="9467" width="7.5" style="1" customWidth="1"/>
-    <col min="9468" max="9468" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9468" max="9468" width="20.25" style="1" customWidth="1"/>
     <col min="9469" max="9469" width="6" style="1" customWidth="1"/>
-    <col min="9470" max="9470" width="4.8984375" style="1" customWidth="1"/>
+    <col min="9470" max="9470" width="4.875" style="1" customWidth="1"/>
     <col min="9471" max="9471" width="4" style="1" customWidth="1"/>
-    <col min="9472" max="9472" width="6.59765625" style="1" customWidth="1"/>
-    <col min="9473" max="9473" width="5.69921875" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="8.69921875" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="8.19921875" style="1"/>
-    <col min="9476" max="9477" width="6.69921875" style="1" customWidth="1"/>
+    <col min="9472" max="9472" width="6.625" style="1" customWidth="1"/>
+    <col min="9473" max="9473" width="5.75" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="8.75" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="8.25" style="1"/>
+    <col min="9476" max="9477" width="6.75" style="1" customWidth="1"/>
     <col min="9478" max="9478" width="9" style="1" customWidth="1"/>
-    <col min="9479" max="9479" width="6.69921875" style="1" customWidth="1"/>
+    <col min="9479" max="9479" width="6.75" style="1" customWidth="1"/>
     <col min="9480" max="9480" width="13.5" style="1" customWidth="1"/>
     <col min="9481" max="9481" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="8.19921875" style="1"/>
+    <col min="9482" max="9482" width="8.25" style="1"/>
     <col min="9483" max="9483" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9721" width="8.19921875" style="1"/>
-    <col min="9722" max="9722" width="3.19921875" style="1" customWidth="1"/>
+    <col min="9484" max="9721" width="8.25" style="1"/>
+    <col min="9722" max="9722" width="3.25" style="1" customWidth="1"/>
     <col min="9723" max="9723" width="7.5" style="1" customWidth="1"/>
-    <col min="9724" max="9724" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9724" max="9724" width="20.25" style="1" customWidth="1"/>
     <col min="9725" max="9725" width="6" style="1" customWidth="1"/>
-    <col min="9726" max="9726" width="4.8984375" style="1" customWidth="1"/>
+    <col min="9726" max="9726" width="4.875" style="1" customWidth="1"/>
     <col min="9727" max="9727" width="4" style="1" customWidth="1"/>
-    <col min="9728" max="9728" width="6.59765625" style="1" customWidth="1"/>
-    <col min="9729" max="9729" width="5.69921875" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="8.69921875" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="8.19921875" style="1"/>
-    <col min="9732" max="9733" width="6.69921875" style="1" customWidth="1"/>
+    <col min="9728" max="9728" width="6.625" style="1" customWidth="1"/>
+    <col min="9729" max="9729" width="5.75" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="8.75" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="8.25" style="1"/>
+    <col min="9732" max="9733" width="6.75" style="1" customWidth="1"/>
     <col min="9734" max="9734" width="9" style="1" customWidth="1"/>
-    <col min="9735" max="9735" width="6.69921875" style="1" customWidth="1"/>
+    <col min="9735" max="9735" width="6.75" style="1" customWidth="1"/>
     <col min="9736" max="9736" width="13.5" style="1" customWidth="1"/>
     <col min="9737" max="9737" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="8.19921875" style="1"/>
+    <col min="9738" max="9738" width="8.25" style="1"/>
     <col min="9739" max="9739" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9977" width="8.19921875" style="1"/>
-    <col min="9978" max="9978" width="3.19921875" style="1" customWidth="1"/>
+    <col min="9740" max="9977" width="8.25" style="1"/>
+    <col min="9978" max="9978" width="3.25" style="1" customWidth="1"/>
     <col min="9979" max="9979" width="7.5" style="1" customWidth="1"/>
-    <col min="9980" max="9980" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9980" max="9980" width="20.25" style="1" customWidth="1"/>
     <col min="9981" max="9981" width="6" style="1" customWidth="1"/>
-    <col min="9982" max="9982" width="4.8984375" style="1" customWidth="1"/>
+    <col min="9982" max="9982" width="4.875" style="1" customWidth="1"/>
     <col min="9983" max="9983" width="4" style="1" customWidth="1"/>
-    <col min="9984" max="9984" width="6.59765625" style="1" customWidth="1"/>
-    <col min="9985" max="9985" width="5.69921875" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="8.69921875" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="8.19921875" style="1"/>
-    <col min="9988" max="9989" width="6.69921875" style="1" customWidth="1"/>
+    <col min="9984" max="9984" width="6.625" style="1" customWidth="1"/>
+    <col min="9985" max="9985" width="5.75" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="8.75" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="8.25" style="1"/>
+    <col min="9988" max="9989" width="6.75" style="1" customWidth="1"/>
     <col min="9990" max="9990" width="9" style="1" customWidth="1"/>
-    <col min="9991" max="9991" width="6.69921875" style="1" customWidth="1"/>
+    <col min="9991" max="9991" width="6.75" style="1" customWidth="1"/>
     <col min="9992" max="9992" width="13.5" style="1" customWidth="1"/>
     <col min="9993" max="9993" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="8.19921875" style="1"/>
+    <col min="9994" max="9994" width="8.25" style="1"/>
     <col min="9995" max="9995" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9996" max="10233" width="8.19921875" style="1"/>
-    <col min="10234" max="10234" width="3.19921875" style="1" customWidth="1"/>
+    <col min="9996" max="10233" width="8.25" style="1"/>
+    <col min="10234" max="10234" width="3.25" style="1" customWidth="1"/>
     <col min="10235" max="10235" width="7.5" style="1" customWidth="1"/>
-    <col min="10236" max="10236" width="20.19921875" style="1" customWidth="1"/>
+    <col min="10236" max="10236" width="20.25" style="1" customWidth="1"/>
     <col min="10237" max="10237" width="6" style="1" customWidth="1"/>
-    <col min="10238" max="10238" width="4.8984375" style="1" customWidth="1"/>
+    <col min="10238" max="10238" width="4.875" style="1" customWidth="1"/>
     <col min="10239" max="10239" width="4" style="1" customWidth="1"/>
-    <col min="10240" max="10240" width="6.59765625" style="1" customWidth="1"/>
-    <col min="10241" max="10241" width="5.69921875" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="8.69921875" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="8.19921875" style="1"/>
-    <col min="10244" max="10245" width="6.69921875" style="1" customWidth="1"/>
+    <col min="10240" max="10240" width="6.625" style="1" customWidth="1"/>
+    <col min="10241" max="10241" width="5.75" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="8.75" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="8.25" style="1"/>
+    <col min="10244" max="10245" width="6.75" style="1" customWidth="1"/>
     <col min="10246" max="10246" width="9" style="1" customWidth="1"/>
-    <col min="10247" max="10247" width="6.69921875" style="1" customWidth="1"/>
+    <col min="10247" max="10247" width="6.75" style="1" customWidth="1"/>
     <col min="10248" max="10248" width="13.5" style="1" customWidth="1"/>
     <col min="10249" max="10249" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="8.19921875" style="1"/>
+    <col min="10250" max="10250" width="8.25" style="1"/>
     <col min="10251" max="10251" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10489" width="8.19921875" style="1"/>
-    <col min="10490" max="10490" width="3.19921875" style="1" customWidth="1"/>
+    <col min="10252" max="10489" width="8.25" style="1"/>
+    <col min="10490" max="10490" width="3.25" style="1" customWidth="1"/>
     <col min="10491" max="10491" width="7.5" style="1" customWidth="1"/>
-    <col min="10492" max="10492" width="20.19921875" style="1" customWidth="1"/>
+    <col min="10492" max="10492" width="20.25" style="1" customWidth="1"/>
     <col min="10493" max="10493" width="6" style="1" customWidth="1"/>
-    <col min="10494" max="10494" width="4.8984375" style="1" customWidth="1"/>
+    <col min="10494" max="10494" width="4.875" style="1" customWidth="1"/>
     <col min="10495" max="10495" width="4" style="1" customWidth="1"/>
-    <col min="10496" max="10496" width="6.59765625" style="1" customWidth="1"/>
-    <col min="10497" max="10497" width="5.69921875" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="8.69921875" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="8.19921875" style="1"/>
-    <col min="10500" max="10501" width="6.69921875" style="1" customWidth="1"/>
+    <col min="10496" max="10496" width="6.625" style="1" customWidth="1"/>
+    <col min="10497" max="10497" width="5.75" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="8.75" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="8.25" style="1"/>
+    <col min="10500" max="10501" width="6.75" style="1" customWidth="1"/>
     <col min="10502" max="10502" width="9" style="1" customWidth="1"/>
-    <col min="10503" max="10503" width="6.69921875" style="1" customWidth="1"/>
+    <col min="10503" max="10503" width="6.75" style="1" customWidth="1"/>
     <col min="10504" max="10504" width="13.5" style="1" customWidth="1"/>
     <col min="10505" max="10505" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="8.19921875" style="1"/>
+    <col min="10506" max="10506" width="8.25" style="1"/>
     <col min="10507" max="10507" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10745" width="8.19921875" style="1"/>
-    <col min="10746" max="10746" width="3.19921875" style="1" customWidth="1"/>
+    <col min="10508" max="10745" width="8.25" style="1"/>
+    <col min="10746" max="10746" width="3.25" style="1" customWidth="1"/>
     <col min="10747" max="10747" width="7.5" style="1" customWidth="1"/>
-    <col min="10748" max="10748" width="20.19921875" style="1" customWidth="1"/>
+    <col min="10748" max="10748" width="20.25" style="1" customWidth="1"/>
     <col min="10749" max="10749" width="6" style="1" customWidth="1"/>
-    <col min="10750" max="10750" width="4.8984375" style="1" customWidth="1"/>
+    <col min="10750" max="10750" width="4.875" style="1" customWidth="1"/>
     <col min="10751" max="10751" width="4" style="1" customWidth="1"/>
-    <col min="10752" max="10752" width="6.59765625" style="1" customWidth="1"/>
-    <col min="10753" max="10753" width="5.69921875" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="8.69921875" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="8.19921875" style="1"/>
-    <col min="10756" max="10757" width="6.69921875" style="1" customWidth="1"/>
+    <col min="10752" max="10752" width="6.625" style="1" customWidth="1"/>
+    <col min="10753" max="10753" width="5.75" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="8.75" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="8.25" style="1"/>
+    <col min="10756" max="10757" width="6.75" style="1" customWidth="1"/>
     <col min="10758" max="10758" width="9" style="1" customWidth="1"/>
-    <col min="10759" max="10759" width="6.69921875" style="1" customWidth="1"/>
+    <col min="10759" max="10759" width="6.75" style="1" customWidth="1"/>
     <col min="10760" max="10760" width="13.5" style="1" customWidth="1"/>
     <col min="10761" max="10761" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="8.19921875" style="1"/>
+    <col min="10762" max="10762" width="8.25" style="1"/>
     <col min="10763" max="10763" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10764" max="11001" width="8.19921875" style="1"/>
-    <col min="11002" max="11002" width="3.19921875" style="1" customWidth="1"/>
+    <col min="10764" max="11001" width="8.25" style="1"/>
+    <col min="11002" max="11002" width="3.25" style="1" customWidth="1"/>
     <col min="11003" max="11003" width="7.5" style="1" customWidth="1"/>
-    <col min="11004" max="11004" width="20.19921875" style="1" customWidth="1"/>
+    <col min="11004" max="11004" width="20.25" style="1" customWidth="1"/>
     <col min="11005" max="11005" width="6" style="1" customWidth="1"/>
-    <col min="11006" max="11006" width="4.8984375" style="1" customWidth="1"/>
+    <col min="11006" max="11006" width="4.875" style="1" customWidth="1"/>
     <col min="11007" max="11007" width="4" style="1" customWidth="1"/>
-    <col min="11008" max="11008" width="6.59765625" style="1" customWidth="1"/>
-    <col min="11009" max="11009" width="5.69921875" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="8.69921875" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="8.19921875" style="1"/>
-    <col min="11012" max="11013" width="6.69921875" style="1" customWidth="1"/>
+    <col min="11008" max="11008" width="6.625" style="1" customWidth="1"/>
+    <col min="11009" max="11009" width="5.75" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="8.75" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="8.25" style="1"/>
+    <col min="11012" max="11013" width="6.75" style="1" customWidth="1"/>
     <col min="11014" max="11014" width="9" style="1" customWidth="1"/>
-    <col min="11015" max="11015" width="6.69921875" style="1" customWidth="1"/>
+    <col min="11015" max="11015" width="6.75" style="1" customWidth="1"/>
     <col min="11016" max="11016" width="13.5" style="1" customWidth="1"/>
     <col min="11017" max="11017" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="8.19921875" style="1"/>
+    <col min="11018" max="11018" width="8.25" style="1"/>
     <col min="11019" max="11019" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11257" width="8.19921875" style="1"/>
-    <col min="11258" max="11258" width="3.19921875" style="1" customWidth="1"/>
+    <col min="11020" max="11257" width="8.25" style="1"/>
+    <col min="11258" max="11258" width="3.25" style="1" customWidth="1"/>
     <col min="11259" max="11259" width="7.5" style="1" customWidth="1"/>
-    <col min="11260" max="11260" width="20.19921875" style="1" customWidth="1"/>
+    <col min="11260" max="11260" width="20.25" style="1" customWidth="1"/>
     <col min="11261" max="11261" width="6" style="1" customWidth="1"/>
-    <col min="11262" max="11262" width="4.8984375" style="1" customWidth="1"/>
+    <col min="11262" max="11262" width="4.875" style="1" customWidth="1"/>
     <col min="11263" max="11263" width="4" style="1" customWidth="1"/>
-    <col min="11264" max="11264" width="6.59765625" style="1" customWidth="1"/>
-    <col min="11265" max="11265" width="5.69921875" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="8.69921875" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="8.19921875" style="1"/>
-    <col min="11268" max="11269" width="6.69921875" style="1" customWidth="1"/>
+    <col min="11264" max="11264" width="6.625" style="1" customWidth="1"/>
+    <col min="11265" max="11265" width="5.75" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="8.75" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="8.25" style="1"/>
+    <col min="11268" max="11269" width="6.75" style="1" customWidth="1"/>
     <col min="11270" max="11270" width="9" style="1" customWidth="1"/>
-    <col min="11271" max="11271" width="6.69921875" style="1" customWidth="1"/>
+    <col min="11271" max="11271" width="6.75" style="1" customWidth="1"/>
     <col min="11272" max="11272" width="13.5" style="1" customWidth="1"/>
     <col min="11273" max="11273" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="8.19921875" style="1"/>
+    <col min="11274" max="11274" width="8.25" style="1"/>
     <col min="11275" max="11275" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11513" width="8.19921875" style="1"/>
-    <col min="11514" max="11514" width="3.19921875" style="1" customWidth="1"/>
+    <col min="11276" max="11513" width="8.25" style="1"/>
+    <col min="11514" max="11514" width="3.25" style="1" customWidth="1"/>
     <col min="11515" max="11515" width="7.5" style="1" customWidth="1"/>
-    <col min="11516" max="11516" width="20.19921875" style="1" customWidth="1"/>
+    <col min="11516" max="11516" width="20.25" style="1" customWidth="1"/>
     <col min="11517" max="11517" width="6" style="1" customWidth="1"/>
-    <col min="11518" max="11518" width="4.8984375" style="1" customWidth="1"/>
+    <col min="11518" max="11518" width="4.875" style="1" customWidth="1"/>
     <col min="11519" max="11519" width="4" style="1" customWidth="1"/>
-    <col min="11520" max="11520" width="6.59765625" style="1" customWidth="1"/>
-    <col min="11521" max="11521" width="5.69921875" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="8.69921875" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="8.19921875" style="1"/>
-    <col min="11524" max="11525" width="6.69921875" style="1" customWidth="1"/>
+    <col min="11520" max="11520" width="6.625" style="1" customWidth="1"/>
+    <col min="11521" max="11521" width="5.75" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="8.75" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="8.25" style="1"/>
+    <col min="11524" max="11525" width="6.75" style="1" customWidth="1"/>
     <col min="11526" max="11526" width="9" style="1" customWidth="1"/>
-    <col min="11527" max="11527" width="6.69921875" style="1" customWidth="1"/>
+    <col min="11527" max="11527" width="6.75" style="1" customWidth="1"/>
     <col min="11528" max="11528" width="13.5" style="1" customWidth="1"/>
     <col min="11529" max="11529" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="8.19921875" style="1"/>
+    <col min="11530" max="11530" width="8.25" style="1"/>
     <col min="11531" max="11531" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11769" width="8.19921875" style="1"/>
-    <col min="11770" max="11770" width="3.19921875" style="1" customWidth="1"/>
+    <col min="11532" max="11769" width="8.25" style="1"/>
+    <col min="11770" max="11770" width="3.25" style="1" customWidth="1"/>
     <col min="11771" max="11771" width="7.5" style="1" customWidth="1"/>
-    <col min="11772" max="11772" width="20.19921875" style="1" customWidth="1"/>
+    <col min="11772" max="11772" width="20.25" style="1" customWidth="1"/>
     <col min="11773" max="11773" width="6" style="1" customWidth="1"/>
-    <col min="11774" max="11774" width="4.8984375" style="1" customWidth="1"/>
+    <col min="11774" max="11774" width="4.875" style="1" customWidth="1"/>
     <col min="11775" max="11775" width="4" style="1" customWidth="1"/>
-    <col min="11776" max="11776" width="6.59765625" style="1" customWidth="1"/>
-    <col min="11777" max="11777" width="5.69921875" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="8.69921875" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="8.19921875" style="1"/>
-    <col min="11780" max="11781" width="6.69921875" style="1" customWidth="1"/>
+    <col min="11776" max="11776" width="6.625" style="1" customWidth="1"/>
+    <col min="11777" max="11777" width="5.75" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="8.75" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="8.25" style="1"/>
+    <col min="11780" max="11781" width="6.75" style="1" customWidth="1"/>
     <col min="11782" max="11782" width="9" style="1" customWidth="1"/>
-    <col min="11783" max="11783" width="6.69921875" style="1" customWidth="1"/>
+    <col min="11783" max="11783" width="6.75" style="1" customWidth="1"/>
     <col min="11784" max="11784" width="13.5" style="1" customWidth="1"/>
     <col min="11785" max="11785" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="8.19921875" style="1"/>
+    <col min="11786" max="11786" width="8.25" style="1"/>
     <col min="11787" max="11787" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11788" max="12025" width="8.19921875" style="1"/>
-    <col min="12026" max="12026" width="3.19921875" style="1" customWidth="1"/>
+    <col min="11788" max="12025" width="8.25" style="1"/>
+    <col min="12026" max="12026" width="3.25" style="1" customWidth="1"/>
     <col min="12027" max="12027" width="7.5" style="1" customWidth="1"/>
-    <col min="12028" max="12028" width="20.19921875" style="1" customWidth="1"/>
+    <col min="12028" max="12028" width="20.25" style="1" customWidth="1"/>
     <col min="12029" max="12029" width="6" style="1" customWidth="1"/>
-    <col min="12030" max="12030" width="4.8984375" style="1" customWidth="1"/>
+    <col min="12030" max="12030" width="4.875" style="1" customWidth="1"/>
     <col min="12031" max="12031" width="4" style="1" customWidth="1"/>
-    <col min="12032" max="12032" width="6.59765625" style="1" customWidth="1"/>
-    <col min="12033" max="12033" width="5.69921875" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="8.69921875" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="8.19921875" style="1"/>
-    <col min="12036" max="12037" width="6.69921875" style="1" customWidth="1"/>
+    <col min="12032" max="12032" width="6.625" style="1" customWidth="1"/>
+    <col min="12033" max="12033" width="5.75" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="8.75" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="8.25" style="1"/>
+    <col min="12036" max="12037" width="6.75" style="1" customWidth="1"/>
     <col min="12038" max="12038" width="9" style="1" customWidth="1"/>
-    <col min="12039" max="12039" width="6.69921875" style="1" customWidth="1"/>
+    <col min="12039" max="12039" width="6.75" style="1" customWidth="1"/>
     <col min="12040" max="12040" width="13.5" style="1" customWidth="1"/>
     <col min="12041" max="12041" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="8.19921875" style="1"/>
+    <col min="12042" max="12042" width="8.25" style="1"/>
     <col min="12043" max="12043" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12281" width="8.19921875" style="1"/>
-    <col min="12282" max="12282" width="3.19921875" style="1" customWidth="1"/>
+    <col min="12044" max="12281" width="8.25" style="1"/>
+    <col min="12282" max="12282" width="3.25" style="1" customWidth="1"/>
     <col min="12283" max="12283" width="7.5" style="1" customWidth="1"/>
-    <col min="12284" max="12284" width="20.19921875" style="1" customWidth="1"/>
+    <col min="12284" max="12284" width="20.25" style="1" customWidth="1"/>
     <col min="12285" max="12285" width="6" style="1" customWidth="1"/>
-    <col min="12286" max="12286" width="4.8984375" style="1" customWidth="1"/>
+    <col min="12286" max="12286" width="4.875" style="1" customWidth="1"/>
     <col min="12287" max="12287" width="4" style="1" customWidth="1"/>
-    <col min="12288" max="12288" width="6.59765625" style="1" customWidth="1"/>
-    <col min="12289" max="12289" width="5.69921875" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="8.69921875" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="8.19921875" style="1"/>
-    <col min="12292" max="12293" width="6.69921875" style="1" customWidth="1"/>
+    <col min="12288" max="12288" width="6.625" style="1" customWidth="1"/>
+    <col min="12289" max="12289" width="5.75" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="8.75" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="8.25" style="1"/>
+    <col min="12292" max="12293" width="6.75" style="1" customWidth="1"/>
     <col min="12294" max="12294" width="9" style="1" customWidth="1"/>
-    <col min="12295" max="12295" width="6.69921875" style="1" customWidth="1"/>
+    <col min="12295" max="12295" width="6.75" style="1" customWidth="1"/>
     <col min="12296" max="12296" width="13.5" style="1" customWidth="1"/>
     <col min="12297" max="12297" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="8.19921875" style="1"/>
+    <col min="12298" max="12298" width="8.25" style="1"/>
     <col min="12299" max="12299" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12537" width="8.19921875" style="1"/>
-    <col min="12538" max="12538" width="3.19921875" style="1" customWidth="1"/>
+    <col min="12300" max="12537" width="8.25" style="1"/>
+    <col min="12538" max="12538" width="3.25" style="1" customWidth="1"/>
     <col min="12539" max="12539" width="7.5" style="1" customWidth="1"/>
-    <col min="12540" max="12540" width="20.19921875" style="1" customWidth="1"/>
+    <col min="12540" max="12540" width="20.25" style="1" customWidth="1"/>
     <col min="12541" max="12541" width="6" style="1" customWidth="1"/>
-    <col min="12542" max="12542" width="4.8984375" style="1" customWidth="1"/>
+    <col min="12542" max="12542" width="4.875" style="1" customWidth="1"/>
     <col min="12543" max="12543" width="4" style="1" customWidth="1"/>
-    <col min="12544" max="12544" width="6.59765625" style="1" customWidth="1"/>
-    <col min="12545" max="12545" width="5.69921875" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="8.69921875" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="8.19921875" style="1"/>
-    <col min="12548" max="12549" width="6.69921875" style="1" customWidth="1"/>
+    <col min="12544" max="12544" width="6.625" style="1" customWidth="1"/>
+    <col min="12545" max="12545" width="5.75" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="8.75" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="8.25" style="1"/>
+    <col min="12548" max="12549" width="6.75" style="1" customWidth="1"/>
     <col min="12550" max="12550" width="9" style="1" customWidth="1"/>
-    <col min="12551" max="12551" width="6.69921875" style="1" customWidth="1"/>
+    <col min="12551" max="12551" width="6.75" style="1" customWidth="1"/>
     <col min="12552" max="12552" width="13.5" style="1" customWidth="1"/>
     <col min="12553" max="12553" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="8.19921875" style="1"/>
+    <col min="12554" max="12554" width="8.25" style="1"/>
     <col min="12555" max="12555" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12793" width="8.19921875" style="1"/>
-    <col min="12794" max="12794" width="3.19921875" style="1" customWidth="1"/>
+    <col min="12556" max="12793" width="8.25" style="1"/>
+    <col min="12794" max="12794" width="3.25" style="1" customWidth="1"/>
     <col min="12795" max="12795" width="7.5" style="1" customWidth="1"/>
-    <col min="12796" max="12796" width="20.19921875" style="1" customWidth="1"/>
+    <col min="12796" max="12796" width="20.25" style="1" customWidth="1"/>
     <col min="12797" max="12797" width="6" style="1" customWidth="1"/>
-    <col min="12798" max="12798" width="4.8984375" style="1" customWidth="1"/>
+    <col min="12798" max="12798" width="4.875" style="1" customWidth="1"/>
     <col min="12799" max="12799" width="4" style="1" customWidth="1"/>
-    <col min="12800" max="12800" width="6.59765625" style="1" customWidth="1"/>
-    <col min="12801" max="12801" width="5.69921875" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="8.69921875" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="8.19921875" style="1"/>
-    <col min="12804" max="12805" width="6.69921875" style="1" customWidth="1"/>
+    <col min="12800" max="12800" width="6.625" style="1" customWidth="1"/>
+    <col min="12801" max="12801" width="5.75" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="8.75" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="8.25" style="1"/>
+    <col min="12804" max="12805" width="6.75" style="1" customWidth="1"/>
     <col min="12806" max="12806" width="9" style="1" customWidth="1"/>
-    <col min="12807" max="12807" width="6.69921875" style="1" customWidth="1"/>
+    <col min="12807" max="12807" width="6.75" style="1" customWidth="1"/>
     <col min="12808" max="12808" width="13.5" style="1" customWidth="1"/>
     <col min="12809" max="12809" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="8.19921875" style="1"/>
+    <col min="12810" max="12810" width="8.25" style="1"/>
     <col min="12811" max="12811" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12812" max="13049" width="8.19921875" style="1"/>
-    <col min="13050" max="13050" width="3.19921875" style="1" customWidth="1"/>
+    <col min="12812" max="13049" width="8.25" style="1"/>
+    <col min="13050" max="13050" width="3.25" style="1" customWidth="1"/>
     <col min="13051" max="13051" width="7.5" style="1" customWidth="1"/>
-    <col min="13052" max="13052" width="20.19921875" style="1" customWidth="1"/>
+    <col min="13052" max="13052" width="20.25" style="1" customWidth="1"/>
     <col min="13053" max="13053" width="6" style="1" customWidth="1"/>
-    <col min="13054" max="13054" width="4.8984375" style="1" customWidth="1"/>
+    <col min="13054" max="13054" width="4.875" style="1" customWidth="1"/>
     <col min="13055" max="13055" width="4" style="1" customWidth="1"/>
-    <col min="13056" max="13056" width="6.59765625" style="1" customWidth="1"/>
-    <col min="13057" max="13057" width="5.69921875" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="8.69921875" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="8.19921875" style="1"/>
-    <col min="13060" max="13061" width="6.69921875" style="1" customWidth="1"/>
+    <col min="13056" max="13056" width="6.625" style="1" customWidth="1"/>
+    <col min="13057" max="13057" width="5.75" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="8.75" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="8.25" style="1"/>
+    <col min="13060" max="13061" width="6.75" style="1" customWidth="1"/>
     <col min="13062" max="13062" width="9" style="1" customWidth="1"/>
-    <col min="13063" max="13063" width="6.69921875" style="1" customWidth="1"/>
+    <col min="13063" max="13063" width="6.75" style="1" customWidth="1"/>
     <col min="13064" max="13064" width="13.5" style="1" customWidth="1"/>
     <col min="13065" max="13065" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="8.19921875" style="1"/>
+    <col min="13066" max="13066" width="8.25" style="1"/>
     <col min="13067" max="13067" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13305" width="8.19921875" style="1"/>
-    <col min="13306" max="13306" width="3.19921875" style="1" customWidth="1"/>
+    <col min="13068" max="13305" width="8.25" style="1"/>
+    <col min="13306" max="13306" width="3.25" style="1" customWidth="1"/>
     <col min="13307" max="13307" width="7.5" style="1" customWidth="1"/>
-    <col min="13308" max="13308" width="20.19921875" style="1" customWidth="1"/>
+    <col min="13308" max="13308" width="20.25" style="1" customWidth="1"/>
     <col min="13309" max="13309" width="6" style="1" customWidth="1"/>
-    <col min="13310" max="13310" width="4.8984375" style="1" customWidth="1"/>
+    <col min="13310" max="13310" width="4.875" style="1" customWidth="1"/>
     <col min="13311" max="13311" width="4" style="1" customWidth="1"/>
-    <col min="13312" max="13312" width="6.59765625" style="1" customWidth="1"/>
-    <col min="13313" max="13313" width="5.69921875" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="8.69921875" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="8.19921875" style="1"/>
-    <col min="13316" max="13317" width="6.69921875" style="1" customWidth="1"/>
+    <col min="13312" max="13312" width="6.625" style="1" customWidth="1"/>
+    <col min="13313" max="13313" width="5.75" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="8.75" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="8.25" style="1"/>
+    <col min="13316" max="13317" width="6.75" style="1" customWidth="1"/>
     <col min="13318" max="13318" width="9" style="1" customWidth="1"/>
-    <col min="13319" max="13319" width="6.69921875" style="1" customWidth="1"/>
+    <col min="13319" max="13319" width="6.75" style="1" customWidth="1"/>
     <col min="13320" max="13320" width="13.5" style="1" customWidth="1"/>
     <col min="13321" max="13321" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="8.19921875" style="1"/>
+    <col min="13322" max="13322" width="8.25" style="1"/>
     <col min="13323" max="13323" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13561" width="8.19921875" style="1"/>
-    <col min="13562" max="13562" width="3.19921875" style="1" customWidth="1"/>
+    <col min="13324" max="13561" width="8.25" style="1"/>
+    <col min="13562" max="13562" width="3.25" style="1" customWidth="1"/>
     <col min="13563" max="13563" width="7.5" style="1" customWidth="1"/>
-    <col min="13564" max="13564" width="20.19921875" style="1" customWidth="1"/>
+    <col min="13564" max="13564" width="20.25" style="1" customWidth="1"/>
     <col min="13565" max="13565" width="6" style="1" customWidth="1"/>
-    <col min="13566" max="13566" width="4.8984375" style="1" customWidth="1"/>
+    <col min="13566" max="13566" width="4.875" style="1" customWidth="1"/>
     <col min="13567" max="13567" width="4" style="1" customWidth="1"/>
-    <col min="13568" max="13568" width="6.59765625" style="1" customWidth="1"/>
-    <col min="13569" max="13569" width="5.69921875" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="8.69921875" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="8.19921875" style="1"/>
-    <col min="13572" max="13573" width="6.69921875" style="1" customWidth="1"/>
+    <col min="13568" max="13568" width="6.625" style="1" customWidth="1"/>
+    <col min="13569" max="13569" width="5.75" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="8.75" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="8.25" style="1"/>
+    <col min="13572" max="13573" width="6.75" style="1" customWidth="1"/>
     <col min="13574" max="13574" width="9" style="1" customWidth="1"/>
-    <col min="13575" max="13575" width="6.69921875" style="1" customWidth="1"/>
+    <col min="13575" max="13575" width="6.75" style="1" customWidth="1"/>
     <col min="13576" max="13576" width="13.5" style="1" customWidth="1"/>
     <col min="13577" max="13577" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="8.19921875" style="1"/>
+    <col min="13578" max="13578" width="8.25" style="1"/>
     <col min="13579" max="13579" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13817" width="8.19921875" style="1"/>
-    <col min="13818" max="13818" width="3.19921875" style="1" customWidth="1"/>
+    <col min="13580" max="13817" width="8.25" style="1"/>
+    <col min="13818" max="13818" width="3.25" style="1" customWidth="1"/>
     <col min="13819" max="13819" width="7.5" style="1" customWidth="1"/>
-    <col min="13820" max="13820" width="20.19921875" style="1" customWidth="1"/>
+    <col min="13820" max="13820" width="20.25" style="1" customWidth="1"/>
     <col min="13821" max="13821" width="6" style="1" customWidth="1"/>
-    <col min="13822" max="13822" width="4.8984375" style="1" customWidth="1"/>
+    <col min="13822" max="13822" width="4.875" style="1" customWidth="1"/>
     <col min="13823" max="13823" width="4" style="1" customWidth="1"/>
-    <col min="13824" max="13824" width="6.59765625" style="1" customWidth="1"/>
-    <col min="13825" max="13825" width="5.69921875" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="8.69921875" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="8.19921875" style="1"/>
-    <col min="13828" max="13829" width="6.69921875" style="1" customWidth="1"/>
+    <col min="13824" max="13824" width="6.625" style="1" customWidth="1"/>
+    <col min="13825" max="13825" width="5.75" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="8.75" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="8.25" style="1"/>
+    <col min="13828" max="13829" width="6.75" style="1" customWidth="1"/>
     <col min="13830" max="13830" width="9" style="1" customWidth="1"/>
-    <col min="13831" max="13831" width="6.69921875" style="1" customWidth="1"/>
+    <col min="13831" max="13831" width="6.75" style="1" customWidth="1"/>
     <col min="13832" max="13832" width="13.5" style="1" customWidth="1"/>
     <col min="13833" max="13833" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="8.19921875" style="1"/>
+    <col min="13834" max="13834" width="8.25" style="1"/>
     <col min="13835" max="13835" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13836" max="14073" width="8.19921875" style="1"/>
-    <col min="14074" max="14074" width="3.19921875" style="1" customWidth="1"/>
+    <col min="13836" max="14073" width="8.25" style="1"/>
+    <col min="14074" max="14074" width="3.25" style="1" customWidth="1"/>
     <col min="14075" max="14075" width="7.5" style="1" customWidth="1"/>
-    <col min="14076" max="14076" width="20.19921875" style="1" customWidth="1"/>
+    <col min="14076" max="14076" width="20.25" style="1" customWidth="1"/>
     <col min="14077" max="14077" width="6" style="1" customWidth="1"/>
-    <col min="14078" max="14078" width="4.8984375" style="1" customWidth="1"/>
+    <col min="14078" max="14078" width="4.875" style="1" customWidth="1"/>
     <col min="14079" max="14079" width="4" style="1" customWidth="1"/>
-    <col min="14080" max="14080" width="6.59765625" style="1" customWidth="1"/>
-    <col min="14081" max="14081" width="5.69921875" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="8.69921875" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="8.19921875" style="1"/>
-    <col min="14084" max="14085" width="6.69921875" style="1" customWidth="1"/>
+    <col min="14080" max="14080" width="6.625" style="1" customWidth="1"/>
+    <col min="14081" max="14081" width="5.75" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="8.75" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="8.25" style="1"/>
+    <col min="14084" max="14085" width="6.75" style="1" customWidth="1"/>
     <col min="14086" max="14086" width="9" style="1" customWidth="1"/>
-    <col min="14087" max="14087" width="6.69921875" style="1" customWidth="1"/>
+    <col min="14087" max="14087" width="6.75" style="1" customWidth="1"/>
     <col min="14088" max="14088" width="13.5" style="1" customWidth="1"/>
     <col min="14089" max="14089" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="8.19921875" style="1"/>
+    <col min="14090" max="14090" width="8.25" style="1"/>
     <col min="14091" max="14091" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14329" width="8.19921875" style="1"/>
-    <col min="14330" max="14330" width="3.19921875" style="1" customWidth="1"/>
+    <col min="14092" max="14329" width="8.25" style="1"/>
+    <col min="14330" max="14330" width="3.25" style="1" customWidth="1"/>
     <col min="14331" max="14331" width="7.5" style="1" customWidth="1"/>
-    <col min="14332" max="14332" width="20.19921875" style="1" customWidth="1"/>
+    <col min="14332" max="14332" width="20.25" style="1" customWidth="1"/>
     <col min="14333" max="14333" width="6" style="1" customWidth="1"/>
-    <col min="14334" max="14334" width="4.8984375" style="1" customWidth="1"/>
+    <col min="14334" max="14334" width="4.875" style="1" customWidth="1"/>
     <col min="14335" max="14335" width="4" style="1" customWidth="1"/>
-    <col min="14336" max="14336" width="6.59765625" style="1" customWidth="1"/>
-    <col min="14337" max="14337" width="5.69921875" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="8.69921875" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="8.19921875" style="1"/>
-    <col min="14340" max="14341" width="6.69921875" style="1" customWidth="1"/>
+    <col min="14336" max="14336" width="6.625" style="1" customWidth="1"/>
+    <col min="14337" max="14337" width="5.75" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="8.75" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="8.25" style="1"/>
+    <col min="14340" max="14341" width="6.75" style="1" customWidth="1"/>
     <col min="14342" max="14342" width="9" style="1" customWidth="1"/>
-    <col min="14343" max="14343" width="6.69921875" style="1" customWidth="1"/>
+    <col min="14343" max="14343" width="6.75" style="1" customWidth="1"/>
     <col min="14344" max="14344" width="13.5" style="1" customWidth="1"/>
     <col min="14345" max="14345" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="8.19921875" style="1"/>
+    <col min="14346" max="14346" width="8.25" style="1"/>
     <col min="14347" max="14347" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14585" width="8.19921875" style="1"/>
-    <col min="14586" max="14586" width="3.19921875" style="1" customWidth="1"/>
+    <col min="14348" max="14585" width="8.25" style="1"/>
+    <col min="14586" max="14586" width="3.25" style="1" customWidth="1"/>
     <col min="14587" max="14587" width="7.5" style="1" customWidth="1"/>
-    <col min="14588" max="14588" width="20.19921875" style="1" customWidth="1"/>
+    <col min="14588" max="14588" width="20.25" style="1" customWidth="1"/>
     <col min="14589" max="14589" width="6" style="1" customWidth="1"/>
-    <col min="14590" max="14590" width="4.8984375" style="1" customWidth="1"/>
+    <col min="14590" max="14590" width="4.875" style="1" customWidth="1"/>
     <col min="14591" max="14591" width="4" style="1" customWidth="1"/>
-    <col min="14592" max="14592" width="6.59765625" style="1" customWidth="1"/>
-    <col min="14593" max="14593" width="5.69921875" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="8.69921875" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="8.19921875" style="1"/>
-    <col min="14596" max="14597" width="6.69921875" style="1" customWidth="1"/>
+    <col min="14592" max="14592" width="6.625" style="1" customWidth="1"/>
+    <col min="14593" max="14593" width="5.75" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="8.75" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="8.25" style="1"/>
+    <col min="14596" max="14597" width="6.75" style="1" customWidth="1"/>
     <col min="14598" max="14598" width="9" style="1" customWidth="1"/>
-    <col min="14599" max="14599" width="6.69921875" style="1" customWidth="1"/>
+    <col min="14599" max="14599" width="6.75" style="1" customWidth="1"/>
     <col min="14600" max="14600" width="13.5" style="1" customWidth="1"/>
     <col min="14601" max="14601" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="8.19921875" style="1"/>
+    <col min="14602" max="14602" width="8.25" style="1"/>
     <col min="14603" max="14603" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14841" width="8.19921875" style="1"/>
-    <col min="14842" max="14842" width="3.19921875" style="1" customWidth="1"/>
+    <col min="14604" max="14841" width="8.25" style="1"/>
+    <col min="14842" max="14842" width="3.25" style="1" customWidth="1"/>
     <col min="14843" max="14843" width="7.5" style="1" customWidth="1"/>
-    <col min="14844" max="14844" width="20.19921875" style="1" customWidth="1"/>
+    <col min="14844" max="14844" width="20.25" style="1" customWidth="1"/>
     <col min="14845" max="14845" width="6" style="1" customWidth="1"/>
-    <col min="14846" max="14846" width="4.8984375" style="1" customWidth="1"/>
+    <col min="14846" max="14846" width="4.875" style="1" customWidth="1"/>
     <col min="14847" max="14847" width="4" style="1" customWidth="1"/>
-    <col min="14848" max="14848" width="6.59765625" style="1" customWidth="1"/>
-    <col min="14849" max="14849" width="5.69921875" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="8.69921875" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="8.19921875" style="1"/>
-    <col min="14852" max="14853" width="6.69921875" style="1" customWidth="1"/>
+    <col min="14848" max="14848" width="6.625" style="1" customWidth="1"/>
+    <col min="14849" max="14849" width="5.75" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="8.75" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="8.25" style="1"/>
+    <col min="14852" max="14853" width="6.75" style="1" customWidth="1"/>
     <col min="14854" max="14854" width="9" style="1" customWidth="1"/>
-    <col min="14855" max="14855" width="6.69921875" style="1" customWidth="1"/>
+    <col min="14855" max="14855" width="6.75" style="1" customWidth="1"/>
     <col min="14856" max="14856" width="13.5" style="1" customWidth="1"/>
     <col min="14857" max="14857" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="8.19921875" style="1"/>
+    <col min="14858" max="14858" width="8.25" style="1"/>
     <col min="14859" max="14859" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14860" max="15097" width="8.19921875" style="1"/>
-    <col min="15098" max="15098" width="3.19921875" style="1" customWidth="1"/>
+    <col min="14860" max="15097" width="8.25" style="1"/>
+    <col min="15098" max="15098" width="3.25" style="1" customWidth="1"/>
     <col min="15099" max="15099" width="7.5" style="1" customWidth="1"/>
-    <col min="15100" max="15100" width="20.19921875" style="1" customWidth="1"/>
+    <col min="15100" max="15100" width="20.25" style="1" customWidth="1"/>
     <col min="15101" max="15101" width="6" style="1" customWidth="1"/>
-    <col min="15102" max="15102" width="4.8984375" style="1" customWidth="1"/>
+    <col min="15102" max="15102" width="4.875" style="1" customWidth="1"/>
     <col min="15103" max="15103" width="4" style="1" customWidth="1"/>
-    <col min="15104" max="15104" width="6.59765625" style="1" customWidth="1"/>
-    <col min="15105" max="15105" width="5.69921875" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="8.69921875" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="8.19921875" style="1"/>
-    <col min="15108" max="15109" width="6.69921875" style="1" customWidth="1"/>
+    <col min="15104" max="15104" width="6.625" style="1" customWidth="1"/>
+    <col min="15105" max="15105" width="5.75" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="8.75" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="8.25" style="1"/>
+    <col min="15108" max="15109" width="6.75" style="1" customWidth="1"/>
     <col min="15110" max="15110" width="9" style="1" customWidth="1"/>
-    <col min="15111" max="15111" width="6.69921875" style="1" customWidth="1"/>
+    <col min="15111" max="15111" width="6.75" style="1" customWidth="1"/>
     <col min="15112" max="15112" width="13.5" style="1" customWidth="1"/>
     <col min="15113" max="15113" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="8.19921875" style="1"/>
+    <col min="15114" max="15114" width="8.25" style="1"/>
     <col min="15115" max="15115" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15353" width="8.19921875" style="1"/>
-    <col min="15354" max="15354" width="3.19921875" style="1" customWidth="1"/>
+    <col min="15116" max="15353" width="8.25" style="1"/>
+    <col min="15354" max="15354" width="3.25" style="1" customWidth="1"/>
     <col min="15355" max="15355" width="7.5" style="1" customWidth="1"/>
-    <col min="15356" max="15356" width="20.19921875" style="1" customWidth="1"/>
+    <col min="15356" max="15356" width="20.25" style="1" customWidth="1"/>
     <col min="15357" max="15357" width="6" style="1" customWidth="1"/>
-    <col min="15358" max="15358" width="4.8984375" style="1" customWidth="1"/>
+    <col min="15358" max="15358" width="4.875" style="1" customWidth="1"/>
     <col min="15359" max="15359" width="4" style="1" customWidth="1"/>
-    <col min="15360" max="15360" width="6.59765625" style="1" customWidth="1"/>
-    <col min="15361" max="15361" width="5.69921875" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="8.69921875" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="8.19921875" style="1"/>
-    <col min="15364" max="15365" width="6.69921875" style="1" customWidth="1"/>
+    <col min="15360" max="15360" width="6.625" style="1" customWidth="1"/>
+    <col min="15361" max="15361" width="5.75" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="8.75" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="8.25" style="1"/>
+    <col min="15364" max="15365" width="6.75" style="1" customWidth="1"/>
     <col min="15366" max="15366" width="9" style="1" customWidth="1"/>
-    <col min="15367" max="15367" width="6.69921875" style="1" customWidth="1"/>
+    <col min="15367" max="15367" width="6.75" style="1" customWidth="1"/>
     <col min="15368" max="15368" width="13.5" style="1" customWidth="1"/>
     <col min="15369" max="15369" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="8.19921875" style="1"/>
+    <col min="15370" max="15370" width="8.25" style="1"/>
     <col min="15371" max="15371" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15609" width="8.19921875" style="1"/>
-    <col min="15610" max="15610" width="3.19921875" style="1" customWidth="1"/>
+    <col min="15372" max="15609" width="8.25" style="1"/>
+    <col min="15610" max="15610" width="3.25" style="1" customWidth="1"/>
     <col min="15611" max="15611" width="7.5" style="1" customWidth="1"/>
-    <col min="15612" max="15612" width="20.19921875" style="1" customWidth="1"/>
+    <col min="15612" max="15612" width="20.25" style="1" customWidth="1"/>
     <col min="15613" max="15613" width="6" style="1" customWidth="1"/>
-    <col min="15614" max="15614" width="4.8984375" style="1" customWidth="1"/>
+    <col min="15614" max="15614" width="4.875" style="1" customWidth="1"/>
     <col min="15615" max="15615" width="4" style="1" customWidth="1"/>
-    <col min="15616" max="15616" width="6.59765625" style="1" customWidth="1"/>
-    <col min="15617" max="15617" width="5.69921875" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="8.69921875" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="8.19921875" style="1"/>
-    <col min="15620" max="15621" width="6.69921875" style="1" customWidth="1"/>
+    <col min="15616" max="15616" width="6.625" style="1" customWidth="1"/>
+    <col min="15617" max="15617" width="5.75" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="8.75" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="8.25" style="1"/>
+    <col min="15620" max="15621" width="6.75" style="1" customWidth="1"/>
     <col min="15622" max="15622" width="9" style="1" customWidth="1"/>
-    <col min="15623" max="15623" width="6.69921875" style="1" customWidth="1"/>
+    <col min="15623" max="15623" width="6.75" style="1" customWidth="1"/>
     <col min="15624" max="15624" width="13.5" style="1" customWidth="1"/>
     <col min="15625" max="15625" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="8.19921875" style="1"/>
+    <col min="15626" max="15626" width="8.25" style="1"/>
     <col min="15627" max="15627" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15865" width="8.19921875" style="1"/>
-    <col min="15866" max="15866" width="3.19921875" style="1" customWidth="1"/>
+    <col min="15628" max="15865" width="8.25" style="1"/>
+    <col min="15866" max="15866" width="3.25" style="1" customWidth="1"/>
     <col min="15867" max="15867" width="7.5" style="1" customWidth="1"/>
-    <col min="15868" max="15868" width="20.19921875" style="1" customWidth="1"/>
+    <col min="15868" max="15868" width="20.25" style="1" customWidth="1"/>
     <col min="15869" max="15869" width="6" style="1" customWidth="1"/>
-    <col min="15870" max="15870" width="4.8984375" style="1" customWidth="1"/>
+    <col min="15870" max="15870" width="4.875" style="1" customWidth="1"/>
     <col min="15871" max="15871" width="4" style="1" customWidth="1"/>
-    <col min="15872" max="15872" width="6.59765625" style="1" customWidth="1"/>
-    <col min="15873" max="15873" width="5.69921875" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="8.69921875" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="8.19921875" style="1"/>
-    <col min="15876" max="15877" width="6.69921875" style="1" customWidth="1"/>
+    <col min="15872" max="15872" width="6.625" style="1" customWidth="1"/>
+    <col min="15873" max="15873" width="5.75" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="8.75" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="8.25" style="1"/>
+    <col min="15876" max="15877" width="6.75" style="1" customWidth="1"/>
     <col min="15878" max="15878" width="9" style="1" customWidth="1"/>
-    <col min="15879" max="15879" width="6.69921875" style="1" customWidth="1"/>
+    <col min="15879" max="15879" width="6.75" style="1" customWidth="1"/>
     <col min="15880" max="15880" width="13.5" style="1" customWidth="1"/>
     <col min="15881" max="15881" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="8.19921875" style="1"/>
+    <col min="15882" max="15882" width="8.25" style="1"/>
     <col min="15883" max="15883" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15884" max="16121" width="8.19921875" style="1"/>
-    <col min="16122" max="16122" width="3.19921875" style="1" customWidth="1"/>
+    <col min="15884" max="16121" width="8.25" style="1"/>
+    <col min="16122" max="16122" width="3.25" style="1" customWidth="1"/>
     <col min="16123" max="16123" width="7.5" style="1" customWidth="1"/>
-    <col min="16124" max="16124" width="20.19921875" style="1" customWidth="1"/>
+    <col min="16124" max="16124" width="20.25" style="1" customWidth="1"/>
     <col min="16125" max="16125" width="6" style="1" customWidth="1"/>
-    <col min="16126" max="16126" width="4.8984375" style="1" customWidth="1"/>
+    <col min="16126" max="16126" width="4.875" style="1" customWidth="1"/>
     <col min="16127" max="16127" width="4" style="1" customWidth="1"/>
-    <col min="16128" max="16128" width="6.59765625" style="1" customWidth="1"/>
-    <col min="16129" max="16129" width="5.69921875" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="8.69921875" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="8.19921875" style="1"/>
-    <col min="16132" max="16133" width="6.69921875" style="1" customWidth="1"/>
+    <col min="16128" max="16128" width="6.625" style="1" customWidth="1"/>
+    <col min="16129" max="16129" width="5.75" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="8.75" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="8.25" style="1"/>
+    <col min="16132" max="16133" width="6.75" style="1" customWidth="1"/>
     <col min="16134" max="16134" width="9" style="1" customWidth="1"/>
-    <col min="16135" max="16135" width="6.69921875" style="1" customWidth="1"/>
+    <col min="16135" max="16135" width="6.75" style="1" customWidth="1"/>
     <col min="16136" max="16136" width="13.5" style="1" customWidth="1"/>
     <col min="16137" max="16137" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="8.19921875" style="1"/>
+    <col min="16138" max="16138" width="8.25" style="1"/>
     <col min="16139" max="16139" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16384" width="8.19921875" style="1"/>
+    <col min="16140" max="16384" width="8.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:17" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-    </row>
-    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+    </row>
+    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-    </row>
-    <row r="3" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+    </row>
+    <row r="3" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42" t="s">
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+    </row>
+    <row r="4" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-    </row>
-    <row r="4" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42" t="s">
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+    </row>
+    <row r="5" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-    </row>
-    <row r="5" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42" t="s">
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+    </row>
+    <row r="6" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-    </row>
-    <row r="6" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-    </row>
-    <row r="7" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+    </row>
+    <row r="7" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2355,60 +2404,62 @@
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
     </row>
-    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="1:17" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="1:17" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="12">
+      <c r="E9" s="30">
         <v>0</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="19">
+      <c r="E10" s="29">
         <f>E9+1</f>
         <v>1</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+    </row>
+    <row r="11" spans="1:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -2422,37 +2473,37 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:17" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-    </row>
-    <row r="13" spans="1:17" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+    </row>
+    <row r="13" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="38"/>
       <c r="F13" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
@@ -2464,28 +2515,28 @@
       <c r="N13" s="44"/>
       <c r="O13" s="44"/>
     </row>
-    <row r="14" spans="1:17" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:17" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-    </row>
-    <row r="15" spans="1:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+    </row>
+    <row r="15" spans="1:17" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>52</v>
       </c>
@@ -2508,67 +2559,67 @@
       <c r="P15" s="41"/>
       <c r="Q15" s="41"/>
     </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36" t="s">
+      <c r="F16" s="39"/>
+      <c r="G16" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36" t="s">
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36" t="s">
+      <c r="K16" s="39"/>
+      <c r="L16" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36" t="s">
+      <c r="M16" s="39"/>
+      <c r="N16" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36" t="s">
+      <c r="O16" s="39"/>
+      <c r="P16" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="36"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
+      <c r="Q16" s="39"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
       <c r="L17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-    </row>
-    <row r="18" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+    </row>
+    <row r="18" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>0</v>
       </c>
@@ -2589,68 +2640,68 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+    <row r="19" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
         <f>A18+1</f>
         <v>1</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="37" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38" t="s">
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="28" t="s">
+      <c r="K19" s="46"/>
+      <c r="L19" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M19" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="32" t="s">
+      <c r="N19" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32" t="s">
+      <c r="O19" s="38"/>
+      <c r="P19" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="Q19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="Q19" s="38"/>
+    </row>
+    <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-    </row>
-    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+    </row>
+    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
         <v>53</v>
       </c>
@@ -2671,60 +2722,60 @@
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
     </row>
-    <row r="22" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36" t="s">
+      <c r="F22" s="39"/>
+      <c r="G22" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36" t="s">
+      <c r="H22" s="39"/>
+      <c r="I22" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="36" t="s">
+      <c r="L22" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="M22" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="39" t="s">
+      <c r="P22" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="Q22" s="39" t="s">
+      <c r="Q22" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
+    <row r="23" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="14" t="s">
         <v>2</v>
       </c>
@@ -2737,17 +2788,17 @@
       <c r="H23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-    </row>
-    <row r="24" spans="1:17" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+    </row>
+    <row r="24" spans="1:17" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>0</v>
       </c>
@@ -2768,348 +2819,388 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
+    <row r="25" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
         <f>A24+1</f>
         <v>1</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="O25" s="20" t="s">
+      <c r="O25" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="P25" s="20" t="s">
+      <c r="P25" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="Q25" s="20" t="s">
+      <c r="Q25" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-    </row>
-    <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-    </row>
-    <row r="28" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="29" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+    </row>
+    <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+    </row>
+    <row r="28" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29" t="s">
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29" t="s">
+      <c r="L28" s="47"/>
+      <c r="M28" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-    </row>
-    <row r="29" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="29" t="s">
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+    </row>
+    <row r="29" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29" t="s">
+      <c r="D29" s="47"/>
+      <c r="E29" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29" t="s">
+      <c r="F29" s="47"/>
+      <c r="G29" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29" t="s">
+      <c r="H29" s="47"/>
+      <c r="I29" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-    </row>
-    <row r="30" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="32" t="s">
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+    </row>
+    <row r="30" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32" t="s">
+      <c r="D30" s="38"/>
+      <c r="E30" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32" t="s">
+      <c r="F30" s="38"/>
+      <c r="G30" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32" t="s">
+      <c r="H30" s="38"/>
+      <c r="I30" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32" t="s">
+      <c r="J30" s="38"/>
+      <c r="K30" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32" t="s">
+      <c r="L30" s="38"/>
+      <c r="M30" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="N30" s="32"/>
-      <c r="O30" s="27" t="s">
+      <c r="N30" s="38"/>
+      <c r="O30" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-    </row>
-    <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="32" t="s">
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+    </row>
+    <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="L31" s="32"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="27" t="s">
+      <c r="L31" s="38"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-    </row>
-    <row r="32" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:17" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+    </row>
+    <row r="32" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:17" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-    </row>
-    <row r="34" spans="1:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+    </row>
+    <row r="34" spans="1:17" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-    </row>
-    <row r="35" spans="1:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+    </row>
+    <row r="35" spans="1:17" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-    </row>
-    <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-    </row>
-    <row r="37" spans="1:17" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="31" t="s">
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+    </row>
+    <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+    </row>
+    <row r="37" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="31" t="s">
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="26"/>
-    </row>
-    <row r="38" spans="1:17" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="30" t="s">
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="25"/>
+    </row>
+    <row r="38" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="25"/>
+      <c r="B38" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="30" t="s">
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="26"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
+  <mergeCells count="82">
+    <mergeCell ref="M28:N29"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="J38:P38"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="A34:Q34"/>
+    <mergeCell ref="A35:Q35"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="P16:Q17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="G16:I17"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A14:Q14"/>
@@ -3126,10 +3217,11 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:K4"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
     <mergeCell ref="L4:Q4"/>
     <mergeCell ref="E6:K6"/>
     <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="F8:L8"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="Q22:Q23"/>
     <mergeCell ref="G22:H22"/>
@@ -3137,59 +3229,19 @@
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="A21:Q21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="P16:Q17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="G16:I17"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="J38:P38"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M28:N29"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="A34:Q34"/>
-    <mergeCell ref="A35:Q35"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="60" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="65" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3202,9 +3254,9 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -3222,7 +3274,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3238,7 +3290,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3256,7 +3308,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3272,7 +3324,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3288,7 +3340,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -3308,7 +3360,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3324,7 +3376,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -3348,7 +3400,7 @@
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>

--- a/Materials/DKAC/FileTemplate/Export-LSX.xlsx
+++ b/Materials/DKAC/FileTemplate/Export-LSX.xlsx
@@ -12,16 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CK" sheetId="1" r:id="rId1"/>
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__lstCheBanInfo__">Sheet1!$A$19:$Q$19</definedName>
-    <definedName name="__lstInInfo__">Sheet1!$A$25:$Q$25</definedName>
-    <definedName name="__lstQuyCach__">Sheet1!$D$13:$O$13</definedName>
-    <definedName name="__lstsltong__">Sheet1!$E$10:$L$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$38</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$16:$17</definedName>
+    <definedName name="__lstCheBanInfo__">CK!$16:$16</definedName>
+    <definedName name="__lstInInfo__">CK!$21:$21</definedName>
+    <definedName name="__lstQuyCach__">CK!$11:$11</definedName>
+    <definedName name="__lstsltong__">CK!$9:$9</definedName>
+    <definedName name="_lstQuyCachChitiet_">CK!$F$11:$Q$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CK!$A$1:$Q$31</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">CK!$14:$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="114">
   <si>
     <t>Tổng</t>
   </si>
@@ -102,9 +103,6 @@
     <t>LỆNH SẢN XUẤT</t>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
     <t>Tay in</t>
   </si>
   <si>
@@ -198,18 +196,9 @@
     <t>Ghi chú đặc biệt: &lt;#in_ghi_chu&gt;</t>
   </si>
   <si>
-    <t>&lt;#lstCheBanInfo.ten_tay_in&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;#lstCheBanInfo.so_kem&gt; </t>
-  </si>
-  <si>
     <t>&lt;#lstCheBanInfo.tong&gt;</t>
   </si>
   <si>
-    <t>&lt;#lstCheBanInfo.trang&gt;</t>
-  </si>
-  <si>
     <t>&lt;#lstCheBanInfo.kho_in_dai&gt;</t>
   </si>
   <si>
@@ -252,9 +241,6 @@
     <t>&lt;#lstInInfo.bu_phat_hanh&gt;</t>
   </si>
   <si>
-    <t>&lt;#lstInInfo.sl_tong&gt;</t>
-  </si>
-  <si>
     <t>&lt;#lstInInfo.so_kg&gt;</t>
   </si>
   <si>
@@ -273,100 +259,124 @@
     <t>&lt;#tp_cao&gt;</t>
   </si>
   <si>
+    <t>Quy cách chung: &lt;#quy_cach_chung&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
+  </si>
+  <si>
+    <t>Thời hạn giao thành phẩm: &lt;#tp_thoi_han&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#lstCheBanInfo.so_bo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#lstInInfo.phuong_phap_in_name&gt;</t>
+  </si>
+  <si>
+    <t>Người lập lệnh sản xuất</t>
+  </si>
+  <si>
+    <t>Người duyệt</t>
+  </si>
+  <si>
+    <t>&lt;#ten_can_bo_ql&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ten_can_bo_kt&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#tp_sl_bangkeo&gt;</t>
+  </si>
+  <si>
+    <t>Số cuốn/ thùng</t>
+  </si>
+  <si>
+    <t>Ngày: &lt;#created_date&gt;</t>
+  </si>
+  <si>
+    <t>Nhân Viên Kinh Doanh: &lt;#nv_kinh_doanh&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
+  </si>
+  <si>
+    <t>Ngày giao hàng: &lt;#ngay_giao_hang&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#so_luong_tong&gt;</t>
+  </si>
+  <si>
+    <t>Số lượng tổng:</t>
+  </si>
+  <si>
+    <t>RELATIONSHIP</t>
+  </si>
+  <si>
+    <t>lstQuyCach-&gt;lstQuyCachChitiet</t>
+  </si>
+  <si>
+    <t>id-&gt;nhom_vat_tu_id</t>
+  </si>
+  <si>
+    <t>&lt;#lstQuyCachChitiet.ten&gt;: &lt;#lstQuyCachChitiet.trang&gt; trang &lt;#lstQuyCachChitiet.loai_giay&gt; &lt;#lstQuyCachChitiet.dinh_luong_giay&gt; &lt;#lstQuyCachChitiet.kieu_in_1&gt;/&lt;#lstQuyCachChitiet.kieu_in_2&gt;</t>
+  </si>
+  <si>
+    <t>Số LSX: &lt;#so_lenh_sx&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#lstQuyCach.ten_nhom_vat_tu&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#lstsltong.Values&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
+    <t>Điều chỉnh lần: &lt;#lan_dieu_chinh&gt;&lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
+    <t>Loại: &lt;#loai&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
+    <t>Nhà cung cấp: &lt;#nha_cc&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm: &lt;#ten_san_pham&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
+    <t>Tên khách hàng: &lt;#ten_khach_hang&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
+    <t>Mã khách hàng: &lt;#ma_khach_hang&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
+    <t>Mã sản phẩm: &lt;#ma_san_pham&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
+    <t>Phiếu ĐNSX số: &lt;#phieu_dnsx_so&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#lstCheBanInfo.ten_tay_in&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#lstCheBanInfo.trang&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#lstCheBanInfo.so_kem&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#tp_socuon_thung&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#lstInInfo.sl_tong&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
     <t>&lt;#lstInInfo.ten_tay_in&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
   </si>
   <si>
-    <t>&lt;#lstsltong.Values&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#tp_soluong&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#tp_socuon_thung&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>Quy cách chung: &lt;#quy_cach_chung&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>Ghi chú đặc biệt: &lt;#tp_ghi_chu&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>Thời hạn giao thành phẩm: &lt;#tp_thoi_han&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#lstCheBanInfo.so_bo&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#lstInInfo.phuong_phap_in_name&gt;</t>
-  </si>
-  <si>
-    <t>Người lập lệnh sản xuất</t>
-  </si>
-  <si>
-    <t>Người duyệt</t>
-  </si>
-  <si>
-    <t>&lt;#ten_can_bo_ql&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ten_can_bo_kt&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#tp_sl_bangkeo&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#if(&lt;#tp_vat_tu&gt;=1;"Băng keo";"Băng keo đặc biệt")&gt;</t>
-  </si>
-  <si>
-    <t>Số cuốn/ thùng</t>
-  </si>
-  <si>
-    <t>&lt;#lstQuyCach.ten&gt;: &lt;#lstQuyCach.trang&gt; trang &lt;#lstQuyCach.loai_giay&gt; &lt;#lstQuyCach.dinh_luong_giay&gt; &lt;#lstQuyCach.kieu_in_1&gt;/&lt;#lstQuyCach.kieu_in_2&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#lstQuyCach.ten_nhom_vat_tu&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>Số LSX: &lt;#so_lenh_sx&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>Điều chỉnh lần: &lt;#lan_dieu_chinh&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>Ngày: &lt;#created_date&gt;</t>
-  </si>
-  <si>
-    <t>Phiếu ĐNSX số: &lt;#phieu_dnsx_so&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>Nhân Viên Kinh Doanh: &lt;#nv_kinh_doanh&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>Loại: &lt;#loai&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>Mã sản phẩm: &lt;#ma_san_pham&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>Tên sản phẩm: &lt;#ten_san_pham&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>Nhà cung cấp: &lt;#nha_cc&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>Mã khách hàng: &lt;#ma_khach_hang&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>Tên khách hàng: &lt;#ten_khach_hang&gt;&lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
-    <t>Ngày giao hàng: &lt;#ngay_giao_hang&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#so_luong_tong&gt;</t>
-  </si>
-  <si>
-    <t>Số lượng tổng:</t>
+    <t>Ghi chú đặc biệt: &lt;#tp_ghi_chu&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#tp_soluong&gt;  &lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>Thùng &lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#tp_vat_tu&gt;=1;"Băng keo";"Băng keo đặc biệt")&gt; &lt;#Row Height(Autofit)&gt;</t>
   </si>
 </sst>
 </file>
@@ -377,7 +387,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0\ _₫;[Red]#,##0\ _₫"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +467,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -490,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -562,15 +577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -610,12 +616,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -633,128 +674,123 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="18"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="18"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1086,16 +1122,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q38"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
     <col min="5" max="6" width="6.25" style="1" customWidth="1"/>
@@ -2246,970 +2285,821 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+    </row>
+    <row r="4" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35" t="s">
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+    </row>
+    <row r="5" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-    </row>
-    <row r="4" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+    </row>
+    <row r="6" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-    </row>
-    <row r="5" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+    </row>
+    <row r="9" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+    </row>
+    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+    </row>
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="31"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+    </row>
+    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-    </row>
-    <row r="6" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35" t="s">
+      <c r="K16" s="35"/>
+      <c r="L16" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" s="28"/>
+    </row>
+    <row r="17" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+    </row>
+    <row r="18" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+    </row>
+    <row r="19" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+    </row>
+    <row r="21" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+    </row>
+    <row r="23" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-    </row>
-    <row r="7" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-    </row>
-    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="51" t="s">
+      <c r="N25" s="28"/>
+      <c r="O25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="28"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+    </row>
+    <row r="28" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-    </row>
-    <row r="9" spans="1:17" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="30">
-        <v>0</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-    </row>
-    <row r="10" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="29">
-        <f>E9+1</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="38" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+    </row>
+    <row r="29" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+    </row>
+    <row r="30" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="15"/>
+    </row>
+    <row r="31" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-    </row>
-    <row r="11" spans="1:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:17" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-    </row>
-    <row r="13" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-    </row>
-    <row r="14" spans="1:17" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-    </row>
-    <row r="15" spans="1:17" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-    </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="39"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-    </row>
-    <row r="18" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>0</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
-        <f>A18+1</f>
-        <v>1</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="46"/>
-      <c r="L19" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19" s="38"/>
-    </row>
-    <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-    </row>
-    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-    </row>
-    <row r="22" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="P22" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q22" s="37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-    </row>
-    <row r="24" spans="1:17" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
-        <v>0</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-    </row>
-    <row r="25" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
-        <f>A24+1</f>
-        <v>1</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="P25" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q25" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-    </row>
-    <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-    </row>
-    <row r="28" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-    </row>
-    <row r="29" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-    </row>
-    <row r="30" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="N30" s="38"/>
-      <c r="O30" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-    </row>
-    <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="L31" s="38"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-    </row>
-    <row r="32" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:17" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-    </row>
-    <row r="34" spans="1:17" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-    </row>
-    <row r="35" spans="1:17" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-    </row>
-    <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-    </row>
-    <row r="37" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="25"/>
-    </row>
-    <row r="38" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="25"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="M28:N29"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="J38:P38"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="A34:Q34"/>
-    <mergeCell ref="A35:Q35"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="P16:Q17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="G16:I17"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
+  <mergeCells count="80">
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A17:Q17"/>
     <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="H15:Q15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="E14:F15"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:K5"/>
     <mergeCell ref="L5:Q5"/>
@@ -3217,44 +3107,70 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:K4"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A21:Q21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="G14:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A22:Q22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="65" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="33.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
@@ -3434,6 +3350,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Materials/DKAC/FileTemplate/Export-LSX.xlsx
+++ b/Materials/DKAC/FileTemplate/Export-LSX.xlsx
@@ -743,11 +743,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0\ _₫;[Red]#,##0\ _₫"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;₫&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,6 +832,14 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1023,11 +1033,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1049,185 +1060,189 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet2" xfId="1"/>
   </cellStyles>
@@ -1561,8 +1576,8 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2720,800 +2735,863 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
     </row>
     <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="71"/>
     </row>
     <row r="8" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
     </row>
     <row r="10" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34" t="s">
+      <c r="E10" s="54"/>
+      <c r="F10" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
     </row>
     <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21" t="s">
+      <c r="J14" s="41"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21" t="s">
+      <c r="M14" s="53"/>
+      <c r="N14" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21" t="s">
+      <c r="O14" s="53"/>
+      <c r="P14" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="21"/>
+      <c r="Q14" s="53"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
     </row>
     <row r="16" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="52" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="68" t="s">
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39" t="s">
+      <c r="J16" s="43"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="33" t="s">
+      <c r="N16" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33" t="s">
+      <c r="O16" s="54"/>
+      <c r="P16" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="Q16" s="33"/>
+      <c r="Q16" s="54"/>
     </row>
     <row r="18" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
     </row>
     <row r="19" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
     </row>
     <row r="20" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21" t="s">
+      <c r="H20" s="53"/>
+      <c r="I20" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="21" t="s">
+      <c r="O20" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="P20" s="21" t="s">
+      <c r="P20" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="Q20" s="21" t="s">
+      <c r="Q20" s="53" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="24" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
     </row>
     <row r="22" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J22" s="40" t="s">
+      <c r="J22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="41" t="s">
+      <c r="K22" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="L22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="M22" s="41" t="s">
+      <c r="M22" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="N22" s="41" t="s">
+      <c r="N22" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="O22" s="41" t="s">
+      <c r="O22" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="P22" s="41" t="s">
+      <c r="P22" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Q22" s="41" t="s">
+      <c r="Q22" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
     </row>
     <row r="25" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="56" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="43" t="s">
+      <c r="G25" s="52"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43" t="s">
+      <c r="L25" s="56"/>
+      <c r="M25" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43" t="s">
+      <c r="N25" s="56"/>
+      <c r="O25" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="55" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="55" t="s">
+      <c r="F26" s="62"/>
+      <c r="G26" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="43" t="s">
+      <c r="H26" s="62"/>
+      <c r="I26" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="26" t="s">
+      <c r="D27" s="54"/>
+      <c r="E27" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="27" t="s">
+      <c r="F27" s="49"/>
+      <c r="G27" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="33" t="s">
+      <c r="H27" s="49"/>
+      <c r="I27" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33" t="s">
+      <c r="J27" s="54"/>
+      <c r="K27" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33" t="s">
+      <c r="L27" s="72"/>
+      <c r="M27" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="N27" s="33"/>
-      <c r="O27" s="41" t="s">
+      <c r="N27" s="54"/>
+      <c r="O27" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
     </row>
     <row r="28" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="33" t="s">
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="41" t="s">
+      <c r="L28" s="72"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-    </row>
-    <row r="29" spans="1:17" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="44" t="s">
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+    </row>
+    <row r="29" spans="1:17" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
     </row>
     <row r="30" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
     </row>
     <row r="31" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
     </row>
     <row r="33" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="71" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="71" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
     </row>
     <row r="35" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
-      <c r="B35" s="46" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="46" t="s">
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="A31:Q31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="K28:L28"/>
     <mergeCell ref="J33:Q33"/>
     <mergeCell ref="J35:Q35"/>
     <mergeCell ref="A6:Q6"/>
@@ -3530,69 +3608,6 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="O20:O21"/>
     <mergeCell ref="M20:M21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="A31:Q31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="F10:N10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/Materials/DKAC/FileTemplate/Export-LSX.xlsx
+++ b/Materials/DKAC/FileTemplate/Export-LSX.xlsx
@@ -743,11 +743,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0\ _₫;[Red]#,##0\ _₫"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;₫&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₫&quot;"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1111,76 +1110,64 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1201,13 +1188,22 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1219,9 +1215,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1231,14 +1224,20 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1576,8 +1575,8 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:L28"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I7" sqref="E7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2735,178 +2734,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
     </row>
     <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
     </row>
     <row r="5" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32" t="s">
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
     </row>
     <row r="6" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="70" t="s">
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -2914,240 +2913,240 @@
       <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
     </row>
     <row r="10" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="69" t="s">
+      <c r="E10" s="50"/>
+      <c r="F10" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
       <c r="O10" s="19"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
     </row>
     <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="35" t="s">
+      <c r="G14" s="39"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="41"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="53" t="s">
+      <c r="J14" s="39"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53" t="s">
+      <c r="M14" s="58"/>
+      <c r="N14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53" t="s">
+      <c r="O14" s="58"/>
+      <c r="P14" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="53"/>
+      <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="38"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="14" t="s">
         <v>1</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
     </row>
     <row r="16" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="44" t="s">
+      <c r="E16" s="38"/>
+      <c r="F16" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="43" t="s">
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="43"/>
-      <c r="K16" s="40"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="20" t="s">
         <v>50</v>
       </c>
       <c r="M16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="54" t="s">
+      <c r="N16" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54" t="s">
+      <c r="O16" s="50"/>
+      <c r="P16" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="Q16" s="54"/>
+      <c r="Q16" s="50"/>
     </row>
     <row r="18" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
     </row>
     <row r="19" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
     </row>
     <row r="20" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="53" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="66" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="28" t="s">
@@ -3156,43 +3155,43 @@
       <c r="F20" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53" t="s">
+      <c r="H20" s="58"/>
+      <c r="I20" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="53" t="s">
+      <c r="K20" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="53" t="s">
+      <c r="L20" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="53" t="s">
+      <c r="M20" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="N20" s="53" t="s">
+      <c r="N20" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="53" t="s">
+      <c r="O20" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="P20" s="53" t="s">
+      <c r="P20" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="Q20" s="53" t="s">
+      <c r="Q20" s="58" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="14" t="s">
         <v>1</v>
       </c>
@@ -3205,21 +3204,21 @@
       <c r="H21" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
     </row>
     <row r="22" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="20" t="s">
         <v>54</v>
       </c>
@@ -3267,25 +3266,25 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
     </row>
     <row r="25" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
@@ -3293,22 +3292,22 @@
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="27"/>
-      <c r="K25" s="56" t="s">
+      <c r="K25" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56" t="s">
+      <c r="L25" s="52"/>
+      <c r="M25" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56" t="s">
+      <c r="N25" s="52"/>
+      <c r="O25" s="52" t="s">
         <v>45</v>
       </c>
       <c r="P25" s="23"/>
@@ -3317,57 +3316,57 @@
     <row r="26" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="61" t="s">
+      <c r="D26" s="52"/>
+      <c r="E26" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="61" t="s">
+      <c r="F26" s="60"/>
+      <c r="G26" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="56" t="s">
+      <c r="H26" s="60"/>
+      <c r="I26" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
       <c r="P26" s="23"/>
       <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="47" t="s">
+      <c r="D27" s="50"/>
+      <c r="E27" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="48" t="s">
+      <c r="F27" s="47"/>
+      <c r="G27" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="54" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="72" t="s">
+      <c r="J27" s="50"/>
+      <c r="K27" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="L27" s="72"/>
-      <c r="M27" s="54" t="s">
+      <c r="L27" s="56"/>
+      <c r="M27" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="N27" s="54"/>
+      <c r="N27" s="50"/>
       <c r="O27" s="22" t="s">
         <v>41</v>
       </c>
@@ -3377,22 +3376,22 @@
     <row r="28" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="72" t="s">
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="L28" s="72"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
       <c r="O28" s="22" t="s">
         <v>48</v>
       </c>
@@ -3400,113 +3399,113 @@
       <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:17" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
     </row>
     <row r="30" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
     </row>
     <row r="31" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
     </row>
     <row r="33" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="30" t="s">
+      <c r="J33" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
     </row>
     <row r="35" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
       <c r="I35" s="24"/>
-      <c r="J35" s="31" t="s">
+      <c r="J35" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
@@ -3551,6 +3550,9 @@
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="A20:B21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="M20:M21"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A12:Q12"/>
     <mergeCell ref="A13:G13"/>
@@ -3567,7 +3569,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="J20:J21"/>
     <mergeCell ref="A24:Q24"/>
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="M28:N28"/>
@@ -3583,6 +3584,7 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="K25:L26"/>
     <mergeCell ref="M25:N26"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="M27:N27"/>
@@ -3605,9 +3607,6 @@
     <mergeCell ref="E8:L8"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:L7"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="M20:M21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/Materials/DKAC/FileTemplate/Export-LSX.xlsx
+++ b/Materials/DKAC/FileTemplate/Export-LSX.xlsx
@@ -16,13 +16,13 @@
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__lstCheBanInfo__">CK!$A$16:$Q$16</definedName>
-    <definedName name="__lstInInfo__">CK!$A$22:$Q$22</definedName>
+    <definedName name="__lstCheBanInfo__">CK!$A$15:$Q$15</definedName>
+    <definedName name="__lstInInfo__">CK!$A$20:$Q$20</definedName>
     <definedName name="__lstQuyCach__">CK!$A$10:$Q$10</definedName>
     <definedName name="__lstsltong__">CK!$A$8:$Q$8</definedName>
     <definedName name="_lstQuyCachChitiet_">CK!$F$10:$Q$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CK!$A$1:$Q$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">CK!$14:$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CK!$A$1:$Q$35</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">CK!$13:$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>&lt;#lstInInfo.bu_phat_hanh&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#lstInInfo.so_kg&gt;</t>
   </si>
   <si>
     <t>&lt;#lstInInfo.so_luot_in_quy_doi&gt;</t>
@@ -737,6 +734,9 @@
   </si>
   <si>
     <t>&lt;#lstsltong.Values&gt;  &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#lstInInfo.so_kg&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1110,75 +1110,96 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1188,43 +1209,28 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1238,6 +1244,12 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1573,29 +1585,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I7" sqref="E7:L7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="2" customWidth="1"/>
     <col min="9" max="9" width="6" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="7.875" style="1" customWidth="1"/>
-    <col min="16" max="17" width="7.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.875" style="1" customWidth="1"/>
     <col min="18" max="249" width="8.25" style="1"/>
     <col min="250" max="250" width="3.25" style="1" customWidth="1"/>
     <col min="251" max="251" width="7.5" style="1" customWidth="1"/>
@@ -2734,178 +2748,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+    </row>
+    <row r="3" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-    </row>
-    <row r="3" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+    </row>
+    <row r="5" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-    </row>
-    <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-    </row>
-    <row r="5" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
     </row>
     <row r="6" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71" t="s">
+      <c r="E7" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="74"/>
     </row>
     <row r="8" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
+      <c r="E8" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -2913,652 +2927,664 @@
       <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
       <c r="O10" s="19"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
     </row>
-    <row r="11" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+    <row r="11" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-    </row>
-    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+    </row>
+    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64" t="s">
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+    </row>
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="65"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="65"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="76"/>
+      <c r="N13" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="36"/>
+      <c r="P13" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="41"/>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="37"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+    </row>
+    <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="51"/>
+      <c r="P15" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="43"/>
+    </row>
+    <row r="16" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+    </row>
+    <row r="17" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+    </row>
+    <row r="18" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="33" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58" t="s">
+      <c r="N18" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="58"/>
-    </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="14" t="s">
+      <c r="O18" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-    </row>
-    <row r="16" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="G19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+    </row>
+    <row r="20" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+    </row>
+    <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="56"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+    </row>
+    <row r="23" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="55"/>
+      <c r="G23" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="55"/>
+      <c r="I23" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+    </row>
+    <row r="24" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="51"/>
+      <c r="I24" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="43"/>
+      <c r="K24" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="20" t="s">
+      <c r="L24" s="53"/>
+      <c r="M24" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q16" s="50"/>
-    </row>
-    <row r="18" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-    </row>
-    <row r="19" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-    </row>
-    <row r="20" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="P20" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q20" s="58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-    </row>
-    <row r="22" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-    </row>
-    <row r="25" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="43"/>
+      <c r="O24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+    </row>
+    <row r="25" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="61" t="s">
-        <v>46</v>
-      </c>
+      <c r="C25" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="61"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52" t="s">
-        <v>45</v>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="53"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="P25" s="23"/>
       <c r="Q25" s="23"/>
     </row>
-    <row r="26" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="60"/>
-      <c r="I26" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-    </row>
-    <row r="27" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="50"/>
-      <c r="K27" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="L27" s="56"/>
-      <c r="M27" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="N27" s="50"/>
-      <c r="O27" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-    </row>
-    <row r="28" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="56" t="s">
+    <row r="26" spans="1:17" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+    </row>
+    <row r="27" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="L28" s="56"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-    </row>
-    <row r="29" spans="1:17" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+    </row>
+    <row r="28" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-    </row>
-    <row r="30" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-    </row>
-    <row r="31" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-    </row>
-    <row r="33" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
-      <c r="B33" s="49" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+    </row>
+    <row r="29" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24"/>
+      <c r="B29" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="49" t="s">
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+    </row>
+    <row r="31" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
+      <c r="B31" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-    </row>
-    <row r="35" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="48" t="s">
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O14"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I13:K14"/>
+    <mergeCell ref="F13:H14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="M22:N23"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:Q12"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:K4"/>
     <mergeCell ref="L4:Q4"/>
@@ -3569,48 +3595,35 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="A31:Q31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I14:K15"/>
-    <mergeCell ref="F14:H15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="P13:Q14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3810,13 +3823,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
         <v>79</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Materials/DKAC/FileTemplate/Export-LSX.xlsx
+++ b/Materials/DKAC/FileTemplate/Export-LSX.xlsx
@@ -1037,7 +1037,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1119,136 +1119,133 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1587,8 +1584,8 @@
   </sheetPr>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2748,178 +2745,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="73" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="74"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -2927,239 +2924,239 @@
       <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
     </row>
     <row r="10" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
       <c r="O10" s="19"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-    </row>
-    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+    </row>
+    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
     </row>
     <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="63" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="35" t="s">
+      <c r="E13" s="35"/>
+      <c r="F13" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="65"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="35" t="s">
+      <c r="G13" s="43"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="76" t="s">
+      <c r="J13" s="43"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="76"/>
-      <c r="N13" s="35" t="s">
+      <c r="M13" s="33"/>
+      <c r="N13" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="36"/>
-      <c r="P13" s="41" t="s">
+      <c r="O13" s="35"/>
+      <c r="P13" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" s="41"/>
+      <c r="Q13" s="63"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="38"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="32" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
     </row>
     <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="68" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="33" t="s">
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="34"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="42"/>
       <c r="L15" s="31" t="s">
         <v>50</v>
       </c>
       <c r="M15" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="52" t="s">
+      <c r="N15" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="43" t="s">
+      <c r="O15" s="65"/>
+      <c r="P15" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="43"/>
+      <c r="Q15" s="49"/>
     </row>
     <row r="16" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
     </row>
     <row r="17" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
     </row>
     <row r="18" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="41" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="73" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="28" t="s">
@@ -3168,43 +3165,43 @@
       <c r="F18" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41" t="s">
+      <c r="H18" s="63"/>
+      <c r="I18" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="41" t="s">
+      <c r="J18" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="41" t="s">
+      <c r="K18" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="41" t="s">
+      <c r="L18" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="41" t="s">
+      <c r="M18" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="41" t="s">
+      <c r="N18" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="41" t="s">
+      <c r="P18" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="41" t="s">
+      <c r="Q18" s="63" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="14" t="s">
         <v>1</v>
       </c>
@@ -3217,21 +3214,21 @@
       <c r="H19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
     </row>
     <row r="20" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="20" t="s">
         <v>54</v>
       </c>
@@ -3279,25 +3276,25 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
@@ -3305,22 +3302,22 @@
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="56"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
       <c r="J22" s="27"/>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49" t="s">
+      <c r="L22" s="57"/>
+      <c r="M22" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49" t="s">
+      <c r="N22" s="57"/>
+      <c r="O22" s="57" t="s">
         <v>45</v>
       </c>
       <c r="P22" s="23"/>
@@ -3329,57 +3326,57 @@
     <row r="23" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="54" t="s">
+      <c r="D23" s="57"/>
+      <c r="E23" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="54" t="s">
+      <c r="F23" s="68"/>
+      <c r="G23" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="49" t="s">
+      <c r="H23" s="68"/>
+      <c r="I23" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
       <c r="P23" s="23"/>
       <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="50" t="s">
+      <c r="D24" s="49"/>
+      <c r="E24" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52" t="s">
+      <c r="F24" s="65"/>
+      <c r="G24" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="43" t="s">
+      <c r="H24" s="65"/>
+      <c r="I24" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="43"/>
-      <c r="K24" s="53" t="s">
+      <c r="J24" s="49"/>
+      <c r="K24" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="53"/>
-      <c r="M24" s="43" t="s">
+      <c r="L24" s="61"/>
+      <c r="M24" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="43"/>
+      <c r="N24" s="49"/>
       <c r="O24" s="22" t="s">
         <v>41</v>
       </c>
@@ -3389,22 +3386,22 @@
     <row r="25" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="53" t="s">
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="L25" s="53"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
       <c r="O25" s="22" t="s">
         <v>48</v>
       </c>
@@ -3412,113 +3409,113 @@
       <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="1:17" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
     </row>
     <row r="27" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
     </row>
     <row r="29" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="58" t="s">
+      <c r="J29" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
     </row>
     <row r="31" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="57" t="s">
+      <c r="J31" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
@@ -3541,30 +3538,45 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O14"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I13:K14"/>
-    <mergeCell ref="F13:H14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A27:Q27"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="P13:Q14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:Q12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="A9:Q9"/>
     <mergeCell ref="A21:Q21"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="M25:N25"/>
@@ -3581,45 +3593,30 @@
     <mergeCell ref="K22:L23"/>
     <mergeCell ref="M22:N23"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="H12:Q12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="P13:Q14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I13:K14"/>
+    <mergeCell ref="F13:H14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O14"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:L7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/Materials/DKAC/FileTemplate/Export-LSX.xlsx
+++ b/Materials/DKAC/FileTemplate/Export-LSX.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="__lstCheBanInfo__">CK!$A$15:$Q$15</definedName>
     <definedName name="__lstInInfo__">CK!$A$20:$Q$20</definedName>
-    <definedName name="__lstQuyCach__">CK!$A$10:$Q$10</definedName>
+    <definedName name="__lstQuyCach__">CK!$D$10:$Q$10</definedName>
     <definedName name="__lstsltong__">CK!$A$8:$Q$8</definedName>
     <definedName name="_lstQuyCachChitiet_">CK!$F$10:$Q$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">CK!$A$1:$Q$35</definedName>
@@ -666,9 +666,6 @@
     </r>
   </si>
   <si>
-    <t>&lt;#lstQuyCach.ten_nhom_vat_tu&gt;  &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
     <t>&lt;#lstQuyCachChitiet.ten&gt;: &lt;#lstQuyCachChitiet.trang&gt; trang &lt;#lstQuyCachChitiet.loai_giay&gt; &lt;#lstQuyCachChitiet.dinh_luong_giay&gt; &lt;#lstQuyCachChitiet.kieu_in_1&gt;/&lt;#lstQuyCachChitiet.kieu_in_2&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
   </si>
   <si>
@@ -737,6 +734,9 @@
   </si>
   <si>
     <t>&lt;#lstInInfo.so_kg&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#lstQuyCach.ten_nhom_vat_tu&gt; </t>
   </si>
 </sst>
 </file>
@@ -1143,30 +1143,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1182,6 +1158,30 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1233,10 +1233,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1584,8 +1584,8 @@
   </sheetPr>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:Q17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2823,7 +2823,7 @@
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -2832,7 +2832,7 @@
       <c r="J4" s="38"/>
       <c r="K4" s="38"/>
       <c r="L4" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
@@ -2889,34 +2889,34 @@
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52" t="s">
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="53"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
+      <c r="E8" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -2924,36 +2924,36 @@
       <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
     </row>
     <row r="10" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="74" t="s">
         <v>103</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="74" t="s">
-        <v>104</v>
       </c>
       <c r="G10" s="74"/>
       <c r="H10" s="74"/>
@@ -2989,27 +2989,27 @@
       <c r="Q11" s="62"/>
     </row>
     <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
     </row>
     <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
@@ -3026,12 +3026,12 @@
       <c r="F13" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="43"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="35"/>
       <c r="I13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="43"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="35"/>
       <c r="L13" s="33" t="s">
         <v>29</v>
@@ -3053,10 +3053,10 @@
       <c r="D14" s="36"/>
       <c r="E14" s="37"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="44"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="37"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="44"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="37"/>
       <c r="L14" s="32" t="s">
         <v>1</v>
@@ -3070,27 +3070,27 @@
       <c r="Q14" s="63"/>
     </row>
     <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="42"/>
+      <c r="A15" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="47"/>
       <c r="C15" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="46" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="42"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="50"/>
+      <c r="K15" s="47"/>
       <c r="L15" s="31" t="s">
         <v>50</v>
       </c>
@@ -3101,10 +3101,10 @@
         <v>52</v>
       </c>
       <c r="O15" s="65"/>
-      <c r="P15" s="49" t="s">
+      <c r="P15" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="49"/>
+      <c r="Q15" s="41"/>
     </row>
     <row r="16" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
@@ -3128,25 +3128,25 @@
       <c r="Q16" s="62"/>
     </row>
     <row r="17" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
     </row>
     <row r="18" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
@@ -3160,10 +3160,10 @@
         <v>28</v>
       </c>
       <c r="E18" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>108</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>109</v>
       </c>
       <c r="G18" s="75" t="s">
         <v>29</v>
@@ -3225,10 +3225,10 @@
       <c r="Q19" s="63"/>
     </row>
     <row r="20" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="20" t="s">
         <v>54</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>70</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P20" s="22" t="s">
         <v>64</v>
@@ -3356,7 +3356,7 @@
       <c r="C24" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="49"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="64" t="s">
         <v>66</v>
       </c>
@@ -3365,18 +3365,18 @@
         <v>67</v>
       </c>
       <c r="H24" s="65"/>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="49"/>
+      <c r="J24" s="41"/>
       <c r="K24" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L24" s="61"/>
-      <c r="M24" s="49" t="s">
+      <c r="M24" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="49"/>
+      <c r="N24" s="41"/>
       <c r="O24" s="22" t="s">
         <v>41</v>
       </c>

--- a/Materials/DKAC/FileTemplate/Export-LSX.xlsx
+++ b/Materials/DKAC/FileTemplate/Export-LSX.xlsx
@@ -16,13 +16,13 @@
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__lstCheBanInfo__">CK!$A$15:$Q$15</definedName>
-    <definedName name="__lstInInfo__">CK!$A$20:$Q$20</definedName>
-    <definedName name="__lstQuyCach__">CK!$D$10:$Q$10</definedName>
+    <definedName name="__lstCheBanInfo__">CK!$A$16:$Q$16</definedName>
+    <definedName name="__lstInInfo__">CK!$A$21:$Q$21</definedName>
+    <definedName name="__lstQuyCach__">CK!$C$11:$Q$11</definedName>
     <definedName name="__lstsltong__">CK!$A$8:$Q$8</definedName>
-    <definedName name="_lstQuyCachChitiet_">CK!$F$10:$Q$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CK!$A$1:$Q$35</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">CK!$13:$14</definedName>
+    <definedName name="_lstQuyCachChitiet_">CK!$F$11:$Q$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CK!$A$1:$Q$36</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">CK!$14:$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -874,7 +874,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -959,15 +959,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1037,7 +1028,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1074,9 +1065,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1095,46 +1083,142 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1143,110 +1227,26 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1582,18 +1582,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.75" style="1" customWidth="1"/>
@@ -2745,178 +2745,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
     </row>
     <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
     </row>
     <row r="6" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44" t="s">
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="75"/>
     </row>
     <row r="8" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -2924,649 +2924,688 @@
       <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-    </row>
-    <row r="10" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="41" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+    </row>
+    <row r="10" spans="1:17" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="76">
+        <v>0</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="78">
+        <f>C10+1</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="74" t="s">
+      <c r="E11" s="44"/>
+      <c r="F11" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-    </row>
-    <row r="11" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-    </row>
-    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+    </row>
+    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-    </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="39" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D14" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="34" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="34" t="s">
+      <c r="G14" s="63"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="33" t="s">
+      <c r="J14" s="63"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="34" t="s">
+      <c r="M14" s="69"/>
+      <c r="N14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="63" t="s">
+      <c r="O14" s="36"/>
+      <c r="P14" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" s="63"/>
-    </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="32" t="s">
+      <c r="Q14" s="41"/>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="30" t="s">
+      <c r="M15" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-    </row>
-    <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="N15" s="37"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+    </row>
+    <row r="16" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="20" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D16" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="51" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="46" t="s">
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="31" t="s">
+      <c r="J16" s="65"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="M16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="66" t="s">
+      <c r="N16" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="65"/>
-      <c r="P15" s="41" t="s">
+      <c r="O16" s="44"/>
+      <c r="P16" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="41"/>
-    </row>
-    <row r="16" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="Q16" s="45"/>
+    </row>
+    <row r="17" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-    </row>
-    <row r="17" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+    </row>
+    <row r="18" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-    </row>
-    <row r="18" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="63" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D19" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E19" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F19" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="75" t="s">
+      <c r="G19" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63" t="s">
+      <c r="H19" s="41"/>
+      <c r="I19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J19" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="63" t="s">
+      <c r="K19" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="63" t="s">
+      <c r="L19" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="63" t="s">
+      <c r="M19" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="63" t="s">
+      <c r="N19" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="63" t="s">
+      <c r="O19" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="63" t="s">
+      <c r="P19" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="63" t="s">
+      <c r="Q19" s="41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="14" t="s">
+    <row r="20" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-    </row>
-    <row r="20" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+    </row>
+    <row r="21" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="20" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G21" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H21" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I21" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J21" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K21" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L21" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="M21" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="N21" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="22" t="s">
+      <c r="O21" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="22" t="s">
+      <c r="P21" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q20" s="22" t="s">
+      <c r="Q21" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+    <row r="22" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-    </row>
-    <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="69" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+    </row>
+    <row r="23" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="69"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="57" t="s">
+      <c r="G23" s="56"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57" t="s">
+      <c r="L23" s="51"/>
+      <c r="M23" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57" t="s">
+      <c r="N23" s="51"/>
+      <c r="O23" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-    </row>
-    <row r="23" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="57" t="s">
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+    </row>
+    <row r="24" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="67" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="67" t="s">
+      <c r="F24" s="55"/>
+      <c r="G24" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="57" t="s">
+      <c r="H24" s="55"/>
+      <c r="I24" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-    </row>
-    <row r="24" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="57" t="s">
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+    </row>
+    <row r="25" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="64" t="s">
+      <c r="D25" s="45"/>
+      <c r="E25" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="65"/>
-      <c r="I24" s="41" t="s">
+      <c r="H25" s="44"/>
+      <c r="I25" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="61" t="s">
+      <c r="J25" s="45"/>
+      <c r="K25" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="61"/>
-      <c r="M24" s="41" t="s">
+      <c r="L25" s="53"/>
+      <c r="M25" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="41"/>
-      <c r="O24" s="22" t="s">
+      <c r="N25" s="45"/>
+      <c r="O25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-    </row>
-    <row r="25" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="57" t="s">
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+    </row>
+    <row r="26" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="61" t="s">
+      <c r="D26" s="51"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="L25" s="61"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="22" t="s">
+      <c r="L26" s="53"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-    </row>
-    <row r="26" spans="1:17" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56" t="s">
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+    </row>
+    <row r="27" spans="1:17" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-    </row>
-    <row r="27" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+    </row>
+    <row r="28" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-    </row>
-    <row r="28" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+    </row>
+    <row r="29" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-    </row>
-    <row r="29" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+    </row>
+    <row r="30" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="55" t="s">
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-    </row>
-    <row r="31" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
-      <c r="B31" s="54" t="s">
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+    </row>
+    <row r="32" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+      <c r="B32" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="54" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="P13:Q14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I14:K15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="H12:Q12"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:Q13"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:K4"/>
     <mergeCell ref="L4:Q4"/>
@@ -3574,53 +3613,38 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:K3"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A21:Q21"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="M22:N23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A27:Q27"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I13:K14"/>
-    <mergeCell ref="F13:H14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O14"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/Materials/DKAC/FileTemplate/Export-LSX.xlsx
+++ b/Materials/DKAC/FileTemplate/Export-LSX.xlsx
@@ -666,9 +666,6 @@
     </r>
   </si>
   <si>
-    <t>&lt;#lstQuyCachChitiet.ten&gt;: &lt;#lstQuyCachChitiet.trang&gt; trang &lt;#lstQuyCachChitiet.loai_giay&gt; &lt;#lstQuyCachChitiet.dinh_luong_giay&gt; &lt;#lstQuyCachChitiet.kieu_in_1&gt;/&lt;#lstQuyCachChitiet.kieu_in_2&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-  </si>
-  <si>
     <t>&lt;#lstCheBanInfo.trang&gt;</t>
   </si>
   <si>
@@ -737,6 +734,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;#lstQuyCach.ten_nhom_vat_tu&gt; </t>
+  </si>
+  <si>
+    <t>&lt;#lstQuyCachChitiet.ten&gt;: &lt;#lstQuyCachChitiet.trang&gt; trang &lt;#lstQuyCachChitiet.loai_giay&gt; &lt;#lstQuyCachChitiet.dinh_luong_giay&gt; In &lt;#lstQuyCachChitiet.kieu_in_1&gt;/&lt;#lstQuyCachChitiet.kieu_in_2&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
   </si>
 </sst>
 </file>
@@ -1110,6 +1110,12 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1149,6 +1155,9 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1161,15 +1170,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1238,15 +1247,6 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1585,7 +1585,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="F11" sqref="F11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2745,178 +2745,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
     </row>
     <row r="5" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74" t="s">
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="75"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="78"/>
     </row>
     <row r="8" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="E8" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -2924,30 +2924,30 @@
       <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-    </row>
-    <row r="10" spans="1:17" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+    </row>
+    <row r="10" spans="1:17" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
-      <c r="C10" s="76">
+      <c r="C10" s="33">
         <v>0</v>
       </c>
       <c r="D10" s="32"/>
@@ -2968,264 +2968,264 @@
     <row r="11" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="78">
+      <c r="C11" s="34">
         <f>C10+1</f>
         <v>1</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
       <c r="O11" s="18"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
     </row>
     <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48" t="s">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
     </row>
     <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="70" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="35" t="s">
+      <c r="G14" s="66"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="69" t="s">
+      <c r="J14" s="66"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="69"/>
-      <c r="N14" s="35" t="s">
+      <c r="M14" s="72"/>
+      <c r="N14" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="36"/>
-      <c r="P14" s="41" t="s">
+      <c r="O14" s="38"/>
+      <c r="P14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="41"/>
+      <c r="Q14" s="43"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="38"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="31" t="s">
         <v>1</v>
       </c>
       <c r="M15" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="37"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
     </row>
     <row r="16" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="34"/>
+      <c r="A16" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="36"/>
       <c r="C16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="66" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="65"/>
-      <c r="K16" s="34"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="68"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="30" t="s">
         <v>50</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="43" t="s">
+      <c r="N16" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="44"/>
-      <c r="P16" s="45" t="s">
+      <c r="O16" s="46"/>
+      <c r="P16" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="Q16" s="45"/>
+      <c r="Q16" s="47"/>
     </row>
     <row r="17" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
     </row>
     <row r="18" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
     </row>
     <row r="19" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="41" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="42" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41" t="s">
+      <c r="H19" s="43"/>
+      <c r="I19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="41" t="s">
+      <c r="K19" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="41" t="s">
+      <c r="L19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="41" t="s">
+      <c r="M19" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="41" t="s">
+      <c r="N19" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="41" t="s">
+      <c r="O19" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="41" t="s">
+      <c r="P19" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="Q19" s="41" t="s">
+      <c r="Q19" s="43" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="14" t="s">
         <v>1</v>
       </c>
@@ -3238,21 +3238,21 @@
       <c r="H20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
     </row>
     <row r="21" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="19" t="s">
         <v>54</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>70</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P21" s="21" t="s">
         <v>64</v>
@@ -3300,25 +3300,25 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
     </row>
     <row r="23" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
@@ -3326,22 +3326,22 @@
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="56"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="26"/>
-      <c r="K23" s="51" t="s">
+      <c r="K23" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51" t="s">
+      <c r="L23" s="55"/>
+      <c r="M23" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51" t="s">
+      <c r="N23" s="55"/>
+      <c r="O23" s="55" t="s">
         <v>45</v>
       </c>
       <c r="P23" s="22"/>
@@ -3350,57 +3350,57 @@
     <row r="24" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="54" t="s">
+      <c r="D24" s="55"/>
+      <c r="E24" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="54" t="s">
+      <c r="F24" s="58"/>
+      <c r="G24" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="51" t="s">
+      <c r="H24" s="58"/>
+      <c r="I24" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="52" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="43" t="s">
+      <c r="F25" s="46"/>
+      <c r="G25" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45" t="s">
+      <c r="H25" s="46"/>
+      <c r="I25" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="L25" s="53"/>
-      <c r="M25" s="45" t="s">
+      <c r="J25" s="47"/>
+      <c r="K25" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="L25" s="56"/>
+      <c r="M25" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="N25" s="45"/>
+      <c r="N25" s="47"/>
       <c r="O25" s="21" t="s">
         <v>41</v>
       </c>
@@ -3410,22 +3410,22 @@
     <row r="26" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="53" t="s">
+      <c r="D26" s="55"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="L26" s="53"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
       <c r="O26" s="21" t="s">
         <v>48</v>
       </c>
@@ -3433,113 +3433,113 @@
       <c r="Q26" s="22"/>
     </row>
     <row r="27" spans="1:17" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
     </row>
     <row r="28" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
     </row>
     <row r="29" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
     </row>
     <row r="30" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="23"/>
-      <c r="J30" s="58" t="s">
+      <c r="J30" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
     </row>
     <row r="32" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="57" t="s">
+      <c r="J32" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>

--- a/Materials/DKAC/FileTemplate/Export-LSX.xlsx
+++ b/Materials/DKAC/FileTemplate/Export-LSX.xlsx
@@ -280,13 +280,7 @@
     <t>id-&gt;nhom_vat_tu_id</t>
   </si>
   <si>
-    <t>&lt;#lstCheBanInfo.so_kem&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
-  </si>
-  <si>
     <t>&lt;#tp_socuon_thung&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#lstInInfo.sl_tong&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
   </si>
   <si>
     <t>&lt;#lstInInfo.ten_tay_in&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
@@ -730,13 +724,19 @@
     <t>&lt;#lstsltong.Values&gt;  &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
   </si>
   <si>
-    <t>&lt;#lstInInfo.so_kg&gt; &lt;#Row Height(Autofit;100;5)&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;#lstQuyCach.ten_nhom_vat_tu&gt; </t>
   </si>
   <si>
     <t>&lt;#lstQuyCachChitiet.ten&gt;: &lt;#lstQuyCachChitiet.trang&gt; trang &lt;#lstQuyCachChitiet.loai_giay&gt; &lt;#lstQuyCachChitiet.dinh_luong_giay&gt; In &lt;#lstQuyCachChitiet.kieu_in_1&gt;/&lt;#lstQuyCachChitiet.kieu_in_2&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#lstCheBanInfo.so_kem&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#lstInInfo.sl_tong&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#lstInInfo.so_kg&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
   </si>
 </sst>
 </file>
@@ -1116,43 +1116,127 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1163,90 +1247,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1584,29 +1584,29 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:N11"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="7.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" style="1" customWidth="1"/>
     <col min="18" max="249" width="8.25" style="1"/>
     <col min="250" max="250" width="3.25" style="1" customWidth="1"/>
     <col min="251" max="251" width="7.5" style="1" customWidth="1"/>
@@ -2745,178 +2745,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
     </row>
     <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+    </row>
+    <row r="3" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-    </row>
-    <row r="3" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+    </row>
+    <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+    </row>
+    <row r="5" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-    </row>
-    <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-    </row>
-    <row r="5" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="77" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="78"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
+      <c r="E8" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -2924,25 +2924,25 @@
       <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
     </row>
     <row r="10" spans="1:17" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
@@ -2972,260 +2972,260 @@
         <f>C10+1</f>
         <v>1</v>
       </c>
-      <c r="D11" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
+      <c r="D11" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
       <c r="O11" s="18"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
     </row>
     <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
+      <c r="A13" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
     </row>
     <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="73" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37" t="s">
+      <c r="E14" s="37"/>
+      <c r="F14" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="37" t="s">
+      <c r="G14" s="50"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="66"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="72" t="s">
+      <c r="J14" s="50"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="72"/>
-      <c r="N14" s="37" t="s">
+      <c r="M14" s="35"/>
+      <c r="N14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="43" t="s">
+      <c r="O14" s="37"/>
+      <c r="P14" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="43"/>
+      <c r="Q14" s="65"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="40"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="39"/>
       <c r="L15" s="31" t="s">
         <v>1</v>
       </c>
       <c r="M15" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-    </row>
-    <row r="16" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="36"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+    </row>
+    <row r="16" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="49"/>
       <c r="C16" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="69" t="s">
+      <c r="E16" s="49"/>
+      <c r="F16" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="36"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="52"/>
+      <c r="K16" s="49"/>
       <c r="L16" s="30" t="s">
         <v>50</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="45" t="s">
+      <c r="N16" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47" t="s">
+      <c r="O16" s="67"/>
+      <c r="P16" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="Q16" s="47"/>
+      <c r="Q16" s="43"/>
     </row>
     <row r="17" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
     </row>
     <row r="18" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
+      <c r="A18" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
     </row>
     <row r="19" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="43" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="75" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43" t="s">
+      <c r="H19" s="65"/>
+      <c r="I19" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="J19" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="43" t="s">
+      <c r="K19" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="43" t="s">
+      <c r="L19" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="43" t="s">
+      <c r="M19" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="43" t="s">
+      <c r="N19" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="43" t="s">
+      <c r="O19" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="43" t="s">
+      <c r="P19" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="Q19" s="43" t="s">
+      <c r="Q19" s="65" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="14" t="s">
         <v>1</v>
       </c>
@@ -3238,21 +3238,21 @@
       <c r="H20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-    </row>
-    <row r="21" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="36"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+    </row>
+    <row r="21" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="49"/>
       <c r="C21" s="19" t="s">
         <v>54</v>
       </c>
@@ -3284,13 +3284,13 @@
         <v>63</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="N21" s="21" t="s">
         <v>70</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P21" s="21" t="s">
         <v>64</v>
@@ -3300,25 +3300,25 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
     </row>
     <row r="23" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
@@ -3326,22 +3326,22 @@
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="59"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="26"/>
-      <c r="K23" s="55" t="s">
+      <c r="K23" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55" t="s">
+      <c r="L23" s="59"/>
+      <c r="M23" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55" t="s">
+      <c r="N23" s="59"/>
+      <c r="O23" s="59" t="s">
         <v>45</v>
       </c>
       <c r="P23" s="22"/>
@@ -3350,57 +3350,57 @@
     <row r="24" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="57" t="s">
+      <c r="D24" s="59"/>
+      <c r="E24" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="57" t="s">
+      <c r="F24" s="70"/>
+      <c r="G24" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="55" t="s">
+      <c r="H24" s="70"/>
+      <c r="I24" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="53" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="45" t="s">
+      <c r="F25" s="67"/>
+      <c r="G25" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47" t="s">
+      <c r="H25" s="67"/>
+      <c r="I25" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="J25" s="47"/>
-      <c r="K25" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="L25" s="56"/>
-      <c r="M25" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="N25" s="47"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25" s="63"/>
+      <c r="M25" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" s="43"/>
       <c r="O25" s="21" t="s">
         <v>41</v>
       </c>
@@ -3410,22 +3410,22 @@
     <row r="26" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="L26" s="56"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
+      <c r="C26" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="63"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
       <c r="O26" s="21" t="s">
         <v>48</v>
       </c>
@@ -3433,113 +3433,113 @@
       <c r="Q26" s="22"/>
     </row>
     <row r="27" spans="1:17" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
+      <c r="A27" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
     </row>
     <row r="28" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
+      <c r="A28" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
     </row>
     <row r="29" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
+      <c r="A29" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
     </row>
     <row r="30" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
       <c r="I30" s="23"/>
-      <c r="J30" s="61" t="s">
+      <c r="J30" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
     </row>
     <row r="32" spans="1:17" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="60" t="s">
+      <c r="J32" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
@@ -3562,30 +3562,45 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I14:K15"/>
-    <mergeCell ref="F14:H15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="A27:Q27"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="A9:Q9"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="M26:N26"/>
@@ -3602,45 +3617,30 @@
     <mergeCell ref="K23:L24"/>
     <mergeCell ref="M23:N24"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I14:K15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:L7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/Materials/DKAC/FileTemplate/Export-LSX.xlsx
+++ b/Materials/DKAC/FileTemplate/Export-LSX.xlsx
@@ -16,16 +16,14 @@
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__lstCheBanInfo__">CK!$A$17:$Q$17</definedName>
-    <definedName name="__lstInInfo__">CK!$A$22:$Q$22</definedName>
+    <definedName name="__lstCheBanInfo__">CK!$A$19:$Q$20</definedName>
+    <definedName name="__lstInInfo__">CK!$A$27:$Q$28</definedName>
     <definedName name="__lstQuyCach__">CK!$C$11:$Q$11</definedName>
     <definedName name="__lstsltong__">CK!$A$8:$Q$8</definedName>
     <definedName name="_lstQuyCachChitiet_">CK!$F$11:$Q$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CK!$A$1:$Q$34</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">CK!$15:$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CK!$A:$Q</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
   <si>
     <t>Tổng</t>
   </si>
@@ -162,9 +160,6 @@
   </si>
   <si>
     <t>Thùng</t>
-  </si>
-  <si>
-    <t>Dài</t>
   </si>
   <si>
     <t>Cao</t>
@@ -511,29 +506,6 @@
     <t xml:space="preserve">&lt;#tp_sl_bangkeo&gt; </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ghi chú đặc biệt: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;#tp_ghi_chu&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>&lt;#lstCheBanInfo.trang&gt;</t>
   </si>
   <si>
@@ -712,10 +684,45 @@
     </r>
   </si>
   <si>
-    <t>Người lập lệnh sản xuất : &lt;#ten_can_bo_ql&gt;</t>
-  </si>
-  <si>
-    <t>Người duyệt: &lt;#ten_can_bo_kt&gt;</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ghi chú đặc biệt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;#tp_ghi_chu&gt; &lt;#Row Height(Autofit)&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Người lập lệnh sản xuất</t>
+  </si>
+  <si>
+    <t>&lt;#ten_can_bo_ql&gt;</t>
+  </si>
+  <si>
+    <t>Người duyệt</t>
+  </si>
+  <si>
+    <t>&lt;#ten_can_bo_kt&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D </t>
+  </si>
+  <si>
+    <t>ài</t>
   </si>
 </sst>
 </file>
@@ -727,7 +734,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₫&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,7 +814,22 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1018,7 +1040,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1058,24 +1080,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1085,9 +1089,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1100,70 +1101,64 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1178,35 +1173,32 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1229,32 +1221,179 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1587,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:M21"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1599,8 +1738,7 @@
     <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.375" style="1" customWidth="1"/>
@@ -2750,178 +2888,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+    </row>
+    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-    </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49" t="s">
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+    </row>
+    <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+    </row>
+    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-    </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
     </row>
     <row r="6" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74" t="s">
+      <c r="E7" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="75"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
+      <c r="E8" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -2929,887 +3067,886 @@
       <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
     </row>
     <row r="10" spans="1:17" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24">
         <v>0</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="32">
+      <c r="C11" s="25">
         <f>C10+1</f>
         <v>1</v>
       </c>
-      <c r="D11" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
+      <c r="D11" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
       <c r="O11" s="18"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-    </row>
-    <row r="13" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+    </row>
+    <row r="13" spans="1:17" s="30" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+    </row>
+    <row r="14" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+    </row>
+    <row r="15" spans="1:17" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+    </row>
+    <row r="16" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="68"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="68"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="59"/>
+      <c r="N17" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="51"/>
+      <c r="P17" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="45"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+    </row>
+    <row r="19" spans="1:17" s="30" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="89"/>
+      <c r="F19" s="117" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="118"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="70"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="O19" s="77"/>
+      <c r="P19" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="77"/>
+    </row>
+    <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="90"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="79"/>
+    </row>
+    <row r="21" spans="1:17" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+    </row>
+    <row r="22" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+    </row>
+    <row r="23" spans="1:17" s="30" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+    </row>
+    <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+    </row>
+    <row r="25" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+    </row>
+    <row r="27" spans="1:17" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="89"/>
+      <c r="C27" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="N27" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="O27" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="P27" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="90"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+    </row>
+    <row r="29" spans="1:17" s="30" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+    </row>
+    <row r="30" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+    </row>
+    <row r="31" spans="1:17" s="30" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="41"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+    </row>
+    <row r="32" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="57"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+    </row>
+    <row r="33" spans="1:17" s="30" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="57"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="98"/>
+      <c r="E33" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="98"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+    </row>
+    <row r="34" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="57"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+    </row>
+    <row r="35" spans="1:17" s="30" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="57"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="100"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="100"/>
+      <c r="I35" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" s="77"/>
+      <c r="K35" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" s="81"/>
+      <c r="M35" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="N35" s="77"/>
+      <c r="O35" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+    </row>
+    <row r="36" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="57"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+    </row>
+    <row r="37" spans="1:17" s="30" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="57"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="77"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" s="81"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+    </row>
+    <row r="38" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="57"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="103"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+    </row>
+    <row r="39" spans="1:17" s="28" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+    </row>
+    <row r="40" spans="1:17" s="30" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+    </row>
+    <row r="41" spans="1:17" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+    </row>
+    <row r="42" spans="1:17" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="58"/>
+    </row>
+    <row r="43" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="58"/>
+    </row>
+    <row r="44" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-    </row>
-    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-    </row>
-    <row r="15" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="76"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="76"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="69"/>
-      <c r="N15" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="46"/>
-      <c r="P15" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="51"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" s="47"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-    </row>
-    <row r="17" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="80"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" s="78"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="54"/>
-      <c r="P17" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q17" s="36"/>
-    </row>
-    <row r="18" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-    </row>
-    <row r="19" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-    </row>
-    <row r="20" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="P20" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q20" s="51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-    </row>
-    <row r="22" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="N22" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="O22" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="P22" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q22" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-    </row>
-    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="66"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="65"/>
-    </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="66"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="63"/>
-      <c r="G25" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="63"/>
-      <c r="I25" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="65"/>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="66"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" s="36"/>
-      <c r="K26" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" s="40"/>
-      <c r="M26" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="65"/>
-    </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="66"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="L27" s="40"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="65"/>
-    </row>
-    <row r="28" spans="1:17" s="13" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+    </row>
+    <row r="45" spans="1:17" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+    </row>
+    <row r="46" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-    </row>
-    <row r="29" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-    </row>
-    <row r="30" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-    </row>
-    <row r="31" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-    </row>
-    <row r="32" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-    </row>
-    <row r="33" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-    </row>
-    <row r="34" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-    </row>
-    <row r="35" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-    </row>
-    <row r="36" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="68"/>
-    </row>
-    <row r="37" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="34"/>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -3817,17 +3954,19 @@
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I46" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+    </row>
+    <row r="47" spans="1:17" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -3836,461 +3975,123 @@
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="34"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="34"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+    </row>
+    <row r="48" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+    </row>
+    <row r="49" spans="1:17" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="71"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O16"/>
+  <mergeCells count="103">
+    <mergeCell ref="A40:Q41"/>
+    <mergeCell ref="A42:Q43"/>
+    <mergeCell ref="A44:Q45"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="A29:Q30"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="C31:E32"/>
+    <mergeCell ref="H31:J32"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="K31:L34"/>
+    <mergeCell ref="M31:N34"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="A23:Q24"/>
+    <mergeCell ref="A21:Q22"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:H20"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="A15:Q16"/>
+    <mergeCell ref="A13:Q14"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O18"/>
     <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:E18"/>
     <mergeCell ref="E8:L8"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="P24:Q27"/>
-    <mergeCell ref="A24:B27"/>
-    <mergeCell ref="A36:Q36"/>
-    <mergeCell ref="A31:Q31"/>
-    <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="A34:Q34"/>
-    <mergeCell ref="A35:Q35"/>
+    <mergeCell ref="A17:B18"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A12:Q12"/>
     <mergeCell ref="A4:D4"/>
@@ -4303,56 +4104,41 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="P15:Q16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="P17:Q18"/>
     <mergeCell ref="F11:N11"/>
-    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="P25:P26"/>
     <mergeCell ref="L3:Q3"/>
     <mergeCell ref="E5:K5"/>
     <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="M24:N25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="P32:Q38"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="A48:H49"/>
+    <mergeCell ref="I48:Q49"/>
+    <mergeCell ref="A46:H47"/>
+    <mergeCell ref="I46:Q47"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="K37:L38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="65" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="60" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;RTrang &amp;P/&amp;N</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4552,13 +4338,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Materials/DKAC/FileTemplate/Export-LSX.xlsx
+++ b/Materials/DKAC/FileTemplate/Export-LSX.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAIKA\Desktop\Repos\QL_VatTu\Materials\DKAC\FileTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5FC071-4E7A-40D6-81FC-3930AAAC604E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6832D657-124A-4995-9945-97B936C3D956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lệnh sản xuất" sheetId="1" r:id="rId1"/>
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__lstCheBanInfo__">'Lệnh sản xuất'!$A$23:$Q$24</definedName>
-    <definedName name="__lstInInfo__">'Lệnh sản xuất'!$A$31:$Q$32</definedName>
+    <definedName name="__lstCheBanInfo__">'Lệnh sản xuất'!$A$25:$Q$26</definedName>
+    <definedName name="__lstInInfo__">'Lệnh sản xuất'!$A$33:$Q$34</definedName>
     <definedName name="__lstQuyCach__">'Lệnh sản xuất'!$12:$14</definedName>
     <definedName name="__lstsltong__">'Lệnh sản xuất'!$A$8:$Q$8</definedName>
     <definedName name="_lstQuyCachChitiet_">'Lệnh sản xuất'!$12:$12</definedName>
-    <definedName name="KeepRows_1_orders">'Lệnh sản xuất'!$36:$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Lệnh sản xuất'!$A$1:$Q$57</definedName>
+    <definedName name="KeepRows_1_orders">'Lệnh sản xuất'!$38:$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Lệnh sản xuất'!$A$1:$Q$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="119">
   <si>
     <t>Tổng</t>
   </si>
@@ -640,27 +640,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Quy cách chung: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;#quy_cach_chung&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Ghi chú đặc biệt:</t>
     </r>
     <r>
@@ -727,6 +706,33 @@
       </rPr>
       <t>&lt;#tp_rong&gt; x &lt;#tp_cao&gt;</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Thành phẩm chung: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;#quy_cach_chung&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;#quy_cach_chung&gt; &lt;#Row Height(Autofit;100;5;dont shrink)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#title_quy_cach_chung&gt;</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1084,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1166,27 +1172,300 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1197,12 +1476,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1223,21 +1496,12 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="18" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="18" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1250,266 +1514,14 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1848,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:Q18"/>
+      <selection activeCell="O16" sqref="O16:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,178 +3021,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
     </row>
     <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101" t="s">
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
     </row>
     <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101" t="s">
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
     </row>
     <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
     </row>
     <row r="6" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105" t="s">
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
     </row>
     <row r="8" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -3188,42 +3200,42 @@
       <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
     </row>
     <row r="10" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="117" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
+      <c r="A10" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -3254,21 +3266,21 @@
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="113"/>
-      <c r="F12" s="110" t="s">
+      <c r="E12" s="88"/>
+      <c r="F12" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
       <c r="O12" s="17"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
@@ -3277,8 +3289,8 @@
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="115"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -3296,8 +3308,8 @@
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -3330,947 +3342,1003 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109" t="s">
+    <row r="16" spans="1:17" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="96"/>
+      <c r="F16" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+    </row>
+    <row r="17" spans="1:19" s="15" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+    </row>
+    <row r="18" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-    </row>
-    <row r="17" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+    </row>
+    <row r="19" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-    </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-    </row>
-    <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+    </row>
+    <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="84"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+    </row>
+    <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-    </row>
-    <row r="20" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+    </row>
+    <row r="22" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="102" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="98" t="s">
+      <c r="D23" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="98" t="s">
+      <c r="E23" s="72"/>
+      <c r="F23" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="106"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="98" t="s">
+      <c r="G23" s="99"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="106"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="97" t="s">
+      <c r="J23" s="99"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="97"/>
-      <c r="N21" s="98" t="s">
+      <c r="M23" s="94"/>
+      <c r="N23" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="99"/>
-      <c r="P21" s="66" t="s">
+      <c r="O23" s="72"/>
+      <c r="P23" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="Q21" s="66"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="29" t="s">
+      <c r="Q23" s="41"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M22" s="30" t="s">
+      <c r="M24" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N22" s="100"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-    </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="N24" s="73"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+    </row>
+    <row r="25" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="70" t="s">
+      <c r="B25" s="105"/>
+      <c r="C25" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D25" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="73"/>
-      <c r="F23" s="76" t="s">
+      <c r="E25" s="111"/>
+      <c r="F25" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="82" t="s">
+      <c r="G25" s="115"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="83"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="46" t="s">
+      <c r="J25" s="121"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="M23" s="46" t="s">
+      <c r="M25" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="N23" s="88" t="s">
+      <c r="N25" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="O23" s="89"/>
-      <c r="P23" s="92" t="s">
+      <c r="O25" s="129"/>
+      <c r="P25" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="Q23" s="93"/>
-    </row>
-    <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+      <c r="Q25" s="66"/>
+    </row>
+    <row r="26" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="106"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="49"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-    </row>
-    <row r="26" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-    </row>
-    <row r="27" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+    </row>
+    <row r="28" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="84"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+    </row>
+    <row r="29" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-    </row>
-    <row r="28" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="S28" s="34"/>
-    </row>
-    <row r="29" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="98" t="s">
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+    </row>
+    <row r="30" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="102"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="S30" s="34"/>
+    </row>
+    <row r="31" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="66" t="s">
+      <c r="B31" s="72"/>
+      <c r="C31" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="125" t="s">
+      <c r="D31" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E31" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F31" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="65" t="s">
+      <c r="G31" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66" t="s">
+      <c r="H31" s="41"/>
+      <c r="I31" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="66" t="s">
+      <c r="J31" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="66" t="s">
+      <c r="K31" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="66" t="s">
+      <c r="L31" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="M29" s="66" t="s">
+      <c r="M31" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="N29" s="66" t="s">
+      <c r="N31" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="O29" s="66" t="s">
+      <c r="O31" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="P29" s="66" t="s">
+      <c r="P31" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="Q29" s="66" t="s">
+      <c r="Q31" s="41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="100"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="33" t="s">
+    <row r="32" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F32" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G32" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H32" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-    </row>
-    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+    </row>
+    <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="42" t="s">
+      <c r="B33" s="105"/>
+      <c r="C33" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D33" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E33" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F33" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G33" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="46" t="s">
+      <c r="H33" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="I31" s="48" t="s">
+      <c r="I33" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="48" t="s">
+      <c r="J33" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="K31" s="50" t="s">
+      <c r="K33" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="L31" s="52" t="s">
+      <c r="L33" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="M31" s="54" t="s">
+      <c r="M33" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="N33" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="O33" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="N31" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="O31" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="P31" s="54" t="s">
+      <c r="P33" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="Q31" s="54" t="s">
+      <c r="Q33" s="67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-    </row>
-    <row r="33" spans="1:17" s="132" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
+    <row r="34" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="106"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="142"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="144"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+    </row>
+    <row r="35" spans="1:17" s="149" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-    </row>
-    <row r="35" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-    </row>
-    <row r="36" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="65" t="s">
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+    </row>
+    <row r="37" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="84"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
+    </row>
+    <row r="38" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="125"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="65" t="s">
+      <c r="G38" s="69"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66" t="s">
+      <c r="L38" s="41"/>
+      <c r="M38" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66" t="s">
+      <c r="N38" s="41"/>
+      <c r="O38" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-    </row>
-    <row r="37" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="140"/>
-      <c r="B37" s="141"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="139"/>
-      <c r="Q37" s="139"/>
-    </row>
-    <row r="38" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="140"/>
-      <c r="B38" s="141"/>
-      <c r="C38" s="64" t="s">
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+    </row>
+    <row r="39" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+    </row>
+    <row r="40" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="64"/>
-      <c r="E38" s="59" t="s">
+      <c r="D40" s="45"/>
+      <c r="E40" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="61" t="s">
+      <c r="F40" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="G40" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64" t="s">
+      <c r="H40" s="45"/>
+      <c r="I40" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="J38" s="64"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="139"/>
-      <c r="Q38" s="139"/>
-    </row>
-    <row r="39" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="140"/>
-      <c r="B39" s="141"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="139"/>
-      <c r="Q39" s="139"/>
-    </row>
-    <row r="40" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="140"/>
-      <c r="B40" s="141"/>
-      <c r="C40" s="142" t="s">
+      <c r="J40" s="45"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+    </row>
+    <row r="41" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+    </row>
+    <row r="42" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="143"/>
-      <c r="E40" s="148" t="s">
+      <c r="D42" s="47"/>
+      <c r="E42" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="149"/>
-      <c r="G40" s="144" t="s">
+      <c r="F42" s="55"/>
+      <c r="G42" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="145"/>
-      <c r="I40" s="148" t="s">
+      <c r="H42" s="51"/>
+      <c r="I42" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J40" s="149"/>
-      <c r="K40" s="121" t="s">
+      <c r="J42" s="55"/>
+      <c r="K42" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="L40" s="122"/>
-      <c r="M40" s="121" t="s">
+      <c r="L42" s="57"/>
+      <c r="M42" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="N40" s="122"/>
-      <c r="O40" s="36" t="s">
+      <c r="N42" s="57"/>
+      <c r="O42" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="P40" s="139"/>
-      <c r="Q40" s="139"/>
-    </row>
-    <row r="41" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="140"/>
-      <c r="B41" s="141"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="147"/>
-      <c r="K41" s="123"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="123"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="139"/>
-      <c r="Q41" s="139"/>
-    </row>
-    <row r="42" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="140"/>
-      <c r="B42" s="141"/>
-      <c r="C42" s="92" t="s">
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+    </row>
+    <row r="43" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+    </row>
+    <row r="44" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="93"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="121" t="s">
+      <c r="D44" s="66"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="L42" s="122"/>
-      <c r="M42" s="133"/>
-      <c r="N42" s="134"/>
-      <c r="O42" s="36" t="s">
+      <c r="L44" s="57"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="P42" s="139"/>
-      <c r="Q42" s="139"/>
-    </row>
-    <row r="43" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="140"/>
-      <c r="B43" s="141"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="136"/>
-      <c r="K43" s="123"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="135"/>
-      <c r="N43" s="136"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="139"/>
-      <c r="Q43" s="139"/>
-    </row>
-    <row r="44" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-    </row>
-    <row r="45" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+    </row>
+    <row r="45" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+    </row>
+    <row r="46" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+    </row>
+    <row r="47" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="132" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="132"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="132"/>
+      <c r="O47" s="132"/>
+      <c r="P47" s="132"/>
+      <c r="Q47" s="132"/>
+    </row>
+    <row r="48" spans="1:17" s="26" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="132"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="132"/>
+      <c r="L48" s="132"/>
+      <c r="M48" s="132"/>
+      <c r="N48" s="132"/>
+      <c r="O48" s="132"/>
+      <c r="P48" s="132"/>
+      <c r="Q48" s="132"/>
+    </row>
+    <row r="49" spans="1:17" s="26" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-    </row>
-    <row r="46" spans="1:17" s="26" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-    </row>
-    <row r="47" spans="1:17" s="26" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="35" t="s">
+      <c r="B49" s="132"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="132"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="132"/>
+      <c r="K49" s="132"/>
+      <c r="L49" s="132"/>
+      <c r="M49" s="132"/>
+      <c r="N49" s="132"/>
+      <c r="O49" s="132"/>
+      <c r="P49" s="132"/>
+      <c r="Q49" s="132"/>
+    </row>
+    <row r="50" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="132"/>
+      <c r="B50" s="132"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="132"/>
+      <c r="K50" s="132"/>
+      <c r="L50" s="132"/>
+      <c r="M50" s="132"/>
+      <c r="N50" s="132"/>
+      <c r="O50" s="132"/>
+      <c r="P50" s="132"/>
+      <c r="Q50" s="132"/>
+    </row>
+    <row r="51" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-    </row>
-    <row r="48" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-    </row>
-    <row r="49" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-    </row>
-    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-    </row>
-    <row r="51" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="119" t="s">
+      <c r="B51" s="132"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="132"/>
+      <c r="G51" s="132"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="132"/>
+      <c r="K51" s="132"/>
+      <c r="L51" s="132"/>
+      <c r="M51" s="132"/>
+      <c r="N51" s="132"/>
+      <c r="O51" s="132"/>
+      <c r="P51" s="132"/>
+      <c r="Q51" s="132"/>
+    </row>
+    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="132"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="132"/>
+      <c r="L52" s="132"/>
+      <c r="M52" s="132"/>
+      <c r="N52" s="132"/>
+      <c r="O52" s="132"/>
+      <c r="P52" s="132"/>
+      <c r="Q52" s="132"/>
+    </row>
+    <row r="53" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="120" t="s">
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="J51" s="120"/>
-      <c r="K51" s="120"/>
-      <c r="L51" s="120"/>
-      <c r="M51" s="120"/>
-      <c r="N51" s="120"/>
-      <c r="O51" s="120"/>
-      <c r="P51" s="120"/>
-      <c r="Q51" s="120"/>
-    </row>
-    <row r="52" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="119"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="120"/>
-      <c r="K52" s="120"/>
-      <c r="L52" s="120"/>
-      <c r="M52" s="120"/>
-      <c r="N52" s="120"/>
-      <c r="O52" s="120"/>
-      <c r="P52" s="120"/>
-      <c r="Q52" s="120"/>
-    </row>
-    <row r="53" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="118" t="s">
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+    </row>
+    <row r="54" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="63"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="64"/>
+    </row>
+    <row r="55" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="118"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="118" t="s">
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="J53" s="118"/>
-      <c r="K53" s="118"/>
-      <c r="L53" s="118"/>
-      <c r="M53" s="118"/>
-      <c r="N53" s="118"/>
-      <c r="O53" s="118"/>
-      <c r="P53" s="118"/>
-      <c r="Q53" s="118"/>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="118"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="118"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="118"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="118"/>
-      <c r="J54" s="118"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="118"/>
-      <c r="M54" s="118"/>
-      <c r="N54" s="118"/>
-      <c r="O54" s="118"/>
-      <c r="P54" s="118"/>
-      <c r="Q54" s="118"/>
-    </row>
-    <row r="56" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="27"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="62"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+    </row>
+    <row r="58" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="108">
-    <mergeCell ref="E42:J43"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="P37:Q43"/>
-    <mergeCell ref="A37:B43"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="C40:D41"/>
+  <mergeCells count="112">
+    <mergeCell ref="A47:Q48"/>
+    <mergeCell ref="A49:Q50"/>
+    <mergeCell ref="A51:Q52"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="A36:Q37"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
     <mergeCell ref="G40:H41"/>
-    <mergeCell ref="I40:J41"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="M40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="A53:H54"/>
-    <mergeCell ref="I53:Q54"/>
-    <mergeCell ref="A51:H52"/>
-    <mergeCell ref="I51:Q52"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="I38:J39"/>
-    <mergeCell ref="C36:E37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="F36:G37"/>
-    <mergeCell ref="K36:L39"/>
-    <mergeCell ref="M36:N39"/>
-    <mergeCell ref="O36:O39"/>
+    <mergeCell ref="A35:XFD35"/>
+    <mergeCell ref="M44:N45"/>
+    <mergeCell ref="A29:Q30"/>
+    <mergeCell ref="A27:Q28"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:H26"/>
+    <mergeCell ref="I25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:O26"/>
+    <mergeCell ref="P25:Q26"/>
+    <mergeCell ref="A21:Q22"/>
+    <mergeCell ref="A19:Q20"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O24"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="P23:Q24"/>
+    <mergeCell ref="I23:K24"/>
+    <mergeCell ref="F23:H24"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:N17"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="O16:Q17"/>
     <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="A18:Q18"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:K4"/>
     <mergeCell ref="L4:Q4"/>
@@ -4289,55 +4357,45 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:K10"/>
-    <mergeCell ref="A19:Q20"/>
-    <mergeCell ref="A17:Q18"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O22"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="P21:Q22"/>
-    <mergeCell ref="I21:K22"/>
-    <mergeCell ref="F21:H22"/>
-    <mergeCell ref="A27:Q28"/>
-    <mergeCell ref="A25:Q26"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="F23:H24"/>
-    <mergeCell ref="I23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:O24"/>
-    <mergeCell ref="P23:Q24"/>
-    <mergeCell ref="A45:Q46"/>
-    <mergeCell ref="A47:Q48"/>
-    <mergeCell ref="A49:Q50"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="A55:H56"/>
+    <mergeCell ref="I55:Q56"/>
+    <mergeCell ref="A53:H54"/>
+    <mergeCell ref="I53:Q54"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:I32"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="L31:L32"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="I40:J41"/>
+    <mergeCell ref="C38:E39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="F38:G39"/>
+    <mergeCell ref="K38:L41"/>
+    <mergeCell ref="M38:N41"/>
+    <mergeCell ref="O38:O41"/>
+    <mergeCell ref="E44:J45"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="O31:O32"/>
     <mergeCell ref="M31:M32"/>
     <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="A34:Q35"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:H39"/>
-    <mergeCell ref="A33:XFD33"/>
+    <mergeCell ref="P39:Q45"/>
+    <mergeCell ref="A39:B45"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="G42:H43"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="K42:L43"/>
     <mergeCell ref="M42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="E42:F43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/Materials/DKAC/FileTemplate/Export-LSX.xlsx
+++ b/Materials/DKAC/FileTemplate/Export-LSX.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAIKA\Desktop\Repos\QL_VatTu\Materials\DKAC\FileTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dieppv\Desktop\QL_VatTu\Materials\DKAC\FileTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6832D657-124A-4995-9945-97B936C3D956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Lệnh sản xuất" sheetId="1" r:id="rId1"/>
@@ -738,18 +737,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₫&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₫&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -774,7 +773,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1082,7 +1081,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1139,7 +1138,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1172,67 +1171,286 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1247,49 +1465,7 @@
     <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1310,224 +1486,47 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Sheet2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1859,1340 +1858,1340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16:Q17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" style="10" customWidth="1"/>
     <col min="4" max="4" width="7" style="10" customWidth="1"/>
-    <col min="5" max="6" width="6.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="10" customWidth="1"/>
+    <col min="5" max="6" width="6.09765625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" style="10" customWidth="1"/>
     <col min="8" max="8" width="6" style="11" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="10" customWidth="1"/>
-    <col min="10" max="11" width="6.140625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8" style="10" customWidth="1"/>
-    <col min="18" max="249" width="8.140625" style="10"/>
-    <col min="250" max="250" width="3.140625" style="10" customWidth="1"/>
-    <col min="251" max="251" width="7.42578125" style="10" customWidth="1"/>
-    <col min="252" max="252" width="20.140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="6.3984375" style="10" customWidth="1"/>
+    <col min="10" max="11" width="6.09765625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="7.3984375" style="10" customWidth="1"/>
+    <col min="13" max="13" width="10.296875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="4.796875" style="10" customWidth="1"/>
+    <col min="15" max="15" width="10.69921875" style="10" customWidth="1"/>
+    <col min="16" max="16" width="7.59765625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="7.296875" style="10" customWidth="1"/>
+    <col min="18" max="249" width="8.09765625" style="10"/>
+    <col min="250" max="250" width="3.09765625" style="10" customWidth="1"/>
+    <col min="251" max="251" width="7.3984375" style="10" customWidth="1"/>
+    <col min="252" max="252" width="20.09765625" style="10" customWidth="1"/>
     <col min="253" max="253" width="6" style="10" customWidth="1"/>
-    <col min="254" max="254" width="4.85546875" style="10" customWidth="1"/>
+    <col min="254" max="254" width="4.8984375" style="10" customWidth="1"/>
     <col min="255" max="255" width="4" style="10" customWidth="1"/>
-    <col min="256" max="256" width="6.5703125" style="10" customWidth="1"/>
-    <col min="257" max="257" width="5.7109375" style="10" customWidth="1"/>
-    <col min="258" max="258" width="8.7109375" style="10" customWidth="1"/>
-    <col min="259" max="259" width="8.140625" style="10"/>
-    <col min="260" max="261" width="6.7109375" style="10" customWidth="1"/>
+    <col min="256" max="256" width="6.59765625" style="10" customWidth="1"/>
+    <col min="257" max="257" width="5.69921875" style="10" customWidth="1"/>
+    <col min="258" max="258" width="8.69921875" style="10" customWidth="1"/>
+    <col min="259" max="259" width="8.09765625" style="10"/>
+    <col min="260" max="261" width="6.69921875" style="10" customWidth="1"/>
     <col min="262" max="262" width="9" style="10" customWidth="1"/>
-    <col min="263" max="263" width="6.7109375" style="10" customWidth="1"/>
-    <col min="264" max="264" width="13.42578125" style="10" customWidth="1"/>
+    <col min="263" max="263" width="6.69921875" style="10" customWidth="1"/>
+    <col min="264" max="264" width="13.3984375" style="10" customWidth="1"/>
     <col min="265" max="265" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="8.140625" style="10"/>
-    <col min="267" max="267" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="268" max="505" width="8.140625" style="10"/>
-    <col min="506" max="506" width="3.140625" style="10" customWidth="1"/>
-    <col min="507" max="507" width="7.42578125" style="10" customWidth="1"/>
-    <col min="508" max="508" width="20.140625" style="10" customWidth="1"/>
+    <col min="266" max="266" width="8.09765625" style="10"/>
+    <col min="267" max="267" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="268" max="505" width="8.09765625" style="10"/>
+    <col min="506" max="506" width="3.09765625" style="10" customWidth="1"/>
+    <col min="507" max="507" width="7.3984375" style="10" customWidth="1"/>
+    <col min="508" max="508" width="20.09765625" style="10" customWidth="1"/>
     <col min="509" max="509" width="6" style="10" customWidth="1"/>
-    <col min="510" max="510" width="4.85546875" style="10" customWidth="1"/>
+    <col min="510" max="510" width="4.8984375" style="10" customWidth="1"/>
     <col min="511" max="511" width="4" style="10" customWidth="1"/>
-    <col min="512" max="512" width="6.5703125" style="10" customWidth="1"/>
-    <col min="513" max="513" width="5.7109375" style="10" customWidth="1"/>
-    <col min="514" max="514" width="8.7109375" style="10" customWidth="1"/>
-    <col min="515" max="515" width="8.140625" style="10"/>
-    <col min="516" max="517" width="6.7109375" style="10" customWidth="1"/>
+    <col min="512" max="512" width="6.59765625" style="10" customWidth="1"/>
+    <col min="513" max="513" width="5.69921875" style="10" customWidth="1"/>
+    <col min="514" max="514" width="8.69921875" style="10" customWidth="1"/>
+    <col min="515" max="515" width="8.09765625" style="10"/>
+    <col min="516" max="517" width="6.69921875" style="10" customWidth="1"/>
     <col min="518" max="518" width="9" style="10" customWidth="1"/>
-    <col min="519" max="519" width="6.7109375" style="10" customWidth="1"/>
-    <col min="520" max="520" width="13.42578125" style="10" customWidth="1"/>
+    <col min="519" max="519" width="6.69921875" style="10" customWidth="1"/>
+    <col min="520" max="520" width="13.3984375" style="10" customWidth="1"/>
     <col min="521" max="521" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="8.140625" style="10"/>
-    <col min="523" max="523" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="524" max="761" width="8.140625" style="10"/>
-    <col min="762" max="762" width="3.140625" style="10" customWidth="1"/>
-    <col min="763" max="763" width="7.42578125" style="10" customWidth="1"/>
-    <col min="764" max="764" width="20.140625" style="10" customWidth="1"/>
+    <col min="522" max="522" width="8.09765625" style="10"/>
+    <col min="523" max="523" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="524" max="761" width="8.09765625" style="10"/>
+    <col min="762" max="762" width="3.09765625" style="10" customWidth="1"/>
+    <col min="763" max="763" width="7.3984375" style="10" customWidth="1"/>
+    <col min="764" max="764" width="20.09765625" style="10" customWidth="1"/>
     <col min="765" max="765" width="6" style="10" customWidth="1"/>
-    <col min="766" max="766" width="4.85546875" style="10" customWidth="1"/>
+    <col min="766" max="766" width="4.8984375" style="10" customWidth="1"/>
     <col min="767" max="767" width="4" style="10" customWidth="1"/>
-    <col min="768" max="768" width="6.5703125" style="10" customWidth="1"/>
-    <col min="769" max="769" width="5.7109375" style="10" customWidth="1"/>
-    <col min="770" max="770" width="8.7109375" style="10" customWidth="1"/>
-    <col min="771" max="771" width="8.140625" style="10"/>
-    <col min="772" max="773" width="6.7109375" style="10" customWidth="1"/>
+    <col min="768" max="768" width="6.59765625" style="10" customWidth="1"/>
+    <col min="769" max="769" width="5.69921875" style="10" customWidth="1"/>
+    <col min="770" max="770" width="8.69921875" style="10" customWidth="1"/>
+    <col min="771" max="771" width="8.09765625" style="10"/>
+    <col min="772" max="773" width="6.69921875" style="10" customWidth="1"/>
     <col min="774" max="774" width="9" style="10" customWidth="1"/>
-    <col min="775" max="775" width="6.7109375" style="10" customWidth="1"/>
-    <col min="776" max="776" width="13.42578125" style="10" customWidth="1"/>
+    <col min="775" max="775" width="6.69921875" style="10" customWidth="1"/>
+    <col min="776" max="776" width="13.3984375" style="10" customWidth="1"/>
     <col min="777" max="777" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="8.140625" style="10"/>
-    <col min="779" max="779" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="780" max="1017" width="8.140625" style="10"/>
-    <col min="1018" max="1018" width="3.140625" style="10" customWidth="1"/>
-    <col min="1019" max="1019" width="7.42578125" style="10" customWidth="1"/>
-    <col min="1020" max="1020" width="20.140625" style="10" customWidth="1"/>
+    <col min="778" max="778" width="8.09765625" style="10"/>
+    <col min="779" max="779" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="780" max="1017" width="8.09765625" style="10"/>
+    <col min="1018" max="1018" width="3.09765625" style="10" customWidth="1"/>
+    <col min="1019" max="1019" width="7.3984375" style="10" customWidth="1"/>
+    <col min="1020" max="1020" width="20.09765625" style="10" customWidth="1"/>
     <col min="1021" max="1021" width="6" style="10" customWidth="1"/>
-    <col min="1022" max="1022" width="4.85546875" style="10" customWidth="1"/>
+    <col min="1022" max="1022" width="4.8984375" style="10" customWidth="1"/>
     <col min="1023" max="1023" width="4" style="10" customWidth="1"/>
-    <col min="1024" max="1024" width="6.5703125" style="10" customWidth="1"/>
-    <col min="1025" max="1025" width="5.7109375" style="10" customWidth="1"/>
-    <col min="1026" max="1026" width="8.7109375" style="10" customWidth="1"/>
-    <col min="1027" max="1027" width="8.140625" style="10"/>
-    <col min="1028" max="1029" width="6.7109375" style="10" customWidth="1"/>
+    <col min="1024" max="1024" width="6.59765625" style="10" customWidth="1"/>
+    <col min="1025" max="1025" width="5.69921875" style="10" customWidth="1"/>
+    <col min="1026" max="1026" width="8.69921875" style="10" customWidth="1"/>
+    <col min="1027" max="1027" width="8.09765625" style="10"/>
+    <col min="1028" max="1029" width="6.69921875" style="10" customWidth="1"/>
     <col min="1030" max="1030" width="9" style="10" customWidth="1"/>
-    <col min="1031" max="1031" width="6.7109375" style="10" customWidth="1"/>
-    <col min="1032" max="1032" width="13.42578125" style="10" customWidth="1"/>
+    <col min="1031" max="1031" width="6.69921875" style="10" customWidth="1"/>
+    <col min="1032" max="1032" width="13.3984375" style="10" customWidth="1"/>
     <col min="1033" max="1033" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="8.140625" style="10"/>
-    <col min="1035" max="1035" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1273" width="8.140625" style="10"/>
-    <col min="1274" max="1274" width="3.140625" style="10" customWidth="1"/>
-    <col min="1275" max="1275" width="7.42578125" style="10" customWidth="1"/>
-    <col min="1276" max="1276" width="20.140625" style="10" customWidth="1"/>
+    <col min="1034" max="1034" width="8.09765625" style="10"/>
+    <col min="1035" max="1035" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1273" width="8.09765625" style="10"/>
+    <col min="1274" max="1274" width="3.09765625" style="10" customWidth="1"/>
+    <col min="1275" max="1275" width="7.3984375" style="10" customWidth="1"/>
+    <col min="1276" max="1276" width="20.09765625" style="10" customWidth="1"/>
     <col min="1277" max="1277" width="6" style="10" customWidth="1"/>
-    <col min="1278" max="1278" width="4.85546875" style="10" customWidth="1"/>
+    <col min="1278" max="1278" width="4.8984375" style="10" customWidth="1"/>
     <col min="1279" max="1279" width="4" style="10" customWidth="1"/>
-    <col min="1280" max="1280" width="6.5703125" style="10" customWidth="1"/>
-    <col min="1281" max="1281" width="5.7109375" style="10" customWidth="1"/>
-    <col min="1282" max="1282" width="8.7109375" style="10" customWidth="1"/>
-    <col min="1283" max="1283" width="8.140625" style="10"/>
-    <col min="1284" max="1285" width="6.7109375" style="10" customWidth="1"/>
+    <col min="1280" max="1280" width="6.59765625" style="10" customWidth="1"/>
+    <col min="1281" max="1281" width="5.69921875" style="10" customWidth="1"/>
+    <col min="1282" max="1282" width="8.69921875" style="10" customWidth="1"/>
+    <col min="1283" max="1283" width="8.09765625" style="10"/>
+    <col min="1284" max="1285" width="6.69921875" style="10" customWidth="1"/>
     <col min="1286" max="1286" width="9" style="10" customWidth="1"/>
-    <col min="1287" max="1287" width="6.7109375" style="10" customWidth="1"/>
-    <col min="1288" max="1288" width="13.42578125" style="10" customWidth="1"/>
+    <col min="1287" max="1287" width="6.69921875" style="10" customWidth="1"/>
+    <col min="1288" max="1288" width="13.3984375" style="10" customWidth="1"/>
     <col min="1289" max="1289" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="8.140625" style="10"/>
-    <col min="1291" max="1291" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1529" width="8.140625" style="10"/>
-    <col min="1530" max="1530" width="3.140625" style="10" customWidth="1"/>
-    <col min="1531" max="1531" width="7.42578125" style="10" customWidth="1"/>
-    <col min="1532" max="1532" width="20.140625" style="10" customWidth="1"/>
+    <col min="1290" max="1290" width="8.09765625" style="10"/>
+    <col min="1291" max="1291" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1529" width="8.09765625" style="10"/>
+    <col min="1530" max="1530" width="3.09765625" style="10" customWidth="1"/>
+    <col min="1531" max="1531" width="7.3984375" style="10" customWidth="1"/>
+    <col min="1532" max="1532" width="20.09765625" style="10" customWidth="1"/>
     <col min="1533" max="1533" width="6" style="10" customWidth="1"/>
-    <col min="1534" max="1534" width="4.85546875" style="10" customWidth="1"/>
+    <col min="1534" max="1534" width="4.8984375" style="10" customWidth="1"/>
     <col min="1535" max="1535" width="4" style="10" customWidth="1"/>
-    <col min="1536" max="1536" width="6.5703125" style="10" customWidth="1"/>
-    <col min="1537" max="1537" width="5.7109375" style="10" customWidth="1"/>
-    <col min="1538" max="1538" width="8.7109375" style="10" customWidth="1"/>
-    <col min="1539" max="1539" width="8.140625" style="10"/>
-    <col min="1540" max="1541" width="6.7109375" style="10" customWidth="1"/>
+    <col min="1536" max="1536" width="6.59765625" style="10" customWidth="1"/>
+    <col min="1537" max="1537" width="5.69921875" style="10" customWidth="1"/>
+    <col min="1538" max="1538" width="8.69921875" style="10" customWidth="1"/>
+    <col min="1539" max="1539" width="8.09765625" style="10"/>
+    <col min="1540" max="1541" width="6.69921875" style="10" customWidth="1"/>
     <col min="1542" max="1542" width="9" style="10" customWidth="1"/>
-    <col min="1543" max="1543" width="6.7109375" style="10" customWidth="1"/>
-    <col min="1544" max="1544" width="13.42578125" style="10" customWidth="1"/>
+    <col min="1543" max="1543" width="6.69921875" style="10" customWidth="1"/>
+    <col min="1544" max="1544" width="13.3984375" style="10" customWidth="1"/>
     <col min="1545" max="1545" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="8.140625" style="10"/>
-    <col min="1547" max="1547" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1785" width="8.140625" style="10"/>
-    <col min="1786" max="1786" width="3.140625" style="10" customWidth="1"/>
-    <col min="1787" max="1787" width="7.42578125" style="10" customWidth="1"/>
-    <col min="1788" max="1788" width="20.140625" style="10" customWidth="1"/>
+    <col min="1546" max="1546" width="8.09765625" style="10"/>
+    <col min="1547" max="1547" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1785" width="8.09765625" style="10"/>
+    <col min="1786" max="1786" width="3.09765625" style="10" customWidth="1"/>
+    <col min="1787" max="1787" width="7.3984375" style="10" customWidth="1"/>
+    <col min="1788" max="1788" width="20.09765625" style="10" customWidth="1"/>
     <col min="1789" max="1789" width="6" style="10" customWidth="1"/>
-    <col min="1790" max="1790" width="4.85546875" style="10" customWidth="1"/>
+    <col min="1790" max="1790" width="4.8984375" style="10" customWidth="1"/>
     <col min="1791" max="1791" width="4" style="10" customWidth="1"/>
-    <col min="1792" max="1792" width="6.5703125" style="10" customWidth="1"/>
-    <col min="1793" max="1793" width="5.7109375" style="10" customWidth="1"/>
-    <col min="1794" max="1794" width="8.7109375" style="10" customWidth="1"/>
-    <col min="1795" max="1795" width="8.140625" style="10"/>
-    <col min="1796" max="1797" width="6.7109375" style="10" customWidth="1"/>
+    <col min="1792" max="1792" width="6.59765625" style="10" customWidth="1"/>
+    <col min="1793" max="1793" width="5.69921875" style="10" customWidth="1"/>
+    <col min="1794" max="1794" width="8.69921875" style="10" customWidth="1"/>
+    <col min="1795" max="1795" width="8.09765625" style="10"/>
+    <col min="1796" max="1797" width="6.69921875" style="10" customWidth="1"/>
     <col min="1798" max="1798" width="9" style="10" customWidth="1"/>
-    <col min="1799" max="1799" width="6.7109375" style="10" customWidth="1"/>
-    <col min="1800" max="1800" width="13.42578125" style="10" customWidth="1"/>
+    <col min="1799" max="1799" width="6.69921875" style="10" customWidth="1"/>
+    <col min="1800" max="1800" width="13.3984375" style="10" customWidth="1"/>
     <col min="1801" max="1801" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="8.140625" style="10"/>
-    <col min="1803" max="1803" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="1804" max="2041" width="8.140625" style="10"/>
-    <col min="2042" max="2042" width="3.140625" style="10" customWidth="1"/>
-    <col min="2043" max="2043" width="7.42578125" style="10" customWidth="1"/>
-    <col min="2044" max="2044" width="20.140625" style="10" customWidth="1"/>
+    <col min="1802" max="1802" width="8.09765625" style="10"/>
+    <col min="1803" max="1803" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1804" max="2041" width="8.09765625" style="10"/>
+    <col min="2042" max="2042" width="3.09765625" style="10" customWidth="1"/>
+    <col min="2043" max="2043" width="7.3984375" style="10" customWidth="1"/>
+    <col min="2044" max="2044" width="20.09765625" style="10" customWidth="1"/>
     <col min="2045" max="2045" width="6" style="10" customWidth="1"/>
-    <col min="2046" max="2046" width="4.85546875" style="10" customWidth="1"/>
+    <col min="2046" max="2046" width="4.8984375" style="10" customWidth="1"/>
     <col min="2047" max="2047" width="4" style="10" customWidth="1"/>
-    <col min="2048" max="2048" width="6.5703125" style="10" customWidth="1"/>
-    <col min="2049" max="2049" width="5.7109375" style="10" customWidth="1"/>
-    <col min="2050" max="2050" width="8.7109375" style="10" customWidth="1"/>
-    <col min="2051" max="2051" width="8.140625" style="10"/>
-    <col min="2052" max="2053" width="6.7109375" style="10" customWidth="1"/>
+    <col min="2048" max="2048" width="6.59765625" style="10" customWidth="1"/>
+    <col min="2049" max="2049" width="5.69921875" style="10" customWidth="1"/>
+    <col min="2050" max="2050" width="8.69921875" style="10" customWidth="1"/>
+    <col min="2051" max="2051" width="8.09765625" style="10"/>
+    <col min="2052" max="2053" width="6.69921875" style="10" customWidth="1"/>
     <col min="2054" max="2054" width="9" style="10" customWidth="1"/>
-    <col min="2055" max="2055" width="6.7109375" style="10" customWidth="1"/>
-    <col min="2056" max="2056" width="13.42578125" style="10" customWidth="1"/>
+    <col min="2055" max="2055" width="6.69921875" style="10" customWidth="1"/>
+    <col min="2056" max="2056" width="13.3984375" style="10" customWidth="1"/>
     <col min="2057" max="2057" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="8.140625" style="10"/>
-    <col min="2059" max="2059" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2297" width="8.140625" style="10"/>
-    <col min="2298" max="2298" width="3.140625" style="10" customWidth="1"/>
-    <col min="2299" max="2299" width="7.42578125" style="10" customWidth="1"/>
-    <col min="2300" max="2300" width="20.140625" style="10" customWidth="1"/>
+    <col min="2058" max="2058" width="8.09765625" style="10"/>
+    <col min="2059" max="2059" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2297" width="8.09765625" style="10"/>
+    <col min="2298" max="2298" width="3.09765625" style="10" customWidth="1"/>
+    <col min="2299" max="2299" width="7.3984375" style="10" customWidth="1"/>
+    <col min="2300" max="2300" width="20.09765625" style="10" customWidth="1"/>
     <col min="2301" max="2301" width="6" style="10" customWidth="1"/>
-    <col min="2302" max="2302" width="4.85546875" style="10" customWidth="1"/>
+    <col min="2302" max="2302" width="4.8984375" style="10" customWidth="1"/>
     <col min="2303" max="2303" width="4" style="10" customWidth="1"/>
-    <col min="2304" max="2304" width="6.5703125" style="10" customWidth="1"/>
-    <col min="2305" max="2305" width="5.7109375" style="10" customWidth="1"/>
-    <col min="2306" max="2306" width="8.7109375" style="10" customWidth="1"/>
-    <col min="2307" max="2307" width="8.140625" style="10"/>
-    <col min="2308" max="2309" width="6.7109375" style="10" customWidth="1"/>
+    <col min="2304" max="2304" width="6.59765625" style="10" customWidth="1"/>
+    <col min="2305" max="2305" width="5.69921875" style="10" customWidth="1"/>
+    <col min="2306" max="2306" width="8.69921875" style="10" customWidth="1"/>
+    <col min="2307" max="2307" width="8.09765625" style="10"/>
+    <col min="2308" max="2309" width="6.69921875" style="10" customWidth="1"/>
     <col min="2310" max="2310" width="9" style="10" customWidth="1"/>
-    <col min="2311" max="2311" width="6.7109375" style="10" customWidth="1"/>
-    <col min="2312" max="2312" width="13.42578125" style="10" customWidth="1"/>
+    <col min="2311" max="2311" width="6.69921875" style="10" customWidth="1"/>
+    <col min="2312" max="2312" width="13.3984375" style="10" customWidth="1"/>
     <col min="2313" max="2313" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="8.140625" style="10"/>
-    <col min="2315" max="2315" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2553" width="8.140625" style="10"/>
-    <col min="2554" max="2554" width="3.140625" style="10" customWidth="1"/>
-    <col min="2555" max="2555" width="7.42578125" style="10" customWidth="1"/>
-    <col min="2556" max="2556" width="20.140625" style="10" customWidth="1"/>
+    <col min="2314" max="2314" width="8.09765625" style="10"/>
+    <col min="2315" max="2315" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2553" width="8.09765625" style="10"/>
+    <col min="2554" max="2554" width="3.09765625" style="10" customWidth="1"/>
+    <col min="2555" max="2555" width="7.3984375" style="10" customWidth="1"/>
+    <col min="2556" max="2556" width="20.09765625" style="10" customWidth="1"/>
     <col min="2557" max="2557" width="6" style="10" customWidth="1"/>
-    <col min="2558" max="2558" width="4.85546875" style="10" customWidth="1"/>
+    <col min="2558" max="2558" width="4.8984375" style="10" customWidth="1"/>
     <col min="2559" max="2559" width="4" style="10" customWidth="1"/>
-    <col min="2560" max="2560" width="6.5703125" style="10" customWidth="1"/>
-    <col min="2561" max="2561" width="5.7109375" style="10" customWidth="1"/>
-    <col min="2562" max="2562" width="8.7109375" style="10" customWidth="1"/>
-    <col min="2563" max="2563" width="8.140625" style="10"/>
-    <col min="2564" max="2565" width="6.7109375" style="10" customWidth="1"/>
+    <col min="2560" max="2560" width="6.59765625" style="10" customWidth="1"/>
+    <col min="2561" max="2561" width="5.69921875" style="10" customWidth="1"/>
+    <col min="2562" max="2562" width="8.69921875" style="10" customWidth="1"/>
+    <col min="2563" max="2563" width="8.09765625" style="10"/>
+    <col min="2564" max="2565" width="6.69921875" style="10" customWidth="1"/>
     <col min="2566" max="2566" width="9" style="10" customWidth="1"/>
-    <col min="2567" max="2567" width="6.7109375" style="10" customWidth="1"/>
-    <col min="2568" max="2568" width="13.42578125" style="10" customWidth="1"/>
+    <col min="2567" max="2567" width="6.69921875" style="10" customWidth="1"/>
+    <col min="2568" max="2568" width="13.3984375" style="10" customWidth="1"/>
     <col min="2569" max="2569" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="8.140625" style="10"/>
-    <col min="2571" max="2571" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2809" width="8.140625" style="10"/>
-    <col min="2810" max="2810" width="3.140625" style="10" customWidth="1"/>
-    <col min="2811" max="2811" width="7.42578125" style="10" customWidth="1"/>
-    <col min="2812" max="2812" width="20.140625" style="10" customWidth="1"/>
+    <col min="2570" max="2570" width="8.09765625" style="10"/>
+    <col min="2571" max="2571" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2809" width="8.09765625" style="10"/>
+    <col min="2810" max="2810" width="3.09765625" style="10" customWidth="1"/>
+    <col min="2811" max="2811" width="7.3984375" style="10" customWidth="1"/>
+    <col min="2812" max="2812" width="20.09765625" style="10" customWidth="1"/>
     <col min="2813" max="2813" width="6" style="10" customWidth="1"/>
-    <col min="2814" max="2814" width="4.85546875" style="10" customWidth="1"/>
+    <col min="2814" max="2814" width="4.8984375" style="10" customWidth="1"/>
     <col min="2815" max="2815" width="4" style="10" customWidth="1"/>
-    <col min="2816" max="2816" width="6.5703125" style="10" customWidth="1"/>
-    <col min="2817" max="2817" width="5.7109375" style="10" customWidth="1"/>
-    <col min="2818" max="2818" width="8.7109375" style="10" customWidth="1"/>
-    <col min="2819" max="2819" width="8.140625" style="10"/>
-    <col min="2820" max="2821" width="6.7109375" style="10" customWidth="1"/>
+    <col min="2816" max="2816" width="6.59765625" style="10" customWidth="1"/>
+    <col min="2817" max="2817" width="5.69921875" style="10" customWidth="1"/>
+    <col min="2818" max="2818" width="8.69921875" style="10" customWidth="1"/>
+    <col min="2819" max="2819" width="8.09765625" style="10"/>
+    <col min="2820" max="2821" width="6.69921875" style="10" customWidth="1"/>
     <col min="2822" max="2822" width="9" style="10" customWidth="1"/>
-    <col min="2823" max="2823" width="6.7109375" style="10" customWidth="1"/>
-    <col min="2824" max="2824" width="13.42578125" style="10" customWidth="1"/>
+    <col min="2823" max="2823" width="6.69921875" style="10" customWidth="1"/>
+    <col min="2824" max="2824" width="13.3984375" style="10" customWidth="1"/>
     <col min="2825" max="2825" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="8.140625" style="10"/>
-    <col min="2827" max="2827" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2828" max="3065" width="8.140625" style="10"/>
-    <col min="3066" max="3066" width="3.140625" style="10" customWidth="1"/>
-    <col min="3067" max="3067" width="7.42578125" style="10" customWidth="1"/>
-    <col min="3068" max="3068" width="20.140625" style="10" customWidth="1"/>
+    <col min="2826" max="2826" width="8.09765625" style="10"/>
+    <col min="2827" max="2827" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2828" max="3065" width="8.09765625" style="10"/>
+    <col min="3066" max="3066" width="3.09765625" style="10" customWidth="1"/>
+    <col min="3067" max="3067" width="7.3984375" style="10" customWidth="1"/>
+    <col min="3068" max="3068" width="20.09765625" style="10" customWidth="1"/>
     <col min="3069" max="3069" width="6" style="10" customWidth="1"/>
-    <col min="3070" max="3070" width="4.85546875" style="10" customWidth="1"/>
+    <col min="3070" max="3070" width="4.8984375" style="10" customWidth="1"/>
     <col min="3071" max="3071" width="4" style="10" customWidth="1"/>
-    <col min="3072" max="3072" width="6.5703125" style="10" customWidth="1"/>
-    <col min="3073" max="3073" width="5.7109375" style="10" customWidth="1"/>
-    <col min="3074" max="3074" width="8.7109375" style="10" customWidth="1"/>
-    <col min="3075" max="3075" width="8.140625" style="10"/>
-    <col min="3076" max="3077" width="6.7109375" style="10" customWidth="1"/>
+    <col min="3072" max="3072" width="6.59765625" style="10" customWidth="1"/>
+    <col min="3073" max="3073" width="5.69921875" style="10" customWidth="1"/>
+    <col min="3074" max="3074" width="8.69921875" style="10" customWidth="1"/>
+    <col min="3075" max="3075" width="8.09765625" style="10"/>
+    <col min="3076" max="3077" width="6.69921875" style="10" customWidth="1"/>
     <col min="3078" max="3078" width="9" style="10" customWidth="1"/>
-    <col min="3079" max="3079" width="6.7109375" style="10" customWidth="1"/>
-    <col min="3080" max="3080" width="13.42578125" style="10" customWidth="1"/>
+    <col min="3079" max="3079" width="6.69921875" style="10" customWidth="1"/>
+    <col min="3080" max="3080" width="13.3984375" style="10" customWidth="1"/>
     <col min="3081" max="3081" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="8.140625" style="10"/>
-    <col min="3083" max="3083" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3321" width="8.140625" style="10"/>
-    <col min="3322" max="3322" width="3.140625" style="10" customWidth="1"/>
-    <col min="3323" max="3323" width="7.42578125" style="10" customWidth="1"/>
-    <col min="3324" max="3324" width="20.140625" style="10" customWidth="1"/>
+    <col min="3082" max="3082" width="8.09765625" style="10"/>
+    <col min="3083" max="3083" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3321" width="8.09765625" style="10"/>
+    <col min="3322" max="3322" width="3.09765625" style="10" customWidth="1"/>
+    <col min="3323" max="3323" width="7.3984375" style="10" customWidth="1"/>
+    <col min="3324" max="3324" width="20.09765625" style="10" customWidth="1"/>
     <col min="3325" max="3325" width="6" style="10" customWidth="1"/>
-    <col min="3326" max="3326" width="4.85546875" style="10" customWidth="1"/>
+    <col min="3326" max="3326" width="4.8984375" style="10" customWidth="1"/>
     <col min="3327" max="3327" width="4" style="10" customWidth="1"/>
-    <col min="3328" max="3328" width="6.5703125" style="10" customWidth="1"/>
-    <col min="3329" max="3329" width="5.7109375" style="10" customWidth="1"/>
-    <col min="3330" max="3330" width="8.7109375" style="10" customWidth="1"/>
-    <col min="3331" max="3331" width="8.140625" style="10"/>
-    <col min="3332" max="3333" width="6.7109375" style="10" customWidth="1"/>
+    <col min="3328" max="3328" width="6.59765625" style="10" customWidth="1"/>
+    <col min="3329" max="3329" width="5.69921875" style="10" customWidth="1"/>
+    <col min="3330" max="3330" width="8.69921875" style="10" customWidth="1"/>
+    <col min="3331" max="3331" width="8.09765625" style="10"/>
+    <col min="3332" max="3333" width="6.69921875" style="10" customWidth="1"/>
     <col min="3334" max="3334" width="9" style="10" customWidth="1"/>
-    <col min="3335" max="3335" width="6.7109375" style="10" customWidth="1"/>
-    <col min="3336" max="3336" width="13.42578125" style="10" customWidth="1"/>
+    <col min="3335" max="3335" width="6.69921875" style="10" customWidth="1"/>
+    <col min="3336" max="3336" width="13.3984375" style="10" customWidth="1"/>
     <col min="3337" max="3337" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="8.140625" style="10"/>
-    <col min="3339" max="3339" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3577" width="8.140625" style="10"/>
-    <col min="3578" max="3578" width="3.140625" style="10" customWidth="1"/>
-    <col min="3579" max="3579" width="7.42578125" style="10" customWidth="1"/>
-    <col min="3580" max="3580" width="20.140625" style="10" customWidth="1"/>
+    <col min="3338" max="3338" width="8.09765625" style="10"/>
+    <col min="3339" max="3339" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3577" width="8.09765625" style="10"/>
+    <col min="3578" max="3578" width="3.09765625" style="10" customWidth="1"/>
+    <col min="3579" max="3579" width="7.3984375" style="10" customWidth="1"/>
+    <col min="3580" max="3580" width="20.09765625" style="10" customWidth="1"/>
     <col min="3581" max="3581" width="6" style="10" customWidth="1"/>
-    <col min="3582" max="3582" width="4.85546875" style="10" customWidth="1"/>
+    <col min="3582" max="3582" width="4.8984375" style="10" customWidth="1"/>
     <col min="3583" max="3583" width="4" style="10" customWidth="1"/>
-    <col min="3584" max="3584" width="6.5703125" style="10" customWidth="1"/>
-    <col min="3585" max="3585" width="5.7109375" style="10" customWidth="1"/>
-    <col min="3586" max="3586" width="8.7109375" style="10" customWidth="1"/>
-    <col min="3587" max="3587" width="8.140625" style="10"/>
-    <col min="3588" max="3589" width="6.7109375" style="10" customWidth="1"/>
+    <col min="3584" max="3584" width="6.59765625" style="10" customWidth="1"/>
+    <col min="3585" max="3585" width="5.69921875" style="10" customWidth="1"/>
+    <col min="3586" max="3586" width="8.69921875" style="10" customWidth="1"/>
+    <col min="3587" max="3587" width="8.09765625" style="10"/>
+    <col min="3588" max="3589" width="6.69921875" style="10" customWidth="1"/>
     <col min="3590" max="3590" width="9" style="10" customWidth="1"/>
-    <col min="3591" max="3591" width="6.7109375" style="10" customWidth="1"/>
-    <col min="3592" max="3592" width="13.42578125" style="10" customWidth="1"/>
+    <col min="3591" max="3591" width="6.69921875" style="10" customWidth="1"/>
+    <col min="3592" max="3592" width="13.3984375" style="10" customWidth="1"/>
     <col min="3593" max="3593" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="8.140625" style="10"/>
-    <col min="3595" max="3595" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3833" width="8.140625" style="10"/>
-    <col min="3834" max="3834" width="3.140625" style="10" customWidth="1"/>
-    <col min="3835" max="3835" width="7.42578125" style="10" customWidth="1"/>
-    <col min="3836" max="3836" width="20.140625" style="10" customWidth="1"/>
+    <col min="3594" max="3594" width="8.09765625" style="10"/>
+    <col min="3595" max="3595" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3833" width="8.09765625" style="10"/>
+    <col min="3834" max="3834" width="3.09765625" style="10" customWidth="1"/>
+    <col min="3835" max="3835" width="7.3984375" style="10" customWidth="1"/>
+    <col min="3836" max="3836" width="20.09765625" style="10" customWidth="1"/>
     <col min="3837" max="3837" width="6" style="10" customWidth="1"/>
-    <col min="3838" max="3838" width="4.85546875" style="10" customWidth="1"/>
+    <col min="3838" max="3838" width="4.8984375" style="10" customWidth="1"/>
     <col min="3839" max="3839" width="4" style="10" customWidth="1"/>
-    <col min="3840" max="3840" width="6.5703125" style="10" customWidth="1"/>
-    <col min="3841" max="3841" width="5.7109375" style="10" customWidth="1"/>
-    <col min="3842" max="3842" width="8.7109375" style="10" customWidth="1"/>
-    <col min="3843" max="3843" width="8.140625" style="10"/>
-    <col min="3844" max="3845" width="6.7109375" style="10" customWidth="1"/>
+    <col min="3840" max="3840" width="6.59765625" style="10" customWidth="1"/>
+    <col min="3841" max="3841" width="5.69921875" style="10" customWidth="1"/>
+    <col min="3842" max="3842" width="8.69921875" style="10" customWidth="1"/>
+    <col min="3843" max="3843" width="8.09765625" style="10"/>
+    <col min="3844" max="3845" width="6.69921875" style="10" customWidth="1"/>
     <col min="3846" max="3846" width="9" style="10" customWidth="1"/>
-    <col min="3847" max="3847" width="6.7109375" style="10" customWidth="1"/>
-    <col min="3848" max="3848" width="13.42578125" style="10" customWidth="1"/>
+    <col min="3847" max="3847" width="6.69921875" style="10" customWidth="1"/>
+    <col min="3848" max="3848" width="13.3984375" style="10" customWidth="1"/>
     <col min="3849" max="3849" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="8.140625" style="10"/>
-    <col min="3851" max="3851" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3852" max="4089" width="8.140625" style="10"/>
-    <col min="4090" max="4090" width="3.140625" style="10" customWidth="1"/>
-    <col min="4091" max="4091" width="7.42578125" style="10" customWidth="1"/>
-    <col min="4092" max="4092" width="20.140625" style="10" customWidth="1"/>
+    <col min="3850" max="3850" width="8.09765625" style="10"/>
+    <col min="3851" max="3851" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3852" max="4089" width="8.09765625" style="10"/>
+    <col min="4090" max="4090" width="3.09765625" style="10" customWidth="1"/>
+    <col min="4091" max="4091" width="7.3984375" style="10" customWidth="1"/>
+    <col min="4092" max="4092" width="20.09765625" style="10" customWidth="1"/>
     <col min="4093" max="4093" width="6" style="10" customWidth="1"/>
-    <col min="4094" max="4094" width="4.85546875" style="10" customWidth="1"/>
+    <col min="4094" max="4094" width="4.8984375" style="10" customWidth="1"/>
     <col min="4095" max="4095" width="4" style="10" customWidth="1"/>
-    <col min="4096" max="4096" width="6.5703125" style="10" customWidth="1"/>
-    <col min="4097" max="4097" width="5.7109375" style="10" customWidth="1"/>
-    <col min="4098" max="4098" width="8.7109375" style="10" customWidth="1"/>
-    <col min="4099" max="4099" width="8.140625" style="10"/>
-    <col min="4100" max="4101" width="6.7109375" style="10" customWidth="1"/>
+    <col min="4096" max="4096" width="6.59765625" style="10" customWidth="1"/>
+    <col min="4097" max="4097" width="5.69921875" style="10" customWidth="1"/>
+    <col min="4098" max="4098" width="8.69921875" style="10" customWidth="1"/>
+    <col min="4099" max="4099" width="8.09765625" style="10"/>
+    <col min="4100" max="4101" width="6.69921875" style="10" customWidth="1"/>
     <col min="4102" max="4102" width="9" style="10" customWidth="1"/>
-    <col min="4103" max="4103" width="6.7109375" style="10" customWidth="1"/>
-    <col min="4104" max="4104" width="13.42578125" style="10" customWidth="1"/>
+    <col min="4103" max="4103" width="6.69921875" style="10" customWidth="1"/>
+    <col min="4104" max="4104" width="13.3984375" style="10" customWidth="1"/>
     <col min="4105" max="4105" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="8.140625" style="10"/>
-    <col min="4107" max="4107" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4345" width="8.140625" style="10"/>
-    <col min="4346" max="4346" width="3.140625" style="10" customWidth="1"/>
-    <col min="4347" max="4347" width="7.42578125" style="10" customWidth="1"/>
-    <col min="4348" max="4348" width="20.140625" style="10" customWidth="1"/>
+    <col min="4106" max="4106" width="8.09765625" style="10"/>
+    <col min="4107" max="4107" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4345" width="8.09765625" style="10"/>
+    <col min="4346" max="4346" width="3.09765625" style="10" customWidth="1"/>
+    <col min="4347" max="4347" width="7.3984375" style="10" customWidth="1"/>
+    <col min="4348" max="4348" width="20.09765625" style="10" customWidth="1"/>
     <col min="4349" max="4349" width="6" style="10" customWidth="1"/>
-    <col min="4350" max="4350" width="4.85546875" style="10" customWidth="1"/>
+    <col min="4350" max="4350" width="4.8984375" style="10" customWidth="1"/>
     <col min="4351" max="4351" width="4" style="10" customWidth="1"/>
-    <col min="4352" max="4352" width="6.5703125" style="10" customWidth="1"/>
-    <col min="4353" max="4353" width="5.7109375" style="10" customWidth="1"/>
-    <col min="4354" max="4354" width="8.7109375" style="10" customWidth="1"/>
-    <col min="4355" max="4355" width="8.140625" style="10"/>
-    <col min="4356" max="4357" width="6.7109375" style="10" customWidth="1"/>
+    <col min="4352" max="4352" width="6.59765625" style="10" customWidth="1"/>
+    <col min="4353" max="4353" width="5.69921875" style="10" customWidth="1"/>
+    <col min="4354" max="4354" width="8.69921875" style="10" customWidth="1"/>
+    <col min="4355" max="4355" width="8.09765625" style="10"/>
+    <col min="4356" max="4357" width="6.69921875" style="10" customWidth="1"/>
     <col min="4358" max="4358" width="9" style="10" customWidth="1"/>
-    <col min="4359" max="4359" width="6.7109375" style="10" customWidth="1"/>
-    <col min="4360" max="4360" width="13.42578125" style="10" customWidth="1"/>
+    <col min="4359" max="4359" width="6.69921875" style="10" customWidth="1"/>
+    <col min="4360" max="4360" width="13.3984375" style="10" customWidth="1"/>
     <col min="4361" max="4361" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="8.140625" style="10"/>
-    <col min="4363" max="4363" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4601" width="8.140625" style="10"/>
-    <col min="4602" max="4602" width="3.140625" style="10" customWidth="1"/>
-    <col min="4603" max="4603" width="7.42578125" style="10" customWidth="1"/>
-    <col min="4604" max="4604" width="20.140625" style="10" customWidth="1"/>
+    <col min="4362" max="4362" width="8.09765625" style="10"/>
+    <col min="4363" max="4363" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4601" width="8.09765625" style="10"/>
+    <col min="4602" max="4602" width="3.09765625" style="10" customWidth="1"/>
+    <col min="4603" max="4603" width="7.3984375" style="10" customWidth="1"/>
+    <col min="4604" max="4604" width="20.09765625" style="10" customWidth="1"/>
     <col min="4605" max="4605" width="6" style="10" customWidth="1"/>
-    <col min="4606" max="4606" width="4.85546875" style="10" customWidth="1"/>
+    <col min="4606" max="4606" width="4.8984375" style="10" customWidth="1"/>
     <col min="4607" max="4607" width="4" style="10" customWidth="1"/>
-    <col min="4608" max="4608" width="6.5703125" style="10" customWidth="1"/>
-    <col min="4609" max="4609" width="5.7109375" style="10" customWidth="1"/>
-    <col min="4610" max="4610" width="8.7109375" style="10" customWidth="1"/>
-    <col min="4611" max="4611" width="8.140625" style="10"/>
-    <col min="4612" max="4613" width="6.7109375" style="10" customWidth="1"/>
+    <col min="4608" max="4608" width="6.59765625" style="10" customWidth="1"/>
+    <col min="4609" max="4609" width="5.69921875" style="10" customWidth="1"/>
+    <col min="4610" max="4610" width="8.69921875" style="10" customWidth="1"/>
+    <col min="4611" max="4611" width="8.09765625" style="10"/>
+    <col min="4612" max="4613" width="6.69921875" style="10" customWidth="1"/>
     <col min="4614" max="4614" width="9" style="10" customWidth="1"/>
-    <col min="4615" max="4615" width="6.7109375" style="10" customWidth="1"/>
-    <col min="4616" max="4616" width="13.42578125" style="10" customWidth="1"/>
+    <col min="4615" max="4615" width="6.69921875" style="10" customWidth="1"/>
+    <col min="4616" max="4616" width="13.3984375" style="10" customWidth="1"/>
     <col min="4617" max="4617" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="8.140625" style="10"/>
-    <col min="4619" max="4619" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4857" width="8.140625" style="10"/>
-    <col min="4858" max="4858" width="3.140625" style="10" customWidth="1"/>
-    <col min="4859" max="4859" width="7.42578125" style="10" customWidth="1"/>
-    <col min="4860" max="4860" width="20.140625" style="10" customWidth="1"/>
+    <col min="4618" max="4618" width="8.09765625" style="10"/>
+    <col min="4619" max="4619" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4857" width="8.09765625" style="10"/>
+    <col min="4858" max="4858" width="3.09765625" style="10" customWidth="1"/>
+    <col min="4859" max="4859" width="7.3984375" style="10" customWidth="1"/>
+    <col min="4860" max="4860" width="20.09765625" style="10" customWidth="1"/>
     <col min="4861" max="4861" width="6" style="10" customWidth="1"/>
-    <col min="4862" max="4862" width="4.85546875" style="10" customWidth="1"/>
+    <col min="4862" max="4862" width="4.8984375" style="10" customWidth="1"/>
     <col min="4863" max="4863" width="4" style="10" customWidth="1"/>
-    <col min="4864" max="4864" width="6.5703125" style="10" customWidth="1"/>
-    <col min="4865" max="4865" width="5.7109375" style="10" customWidth="1"/>
-    <col min="4866" max="4866" width="8.7109375" style="10" customWidth="1"/>
-    <col min="4867" max="4867" width="8.140625" style="10"/>
-    <col min="4868" max="4869" width="6.7109375" style="10" customWidth="1"/>
+    <col min="4864" max="4864" width="6.59765625" style="10" customWidth="1"/>
+    <col min="4865" max="4865" width="5.69921875" style="10" customWidth="1"/>
+    <col min="4866" max="4866" width="8.69921875" style="10" customWidth="1"/>
+    <col min="4867" max="4867" width="8.09765625" style="10"/>
+    <col min="4868" max="4869" width="6.69921875" style="10" customWidth="1"/>
     <col min="4870" max="4870" width="9" style="10" customWidth="1"/>
-    <col min="4871" max="4871" width="6.7109375" style="10" customWidth="1"/>
-    <col min="4872" max="4872" width="13.42578125" style="10" customWidth="1"/>
+    <col min="4871" max="4871" width="6.69921875" style="10" customWidth="1"/>
+    <col min="4872" max="4872" width="13.3984375" style="10" customWidth="1"/>
     <col min="4873" max="4873" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="8.140625" style="10"/>
-    <col min="4875" max="4875" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4876" max="5113" width="8.140625" style="10"/>
-    <col min="5114" max="5114" width="3.140625" style="10" customWidth="1"/>
-    <col min="5115" max="5115" width="7.42578125" style="10" customWidth="1"/>
-    <col min="5116" max="5116" width="20.140625" style="10" customWidth="1"/>
+    <col min="4874" max="4874" width="8.09765625" style="10"/>
+    <col min="4875" max="4875" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4876" max="5113" width="8.09765625" style="10"/>
+    <col min="5114" max="5114" width="3.09765625" style="10" customWidth="1"/>
+    <col min="5115" max="5115" width="7.3984375" style="10" customWidth="1"/>
+    <col min="5116" max="5116" width="20.09765625" style="10" customWidth="1"/>
     <col min="5117" max="5117" width="6" style="10" customWidth="1"/>
-    <col min="5118" max="5118" width="4.85546875" style="10" customWidth="1"/>
+    <col min="5118" max="5118" width="4.8984375" style="10" customWidth="1"/>
     <col min="5119" max="5119" width="4" style="10" customWidth="1"/>
-    <col min="5120" max="5120" width="6.5703125" style="10" customWidth="1"/>
-    <col min="5121" max="5121" width="5.7109375" style="10" customWidth="1"/>
-    <col min="5122" max="5122" width="8.7109375" style="10" customWidth="1"/>
-    <col min="5123" max="5123" width="8.140625" style="10"/>
-    <col min="5124" max="5125" width="6.7109375" style="10" customWidth="1"/>
+    <col min="5120" max="5120" width="6.59765625" style="10" customWidth="1"/>
+    <col min="5121" max="5121" width="5.69921875" style="10" customWidth="1"/>
+    <col min="5122" max="5122" width="8.69921875" style="10" customWidth="1"/>
+    <col min="5123" max="5123" width="8.09765625" style="10"/>
+    <col min="5124" max="5125" width="6.69921875" style="10" customWidth="1"/>
     <col min="5126" max="5126" width="9" style="10" customWidth="1"/>
-    <col min="5127" max="5127" width="6.7109375" style="10" customWidth="1"/>
-    <col min="5128" max="5128" width="13.42578125" style="10" customWidth="1"/>
+    <col min="5127" max="5127" width="6.69921875" style="10" customWidth="1"/>
+    <col min="5128" max="5128" width="13.3984375" style="10" customWidth="1"/>
     <col min="5129" max="5129" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="8.140625" style="10"/>
-    <col min="5131" max="5131" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5369" width="8.140625" style="10"/>
-    <col min="5370" max="5370" width="3.140625" style="10" customWidth="1"/>
-    <col min="5371" max="5371" width="7.42578125" style="10" customWidth="1"/>
-    <col min="5372" max="5372" width="20.140625" style="10" customWidth="1"/>
+    <col min="5130" max="5130" width="8.09765625" style="10"/>
+    <col min="5131" max="5131" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5369" width="8.09765625" style="10"/>
+    <col min="5370" max="5370" width="3.09765625" style="10" customWidth="1"/>
+    <col min="5371" max="5371" width="7.3984375" style="10" customWidth="1"/>
+    <col min="5372" max="5372" width="20.09765625" style="10" customWidth="1"/>
     <col min="5373" max="5373" width="6" style="10" customWidth="1"/>
-    <col min="5374" max="5374" width="4.85546875" style="10" customWidth="1"/>
+    <col min="5374" max="5374" width="4.8984375" style="10" customWidth="1"/>
     <col min="5375" max="5375" width="4" style="10" customWidth="1"/>
-    <col min="5376" max="5376" width="6.5703125" style="10" customWidth="1"/>
-    <col min="5377" max="5377" width="5.7109375" style="10" customWidth="1"/>
-    <col min="5378" max="5378" width="8.7109375" style="10" customWidth="1"/>
-    <col min="5379" max="5379" width="8.140625" style="10"/>
-    <col min="5380" max="5381" width="6.7109375" style="10" customWidth="1"/>
+    <col min="5376" max="5376" width="6.59765625" style="10" customWidth="1"/>
+    <col min="5377" max="5377" width="5.69921875" style="10" customWidth="1"/>
+    <col min="5378" max="5378" width="8.69921875" style="10" customWidth="1"/>
+    <col min="5379" max="5379" width="8.09765625" style="10"/>
+    <col min="5380" max="5381" width="6.69921875" style="10" customWidth="1"/>
     <col min="5382" max="5382" width="9" style="10" customWidth="1"/>
-    <col min="5383" max="5383" width="6.7109375" style="10" customWidth="1"/>
-    <col min="5384" max="5384" width="13.42578125" style="10" customWidth="1"/>
+    <col min="5383" max="5383" width="6.69921875" style="10" customWidth="1"/>
+    <col min="5384" max="5384" width="13.3984375" style="10" customWidth="1"/>
     <col min="5385" max="5385" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="8.140625" style="10"/>
-    <col min="5387" max="5387" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5625" width="8.140625" style="10"/>
-    <col min="5626" max="5626" width="3.140625" style="10" customWidth="1"/>
-    <col min="5627" max="5627" width="7.42578125" style="10" customWidth="1"/>
-    <col min="5628" max="5628" width="20.140625" style="10" customWidth="1"/>
+    <col min="5386" max="5386" width="8.09765625" style="10"/>
+    <col min="5387" max="5387" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5625" width="8.09765625" style="10"/>
+    <col min="5626" max="5626" width="3.09765625" style="10" customWidth="1"/>
+    <col min="5627" max="5627" width="7.3984375" style="10" customWidth="1"/>
+    <col min="5628" max="5628" width="20.09765625" style="10" customWidth="1"/>
     <col min="5629" max="5629" width="6" style="10" customWidth="1"/>
-    <col min="5630" max="5630" width="4.85546875" style="10" customWidth="1"/>
+    <col min="5630" max="5630" width="4.8984375" style="10" customWidth="1"/>
     <col min="5631" max="5631" width="4" style="10" customWidth="1"/>
-    <col min="5632" max="5632" width="6.5703125" style="10" customWidth="1"/>
-    <col min="5633" max="5633" width="5.7109375" style="10" customWidth="1"/>
-    <col min="5634" max="5634" width="8.7109375" style="10" customWidth="1"/>
-    <col min="5635" max="5635" width="8.140625" style="10"/>
-    <col min="5636" max="5637" width="6.7109375" style="10" customWidth="1"/>
+    <col min="5632" max="5632" width="6.59765625" style="10" customWidth="1"/>
+    <col min="5633" max="5633" width="5.69921875" style="10" customWidth="1"/>
+    <col min="5634" max="5634" width="8.69921875" style="10" customWidth="1"/>
+    <col min="5635" max="5635" width="8.09765625" style="10"/>
+    <col min="5636" max="5637" width="6.69921875" style="10" customWidth="1"/>
     <col min="5638" max="5638" width="9" style="10" customWidth="1"/>
-    <col min="5639" max="5639" width="6.7109375" style="10" customWidth="1"/>
-    <col min="5640" max="5640" width="13.42578125" style="10" customWidth="1"/>
+    <col min="5639" max="5639" width="6.69921875" style="10" customWidth="1"/>
+    <col min="5640" max="5640" width="13.3984375" style="10" customWidth="1"/>
     <col min="5641" max="5641" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="8.140625" style="10"/>
-    <col min="5643" max="5643" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5881" width="8.140625" style="10"/>
-    <col min="5882" max="5882" width="3.140625" style="10" customWidth="1"/>
-    <col min="5883" max="5883" width="7.42578125" style="10" customWidth="1"/>
-    <col min="5884" max="5884" width="20.140625" style="10" customWidth="1"/>
+    <col min="5642" max="5642" width="8.09765625" style="10"/>
+    <col min="5643" max="5643" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5881" width="8.09765625" style="10"/>
+    <col min="5882" max="5882" width="3.09765625" style="10" customWidth="1"/>
+    <col min="5883" max="5883" width="7.3984375" style="10" customWidth="1"/>
+    <col min="5884" max="5884" width="20.09765625" style="10" customWidth="1"/>
     <col min="5885" max="5885" width="6" style="10" customWidth="1"/>
-    <col min="5886" max="5886" width="4.85546875" style="10" customWidth="1"/>
+    <col min="5886" max="5886" width="4.8984375" style="10" customWidth="1"/>
     <col min="5887" max="5887" width="4" style="10" customWidth="1"/>
-    <col min="5888" max="5888" width="6.5703125" style="10" customWidth="1"/>
-    <col min="5889" max="5889" width="5.7109375" style="10" customWidth="1"/>
-    <col min="5890" max="5890" width="8.7109375" style="10" customWidth="1"/>
-    <col min="5891" max="5891" width="8.140625" style="10"/>
-    <col min="5892" max="5893" width="6.7109375" style="10" customWidth="1"/>
+    <col min="5888" max="5888" width="6.59765625" style="10" customWidth="1"/>
+    <col min="5889" max="5889" width="5.69921875" style="10" customWidth="1"/>
+    <col min="5890" max="5890" width="8.69921875" style="10" customWidth="1"/>
+    <col min="5891" max="5891" width="8.09765625" style="10"/>
+    <col min="5892" max="5893" width="6.69921875" style="10" customWidth="1"/>
     <col min="5894" max="5894" width="9" style="10" customWidth="1"/>
-    <col min="5895" max="5895" width="6.7109375" style="10" customWidth="1"/>
-    <col min="5896" max="5896" width="13.42578125" style="10" customWidth="1"/>
+    <col min="5895" max="5895" width="6.69921875" style="10" customWidth="1"/>
+    <col min="5896" max="5896" width="13.3984375" style="10" customWidth="1"/>
     <col min="5897" max="5897" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="8.140625" style="10"/>
-    <col min="5899" max="5899" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5900" max="6137" width="8.140625" style="10"/>
-    <col min="6138" max="6138" width="3.140625" style="10" customWidth="1"/>
-    <col min="6139" max="6139" width="7.42578125" style="10" customWidth="1"/>
-    <col min="6140" max="6140" width="20.140625" style="10" customWidth="1"/>
+    <col min="5898" max="5898" width="8.09765625" style="10"/>
+    <col min="5899" max="5899" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5900" max="6137" width="8.09765625" style="10"/>
+    <col min="6138" max="6138" width="3.09765625" style="10" customWidth="1"/>
+    <col min="6139" max="6139" width="7.3984375" style="10" customWidth="1"/>
+    <col min="6140" max="6140" width="20.09765625" style="10" customWidth="1"/>
     <col min="6141" max="6141" width="6" style="10" customWidth="1"/>
-    <col min="6142" max="6142" width="4.85546875" style="10" customWidth="1"/>
+    <col min="6142" max="6142" width="4.8984375" style="10" customWidth="1"/>
     <col min="6143" max="6143" width="4" style="10" customWidth="1"/>
-    <col min="6144" max="6144" width="6.5703125" style="10" customWidth="1"/>
-    <col min="6145" max="6145" width="5.7109375" style="10" customWidth="1"/>
-    <col min="6146" max="6146" width="8.7109375" style="10" customWidth="1"/>
-    <col min="6147" max="6147" width="8.140625" style="10"/>
-    <col min="6148" max="6149" width="6.7109375" style="10" customWidth="1"/>
+    <col min="6144" max="6144" width="6.59765625" style="10" customWidth="1"/>
+    <col min="6145" max="6145" width="5.69921875" style="10" customWidth="1"/>
+    <col min="6146" max="6146" width="8.69921875" style="10" customWidth="1"/>
+    <col min="6147" max="6147" width="8.09765625" style="10"/>
+    <col min="6148" max="6149" width="6.69921875" style="10" customWidth="1"/>
     <col min="6150" max="6150" width="9" style="10" customWidth="1"/>
-    <col min="6151" max="6151" width="6.7109375" style="10" customWidth="1"/>
-    <col min="6152" max="6152" width="13.42578125" style="10" customWidth="1"/>
+    <col min="6151" max="6151" width="6.69921875" style="10" customWidth="1"/>
+    <col min="6152" max="6152" width="13.3984375" style="10" customWidth="1"/>
     <col min="6153" max="6153" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="8.140625" style="10"/>
-    <col min="6155" max="6155" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6393" width="8.140625" style="10"/>
-    <col min="6394" max="6394" width="3.140625" style="10" customWidth="1"/>
-    <col min="6395" max="6395" width="7.42578125" style="10" customWidth="1"/>
-    <col min="6396" max="6396" width="20.140625" style="10" customWidth="1"/>
+    <col min="6154" max="6154" width="8.09765625" style="10"/>
+    <col min="6155" max="6155" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6393" width="8.09765625" style="10"/>
+    <col min="6394" max="6394" width="3.09765625" style="10" customWidth="1"/>
+    <col min="6395" max="6395" width="7.3984375" style="10" customWidth="1"/>
+    <col min="6396" max="6396" width="20.09765625" style="10" customWidth="1"/>
     <col min="6397" max="6397" width="6" style="10" customWidth="1"/>
-    <col min="6398" max="6398" width="4.85546875" style="10" customWidth="1"/>
+    <col min="6398" max="6398" width="4.8984375" style="10" customWidth="1"/>
     <col min="6399" max="6399" width="4" style="10" customWidth="1"/>
-    <col min="6400" max="6400" width="6.5703125" style="10" customWidth="1"/>
-    <col min="6401" max="6401" width="5.7109375" style="10" customWidth="1"/>
-    <col min="6402" max="6402" width="8.7109375" style="10" customWidth="1"/>
-    <col min="6403" max="6403" width="8.140625" style="10"/>
-    <col min="6404" max="6405" width="6.7109375" style="10" customWidth="1"/>
+    <col min="6400" max="6400" width="6.59765625" style="10" customWidth="1"/>
+    <col min="6401" max="6401" width="5.69921875" style="10" customWidth="1"/>
+    <col min="6402" max="6402" width="8.69921875" style="10" customWidth="1"/>
+    <col min="6403" max="6403" width="8.09765625" style="10"/>
+    <col min="6404" max="6405" width="6.69921875" style="10" customWidth="1"/>
     <col min="6406" max="6406" width="9" style="10" customWidth="1"/>
-    <col min="6407" max="6407" width="6.7109375" style="10" customWidth="1"/>
-    <col min="6408" max="6408" width="13.42578125" style="10" customWidth="1"/>
+    <col min="6407" max="6407" width="6.69921875" style="10" customWidth="1"/>
+    <col min="6408" max="6408" width="13.3984375" style="10" customWidth="1"/>
     <col min="6409" max="6409" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="8.140625" style="10"/>
-    <col min="6411" max="6411" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6649" width="8.140625" style="10"/>
-    <col min="6650" max="6650" width="3.140625" style="10" customWidth="1"/>
-    <col min="6651" max="6651" width="7.42578125" style="10" customWidth="1"/>
-    <col min="6652" max="6652" width="20.140625" style="10" customWidth="1"/>
+    <col min="6410" max="6410" width="8.09765625" style="10"/>
+    <col min="6411" max="6411" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6649" width="8.09765625" style="10"/>
+    <col min="6650" max="6650" width="3.09765625" style="10" customWidth="1"/>
+    <col min="6651" max="6651" width="7.3984375" style="10" customWidth="1"/>
+    <col min="6652" max="6652" width="20.09765625" style="10" customWidth="1"/>
     <col min="6653" max="6653" width="6" style="10" customWidth="1"/>
-    <col min="6654" max="6654" width="4.85546875" style="10" customWidth="1"/>
+    <col min="6654" max="6654" width="4.8984375" style="10" customWidth="1"/>
     <col min="6655" max="6655" width="4" style="10" customWidth="1"/>
-    <col min="6656" max="6656" width="6.5703125" style="10" customWidth="1"/>
-    <col min="6657" max="6657" width="5.7109375" style="10" customWidth="1"/>
-    <col min="6658" max="6658" width="8.7109375" style="10" customWidth="1"/>
-    <col min="6659" max="6659" width="8.140625" style="10"/>
-    <col min="6660" max="6661" width="6.7109375" style="10" customWidth="1"/>
+    <col min="6656" max="6656" width="6.59765625" style="10" customWidth="1"/>
+    <col min="6657" max="6657" width="5.69921875" style="10" customWidth="1"/>
+    <col min="6658" max="6658" width="8.69921875" style="10" customWidth="1"/>
+    <col min="6659" max="6659" width="8.09765625" style="10"/>
+    <col min="6660" max="6661" width="6.69921875" style="10" customWidth="1"/>
     <col min="6662" max="6662" width="9" style="10" customWidth="1"/>
-    <col min="6663" max="6663" width="6.7109375" style="10" customWidth="1"/>
-    <col min="6664" max="6664" width="13.42578125" style="10" customWidth="1"/>
+    <col min="6663" max="6663" width="6.69921875" style="10" customWidth="1"/>
+    <col min="6664" max="6664" width="13.3984375" style="10" customWidth="1"/>
     <col min="6665" max="6665" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="8.140625" style="10"/>
-    <col min="6667" max="6667" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6905" width="8.140625" style="10"/>
-    <col min="6906" max="6906" width="3.140625" style="10" customWidth="1"/>
-    <col min="6907" max="6907" width="7.42578125" style="10" customWidth="1"/>
-    <col min="6908" max="6908" width="20.140625" style="10" customWidth="1"/>
+    <col min="6666" max="6666" width="8.09765625" style="10"/>
+    <col min="6667" max="6667" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6905" width="8.09765625" style="10"/>
+    <col min="6906" max="6906" width="3.09765625" style="10" customWidth="1"/>
+    <col min="6907" max="6907" width="7.3984375" style="10" customWidth="1"/>
+    <col min="6908" max="6908" width="20.09765625" style="10" customWidth="1"/>
     <col min="6909" max="6909" width="6" style="10" customWidth="1"/>
-    <col min="6910" max="6910" width="4.85546875" style="10" customWidth="1"/>
+    <col min="6910" max="6910" width="4.8984375" style="10" customWidth="1"/>
     <col min="6911" max="6911" width="4" style="10" customWidth="1"/>
-    <col min="6912" max="6912" width="6.5703125" style="10" customWidth="1"/>
-    <col min="6913" max="6913" width="5.7109375" style="10" customWidth="1"/>
-    <col min="6914" max="6914" width="8.7109375" style="10" customWidth="1"/>
-    <col min="6915" max="6915" width="8.140625" style="10"/>
-    <col min="6916" max="6917" width="6.7109375" style="10" customWidth="1"/>
+    <col min="6912" max="6912" width="6.59765625" style="10" customWidth="1"/>
+    <col min="6913" max="6913" width="5.69921875" style="10" customWidth="1"/>
+    <col min="6914" max="6914" width="8.69921875" style="10" customWidth="1"/>
+    <col min="6915" max="6915" width="8.09765625" style="10"/>
+    <col min="6916" max="6917" width="6.69921875" style="10" customWidth="1"/>
     <col min="6918" max="6918" width="9" style="10" customWidth="1"/>
-    <col min="6919" max="6919" width="6.7109375" style="10" customWidth="1"/>
-    <col min="6920" max="6920" width="13.42578125" style="10" customWidth="1"/>
+    <col min="6919" max="6919" width="6.69921875" style="10" customWidth="1"/>
+    <col min="6920" max="6920" width="13.3984375" style="10" customWidth="1"/>
     <col min="6921" max="6921" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="8.140625" style="10"/>
-    <col min="6923" max="6923" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6924" max="7161" width="8.140625" style="10"/>
-    <col min="7162" max="7162" width="3.140625" style="10" customWidth="1"/>
-    <col min="7163" max="7163" width="7.42578125" style="10" customWidth="1"/>
-    <col min="7164" max="7164" width="20.140625" style="10" customWidth="1"/>
+    <col min="6922" max="6922" width="8.09765625" style="10"/>
+    <col min="6923" max="6923" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6924" max="7161" width="8.09765625" style="10"/>
+    <col min="7162" max="7162" width="3.09765625" style="10" customWidth="1"/>
+    <col min="7163" max="7163" width="7.3984375" style="10" customWidth="1"/>
+    <col min="7164" max="7164" width="20.09765625" style="10" customWidth="1"/>
     <col min="7165" max="7165" width="6" style="10" customWidth="1"/>
-    <col min="7166" max="7166" width="4.85546875" style="10" customWidth="1"/>
+    <col min="7166" max="7166" width="4.8984375" style="10" customWidth="1"/>
     <col min="7167" max="7167" width="4" style="10" customWidth="1"/>
-    <col min="7168" max="7168" width="6.5703125" style="10" customWidth="1"/>
-    <col min="7169" max="7169" width="5.7109375" style="10" customWidth="1"/>
-    <col min="7170" max="7170" width="8.7109375" style="10" customWidth="1"/>
-    <col min="7171" max="7171" width="8.140625" style="10"/>
-    <col min="7172" max="7173" width="6.7109375" style="10" customWidth="1"/>
+    <col min="7168" max="7168" width="6.59765625" style="10" customWidth="1"/>
+    <col min="7169" max="7169" width="5.69921875" style="10" customWidth="1"/>
+    <col min="7170" max="7170" width="8.69921875" style="10" customWidth="1"/>
+    <col min="7171" max="7171" width="8.09765625" style="10"/>
+    <col min="7172" max="7173" width="6.69921875" style="10" customWidth="1"/>
     <col min="7174" max="7174" width="9" style="10" customWidth="1"/>
-    <col min="7175" max="7175" width="6.7109375" style="10" customWidth="1"/>
-    <col min="7176" max="7176" width="13.42578125" style="10" customWidth="1"/>
+    <col min="7175" max="7175" width="6.69921875" style="10" customWidth="1"/>
+    <col min="7176" max="7176" width="13.3984375" style="10" customWidth="1"/>
     <col min="7177" max="7177" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="8.140625" style="10"/>
-    <col min="7179" max="7179" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7417" width="8.140625" style="10"/>
-    <col min="7418" max="7418" width="3.140625" style="10" customWidth="1"/>
-    <col min="7419" max="7419" width="7.42578125" style="10" customWidth="1"/>
-    <col min="7420" max="7420" width="20.140625" style="10" customWidth="1"/>
+    <col min="7178" max="7178" width="8.09765625" style="10"/>
+    <col min="7179" max="7179" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7417" width="8.09765625" style="10"/>
+    <col min="7418" max="7418" width="3.09765625" style="10" customWidth="1"/>
+    <col min="7419" max="7419" width="7.3984375" style="10" customWidth="1"/>
+    <col min="7420" max="7420" width="20.09765625" style="10" customWidth="1"/>
     <col min="7421" max="7421" width="6" style="10" customWidth="1"/>
-    <col min="7422" max="7422" width="4.85546875" style="10" customWidth="1"/>
+    <col min="7422" max="7422" width="4.8984375" style="10" customWidth="1"/>
     <col min="7423" max="7423" width="4" style="10" customWidth="1"/>
-    <col min="7424" max="7424" width="6.5703125" style="10" customWidth="1"/>
-    <col min="7425" max="7425" width="5.7109375" style="10" customWidth="1"/>
-    <col min="7426" max="7426" width="8.7109375" style="10" customWidth="1"/>
-    <col min="7427" max="7427" width="8.140625" style="10"/>
-    <col min="7428" max="7429" width="6.7109375" style="10" customWidth="1"/>
+    <col min="7424" max="7424" width="6.59765625" style="10" customWidth="1"/>
+    <col min="7425" max="7425" width="5.69921875" style="10" customWidth="1"/>
+    <col min="7426" max="7426" width="8.69921875" style="10" customWidth="1"/>
+    <col min="7427" max="7427" width="8.09765625" style="10"/>
+    <col min="7428" max="7429" width="6.69921875" style="10" customWidth="1"/>
     <col min="7430" max="7430" width="9" style="10" customWidth="1"/>
-    <col min="7431" max="7431" width="6.7109375" style="10" customWidth="1"/>
-    <col min="7432" max="7432" width="13.42578125" style="10" customWidth="1"/>
+    <col min="7431" max="7431" width="6.69921875" style="10" customWidth="1"/>
+    <col min="7432" max="7432" width="13.3984375" style="10" customWidth="1"/>
     <col min="7433" max="7433" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="8.140625" style="10"/>
-    <col min="7435" max="7435" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7673" width="8.140625" style="10"/>
-    <col min="7674" max="7674" width="3.140625" style="10" customWidth="1"/>
-    <col min="7675" max="7675" width="7.42578125" style="10" customWidth="1"/>
-    <col min="7676" max="7676" width="20.140625" style="10" customWidth="1"/>
+    <col min="7434" max="7434" width="8.09765625" style="10"/>
+    <col min="7435" max="7435" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7673" width="8.09765625" style="10"/>
+    <col min="7674" max="7674" width="3.09765625" style="10" customWidth="1"/>
+    <col min="7675" max="7675" width="7.3984375" style="10" customWidth="1"/>
+    <col min="7676" max="7676" width="20.09765625" style="10" customWidth="1"/>
     <col min="7677" max="7677" width="6" style="10" customWidth="1"/>
-    <col min="7678" max="7678" width="4.85546875" style="10" customWidth="1"/>
+    <col min="7678" max="7678" width="4.8984375" style="10" customWidth="1"/>
     <col min="7679" max="7679" width="4" style="10" customWidth="1"/>
-    <col min="7680" max="7680" width="6.5703125" style="10" customWidth="1"/>
-    <col min="7681" max="7681" width="5.7109375" style="10" customWidth="1"/>
-    <col min="7682" max="7682" width="8.7109375" style="10" customWidth="1"/>
-    <col min="7683" max="7683" width="8.140625" style="10"/>
-    <col min="7684" max="7685" width="6.7109375" style="10" customWidth="1"/>
+    <col min="7680" max="7680" width="6.59765625" style="10" customWidth="1"/>
+    <col min="7681" max="7681" width="5.69921875" style="10" customWidth="1"/>
+    <col min="7682" max="7682" width="8.69921875" style="10" customWidth="1"/>
+    <col min="7683" max="7683" width="8.09765625" style="10"/>
+    <col min="7684" max="7685" width="6.69921875" style="10" customWidth="1"/>
     <col min="7686" max="7686" width="9" style="10" customWidth="1"/>
-    <col min="7687" max="7687" width="6.7109375" style="10" customWidth="1"/>
-    <col min="7688" max="7688" width="13.42578125" style="10" customWidth="1"/>
+    <col min="7687" max="7687" width="6.69921875" style="10" customWidth="1"/>
+    <col min="7688" max="7688" width="13.3984375" style="10" customWidth="1"/>
     <col min="7689" max="7689" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="8.140625" style="10"/>
-    <col min="7691" max="7691" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7929" width="8.140625" style="10"/>
-    <col min="7930" max="7930" width="3.140625" style="10" customWidth="1"/>
-    <col min="7931" max="7931" width="7.42578125" style="10" customWidth="1"/>
-    <col min="7932" max="7932" width="20.140625" style="10" customWidth="1"/>
+    <col min="7690" max="7690" width="8.09765625" style="10"/>
+    <col min="7691" max="7691" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7929" width="8.09765625" style="10"/>
+    <col min="7930" max="7930" width="3.09765625" style="10" customWidth="1"/>
+    <col min="7931" max="7931" width="7.3984375" style="10" customWidth="1"/>
+    <col min="7932" max="7932" width="20.09765625" style="10" customWidth="1"/>
     <col min="7933" max="7933" width="6" style="10" customWidth="1"/>
-    <col min="7934" max="7934" width="4.85546875" style="10" customWidth="1"/>
+    <col min="7934" max="7934" width="4.8984375" style="10" customWidth="1"/>
     <col min="7935" max="7935" width="4" style="10" customWidth="1"/>
-    <col min="7936" max="7936" width="6.5703125" style="10" customWidth="1"/>
-    <col min="7937" max="7937" width="5.7109375" style="10" customWidth="1"/>
-    <col min="7938" max="7938" width="8.7109375" style="10" customWidth="1"/>
-    <col min="7939" max="7939" width="8.140625" style="10"/>
-    <col min="7940" max="7941" width="6.7109375" style="10" customWidth="1"/>
+    <col min="7936" max="7936" width="6.59765625" style="10" customWidth="1"/>
+    <col min="7937" max="7937" width="5.69921875" style="10" customWidth="1"/>
+    <col min="7938" max="7938" width="8.69921875" style="10" customWidth="1"/>
+    <col min="7939" max="7939" width="8.09765625" style="10"/>
+    <col min="7940" max="7941" width="6.69921875" style="10" customWidth="1"/>
     <col min="7942" max="7942" width="9" style="10" customWidth="1"/>
-    <col min="7943" max="7943" width="6.7109375" style="10" customWidth="1"/>
-    <col min="7944" max="7944" width="13.42578125" style="10" customWidth="1"/>
+    <col min="7943" max="7943" width="6.69921875" style="10" customWidth="1"/>
+    <col min="7944" max="7944" width="13.3984375" style="10" customWidth="1"/>
     <col min="7945" max="7945" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="8.140625" style="10"/>
-    <col min="7947" max="7947" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7948" max="8185" width="8.140625" style="10"/>
-    <col min="8186" max="8186" width="3.140625" style="10" customWidth="1"/>
-    <col min="8187" max="8187" width="7.42578125" style="10" customWidth="1"/>
-    <col min="8188" max="8188" width="20.140625" style="10" customWidth="1"/>
+    <col min="7946" max="7946" width="8.09765625" style="10"/>
+    <col min="7947" max="7947" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7948" max="8185" width="8.09765625" style="10"/>
+    <col min="8186" max="8186" width="3.09765625" style="10" customWidth="1"/>
+    <col min="8187" max="8187" width="7.3984375" style="10" customWidth="1"/>
+    <col min="8188" max="8188" width="20.09765625" style="10" customWidth="1"/>
     <col min="8189" max="8189" width="6" style="10" customWidth="1"/>
-    <col min="8190" max="8190" width="4.85546875" style="10" customWidth="1"/>
+    <col min="8190" max="8190" width="4.8984375" style="10" customWidth="1"/>
     <col min="8191" max="8191" width="4" style="10" customWidth="1"/>
-    <col min="8192" max="8192" width="6.5703125" style="10" customWidth="1"/>
-    <col min="8193" max="8193" width="5.7109375" style="10" customWidth="1"/>
-    <col min="8194" max="8194" width="8.7109375" style="10" customWidth="1"/>
-    <col min="8195" max="8195" width="8.140625" style="10"/>
-    <col min="8196" max="8197" width="6.7109375" style="10" customWidth="1"/>
+    <col min="8192" max="8192" width="6.59765625" style="10" customWidth="1"/>
+    <col min="8193" max="8193" width="5.69921875" style="10" customWidth="1"/>
+    <col min="8194" max="8194" width="8.69921875" style="10" customWidth="1"/>
+    <col min="8195" max="8195" width="8.09765625" style="10"/>
+    <col min="8196" max="8197" width="6.69921875" style="10" customWidth="1"/>
     <col min="8198" max="8198" width="9" style="10" customWidth="1"/>
-    <col min="8199" max="8199" width="6.7109375" style="10" customWidth="1"/>
-    <col min="8200" max="8200" width="13.42578125" style="10" customWidth="1"/>
+    <col min="8199" max="8199" width="6.69921875" style="10" customWidth="1"/>
+    <col min="8200" max="8200" width="13.3984375" style="10" customWidth="1"/>
     <col min="8201" max="8201" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="8.140625" style="10"/>
-    <col min="8203" max="8203" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8441" width="8.140625" style="10"/>
-    <col min="8442" max="8442" width="3.140625" style="10" customWidth="1"/>
-    <col min="8443" max="8443" width="7.42578125" style="10" customWidth="1"/>
-    <col min="8444" max="8444" width="20.140625" style="10" customWidth="1"/>
+    <col min="8202" max="8202" width="8.09765625" style="10"/>
+    <col min="8203" max="8203" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8441" width="8.09765625" style="10"/>
+    <col min="8442" max="8442" width="3.09765625" style="10" customWidth="1"/>
+    <col min="8443" max="8443" width="7.3984375" style="10" customWidth="1"/>
+    <col min="8444" max="8444" width="20.09765625" style="10" customWidth="1"/>
     <col min="8445" max="8445" width="6" style="10" customWidth="1"/>
-    <col min="8446" max="8446" width="4.85546875" style="10" customWidth="1"/>
+    <col min="8446" max="8446" width="4.8984375" style="10" customWidth="1"/>
     <col min="8447" max="8447" width="4" style="10" customWidth="1"/>
-    <col min="8448" max="8448" width="6.5703125" style="10" customWidth="1"/>
-    <col min="8449" max="8449" width="5.7109375" style="10" customWidth="1"/>
-    <col min="8450" max="8450" width="8.7109375" style="10" customWidth="1"/>
-    <col min="8451" max="8451" width="8.140625" style="10"/>
-    <col min="8452" max="8453" width="6.7109375" style="10" customWidth="1"/>
+    <col min="8448" max="8448" width="6.59765625" style="10" customWidth="1"/>
+    <col min="8449" max="8449" width="5.69921875" style="10" customWidth="1"/>
+    <col min="8450" max="8450" width="8.69921875" style="10" customWidth="1"/>
+    <col min="8451" max="8451" width="8.09765625" style="10"/>
+    <col min="8452" max="8453" width="6.69921875" style="10" customWidth="1"/>
     <col min="8454" max="8454" width="9" style="10" customWidth="1"/>
-    <col min="8455" max="8455" width="6.7109375" style="10" customWidth="1"/>
-    <col min="8456" max="8456" width="13.42578125" style="10" customWidth="1"/>
+    <col min="8455" max="8455" width="6.69921875" style="10" customWidth="1"/>
+    <col min="8456" max="8456" width="13.3984375" style="10" customWidth="1"/>
     <col min="8457" max="8457" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="8.140625" style="10"/>
-    <col min="8459" max="8459" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8697" width="8.140625" style="10"/>
-    <col min="8698" max="8698" width="3.140625" style="10" customWidth="1"/>
-    <col min="8699" max="8699" width="7.42578125" style="10" customWidth="1"/>
-    <col min="8700" max="8700" width="20.140625" style="10" customWidth="1"/>
+    <col min="8458" max="8458" width="8.09765625" style="10"/>
+    <col min="8459" max="8459" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8697" width="8.09765625" style="10"/>
+    <col min="8698" max="8698" width="3.09765625" style="10" customWidth="1"/>
+    <col min="8699" max="8699" width="7.3984375" style="10" customWidth="1"/>
+    <col min="8700" max="8700" width="20.09765625" style="10" customWidth="1"/>
     <col min="8701" max="8701" width="6" style="10" customWidth="1"/>
-    <col min="8702" max="8702" width="4.85546875" style="10" customWidth="1"/>
+    <col min="8702" max="8702" width="4.8984375" style="10" customWidth="1"/>
     <col min="8703" max="8703" width="4" style="10" customWidth="1"/>
-    <col min="8704" max="8704" width="6.5703125" style="10" customWidth="1"/>
-    <col min="8705" max="8705" width="5.7109375" style="10" customWidth="1"/>
-    <col min="8706" max="8706" width="8.7109375" style="10" customWidth="1"/>
-    <col min="8707" max="8707" width="8.140625" style="10"/>
-    <col min="8708" max="8709" width="6.7109375" style="10" customWidth="1"/>
+    <col min="8704" max="8704" width="6.59765625" style="10" customWidth="1"/>
+    <col min="8705" max="8705" width="5.69921875" style="10" customWidth="1"/>
+    <col min="8706" max="8706" width="8.69921875" style="10" customWidth="1"/>
+    <col min="8707" max="8707" width="8.09765625" style="10"/>
+    <col min="8708" max="8709" width="6.69921875" style="10" customWidth="1"/>
     <col min="8710" max="8710" width="9" style="10" customWidth="1"/>
-    <col min="8711" max="8711" width="6.7109375" style="10" customWidth="1"/>
-    <col min="8712" max="8712" width="13.42578125" style="10" customWidth="1"/>
+    <col min="8711" max="8711" width="6.69921875" style="10" customWidth="1"/>
+    <col min="8712" max="8712" width="13.3984375" style="10" customWidth="1"/>
     <col min="8713" max="8713" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="8.140625" style="10"/>
-    <col min="8715" max="8715" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8953" width="8.140625" style="10"/>
-    <col min="8954" max="8954" width="3.140625" style="10" customWidth="1"/>
-    <col min="8955" max="8955" width="7.42578125" style="10" customWidth="1"/>
-    <col min="8956" max="8956" width="20.140625" style="10" customWidth="1"/>
+    <col min="8714" max="8714" width="8.09765625" style="10"/>
+    <col min="8715" max="8715" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8953" width="8.09765625" style="10"/>
+    <col min="8954" max="8954" width="3.09765625" style="10" customWidth="1"/>
+    <col min="8955" max="8955" width="7.3984375" style="10" customWidth="1"/>
+    <col min="8956" max="8956" width="20.09765625" style="10" customWidth="1"/>
     <col min="8957" max="8957" width="6" style="10" customWidth="1"/>
-    <col min="8958" max="8958" width="4.85546875" style="10" customWidth="1"/>
+    <col min="8958" max="8958" width="4.8984375" style="10" customWidth="1"/>
     <col min="8959" max="8959" width="4" style="10" customWidth="1"/>
-    <col min="8960" max="8960" width="6.5703125" style="10" customWidth="1"/>
-    <col min="8961" max="8961" width="5.7109375" style="10" customWidth="1"/>
-    <col min="8962" max="8962" width="8.7109375" style="10" customWidth="1"/>
-    <col min="8963" max="8963" width="8.140625" style="10"/>
-    <col min="8964" max="8965" width="6.7109375" style="10" customWidth="1"/>
+    <col min="8960" max="8960" width="6.59765625" style="10" customWidth="1"/>
+    <col min="8961" max="8961" width="5.69921875" style="10" customWidth="1"/>
+    <col min="8962" max="8962" width="8.69921875" style="10" customWidth="1"/>
+    <col min="8963" max="8963" width="8.09765625" style="10"/>
+    <col min="8964" max="8965" width="6.69921875" style="10" customWidth="1"/>
     <col min="8966" max="8966" width="9" style="10" customWidth="1"/>
-    <col min="8967" max="8967" width="6.7109375" style="10" customWidth="1"/>
-    <col min="8968" max="8968" width="13.42578125" style="10" customWidth="1"/>
+    <col min="8967" max="8967" width="6.69921875" style="10" customWidth="1"/>
+    <col min="8968" max="8968" width="13.3984375" style="10" customWidth="1"/>
     <col min="8969" max="8969" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="8.140625" style="10"/>
-    <col min="8971" max="8971" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8972" max="9209" width="8.140625" style="10"/>
-    <col min="9210" max="9210" width="3.140625" style="10" customWidth="1"/>
-    <col min="9211" max="9211" width="7.42578125" style="10" customWidth="1"/>
-    <col min="9212" max="9212" width="20.140625" style="10" customWidth="1"/>
+    <col min="8970" max="8970" width="8.09765625" style="10"/>
+    <col min="8971" max="8971" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8972" max="9209" width="8.09765625" style="10"/>
+    <col min="9210" max="9210" width="3.09765625" style="10" customWidth="1"/>
+    <col min="9211" max="9211" width="7.3984375" style="10" customWidth="1"/>
+    <col min="9212" max="9212" width="20.09765625" style="10" customWidth="1"/>
     <col min="9213" max="9213" width="6" style="10" customWidth="1"/>
-    <col min="9214" max="9214" width="4.85546875" style="10" customWidth="1"/>
+    <col min="9214" max="9214" width="4.8984375" style="10" customWidth="1"/>
     <col min="9215" max="9215" width="4" style="10" customWidth="1"/>
-    <col min="9216" max="9216" width="6.5703125" style="10" customWidth="1"/>
-    <col min="9217" max="9217" width="5.7109375" style="10" customWidth="1"/>
-    <col min="9218" max="9218" width="8.7109375" style="10" customWidth="1"/>
-    <col min="9219" max="9219" width="8.140625" style="10"/>
-    <col min="9220" max="9221" width="6.7109375" style="10" customWidth="1"/>
+    <col min="9216" max="9216" width="6.59765625" style="10" customWidth="1"/>
+    <col min="9217" max="9217" width="5.69921875" style="10" customWidth="1"/>
+    <col min="9218" max="9218" width="8.69921875" style="10" customWidth="1"/>
+    <col min="9219" max="9219" width="8.09765625" style="10"/>
+    <col min="9220" max="9221" width="6.69921875" style="10" customWidth="1"/>
     <col min="9222" max="9222" width="9" style="10" customWidth="1"/>
-    <col min="9223" max="9223" width="6.7109375" style="10" customWidth="1"/>
-    <col min="9224" max="9224" width="13.42578125" style="10" customWidth="1"/>
+    <col min="9223" max="9223" width="6.69921875" style="10" customWidth="1"/>
+    <col min="9224" max="9224" width="13.3984375" style="10" customWidth="1"/>
     <col min="9225" max="9225" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="8.140625" style="10"/>
-    <col min="9227" max="9227" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9465" width="8.140625" style="10"/>
-    <col min="9466" max="9466" width="3.140625" style="10" customWidth="1"/>
-    <col min="9467" max="9467" width="7.42578125" style="10" customWidth="1"/>
-    <col min="9468" max="9468" width="20.140625" style="10" customWidth="1"/>
+    <col min="9226" max="9226" width="8.09765625" style="10"/>
+    <col min="9227" max="9227" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9465" width="8.09765625" style="10"/>
+    <col min="9466" max="9466" width="3.09765625" style="10" customWidth="1"/>
+    <col min="9467" max="9467" width="7.3984375" style="10" customWidth="1"/>
+    <col min="9468" max="9468" width="20.09765625" style="10" customWidth="1"/>
     <col min="9469" max="9469" width="6" style="10" customWidth="1"/>
-    <col min="9470" max="9470" width="4.85546875" style="10" customWidth="1"/>
+    <col min="9470" max="9470" width="4.8984375" style="10" customWidth="1"/>
     <col min="9471" max="9471" width="4" style="10" customWidth="1"/>
-    <col min="9472" max="9472" width="6.5703125" style="10" customWidth="1"/>
-    <col min="9473" max="9473" width="5.7109375" style="10" customWidth="1"/>
-    <col min="9474" max="9474" width="8.7109375" style="10" customWidth="1"/>
-    <col min="9475" max="9475" width="8.140625" style="10"/>
-    <col min="9476" max="9477" width="6.7109375" style="10" customWidth="1"/>
+    <col min="9472" max="9472" width="6.59765625" style="10" customWidth="1"/>
+    <col min="9473" max="9473" width="5.69921875" style="10" customWidth="1"/>
+    <col min="9474" max="9474" width="8.69921875" style="10" customWidth="1"/>
+    <col min="9475" max="9475" width="8.09765625" style="10"/>
+    <col min="9476" max="9477" width="6.69921875" style="10" customWidth="1"/>
     <col min="9478" max="9478" width="9" style="10" customWidth="1"/>
-    <col min="9479" max="9479" width="6.7109375" style="10" customWidth="1"/>
-    <col min="9480" max="9480" width="13.42578125" style="10" customWidth="1"/>
+    <col min="9479" max="9479" width="6.69921875" style="10" customWidth="1"/>
+    <col min="9480" max="9480" width="13.3984375" style="10" customWidth="1"/>
     <col min="9481" max="9481" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="8.140625" style="10"/>
-    <col min="9483" max="9483" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9721" width="8.140625" style="10"/>
-    <col min="9722" max="9722" width="3.140625" style="10" customWidth="1"/>
-    <col min="9723" max="9723" width="7.42578125" style="10" customWidth="1"/>
-    <col min="9724" max="9724" width="20.140625" style="10" customWidth="1"/>
+    <col min="9482" max="9482" width="8.09765625" style="10"/>
+    <col min="9483" max="9483" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9721" width="8.09765625" style="10"/>
+    <col min="9722" max="9722" width="3.09765625" style="10" customWidth="1"/>
+    <col min="9723" max="9723" width="7.3984375" style="10" customWidth="1"/>
+    <col min="9724" max="9724" width="20.09765625" style="10" customWidth="1"/>
     <col min="9725" max="9725" width="6" style="10" customWidth="1"/>
-    <col min="9726" max="9726" width="4.85546875" style="10" customWidth="1"/>
+    <col min="9726" max="9726" width="4.8984375" style="10" customWidth="1"/>
     <col min="9727" max="9727" width="4" style="10" customWidth="1"/>
-    <col min="9728" max="9728" width="6.5703125" style="10" customWidth="1"/>
-    <col min="9729" max="9729" width="5.7109375" style="10" customWidth="1"/>
-    <col min="9730" max="9730" width="8.7109375" style="10" customWidth="1"/>
-    <col min="9731" max="9731" width="8.140625" style="10"/>
-    <col min="9732" max="9733" width="6.7109375" style="10" customWidth="1"/>
+    <col min="9728" max="9728" width="6.59765625" style="10" customWidth="1"/>
+    <col min="9729" max="9729" width="5.69921875" style="10" customWidth="1"/>
+    <col min="9730" max="9730" width="8.69921875" style="10" customWidth="1"/>
+    <col min="9731" max="9731" width="8.09765625" style="10"/>
+    <col min="9732" max="9733" width="6.69921875" style="10" customWidth="1"/>
     <col min="9734" max="9734" width="9" style="10" customWidth="1"/>
-    <col min="9735" max="9735" width="6.7109375" style="10" customWidth="1"/>
-    <col min="9736" max="9736" width="13.42578125" style="10" customWidth="1"/>
+    <col min="9735" max="9735" width="6.69921875" style="10" customWidth="1"/>
+    <col min="9736" max="9736" width="13.3984375" style="10" customWidth="1"/>
     <col min="9737" max="9737" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="8.140625" style="10"/>
-    <col min="9739" max="9739" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9977" width="8.140625" style="10"/>
-    <col min="9978" max="9978" width="3.140625" style="10" customWidth="1"/>
-    <col min="9979" max="9979" width="7.42578125" style="10" customWidth="1"/>
-    <col min="9980" max="9980" width="20.140625" style="10" customWidth="1"/>
+    <col min="9738" max="9738" width="8.09765625" style="10"/>
+    <col min="9739" max="9739" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9977" width="8.09765625" style="10"/>
+    <col min="9978" max="9978" width="3.09765625" style="10" customWidth="1"/>
+    <col min="9979" max="9979" width="7.3984375" style="10" customWidth="1"/>
+    <col min="9980" max="9980" width="20.09765625" style="10" customWidth="1"/>
     <col min="9981" max="9981" width="6" style="10" customWidth="1"/>
-    <col min="9982" max="9982" width="4.85546875" style="10" customWidth="1"/>
+    <col min="9982" max="9982" width="4.8984375" style="10" customWidth="1"/>
     <col min="9983" max="9983" width="4" style="10" customWidth="1"/>
-    <col min="9984" max="9984" width="6.5703125" style="10" customWidth="1"/>
-    <col min="9985" max="9985" width="5.7109375" style="10" customWidth="1"/>
-    <col min="9986" max="9986" width="8.7109375" style="10" customWidth="1"/>
-    <col min="9987" max="9987" width="8.140625" style="10"/>
-    <col min="9988" max="9989" width="6.7109375" style="10" customWidth="1"/>
+    <col min="9984" max="9984" width="6.59765625" style="10" customWidth="1"/>
+    <col min="9985" max="9985" width="5.69921875" style="10" customWidth="1"/>
+    <col min="9986" max="9986" width="8.69921875" style="10" customWidth="1"/>
+    <col min="9987" max="9987" width="8.09765625" style="10"/>
+    <col min="9988" max="9989" width="6.69921875" style="10" customWidth="1"/>
     <col min="9990" max="9990" width="9" style="10" customWidth="1"/>
-    <col min="9991" max="9991" width="6.7109375" style="10" customWidth="1"/>
-    <col min="9992" max="9992" width="13.42578125" style="10" customWidth="1"/>
+    <col min="9991" max="9991" width="6.69921875" style="10" customWidth="1"/>
+    <col min="9992" max="9992" width="13.3984375" style="10" customWidth="1"/>
     <col min="9993" max="9993" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="8.140625" style="10"/>
-    <col min="9995" max="9995" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9996" max="10233" width="8.140625" style="10"/>
-    <col min="10234" max="10234" width="3.140625" style="10" customWidth="1"/>
-    <col min="10235" max="10235" width="7.42578125" style="10" customWidth="1"/>
-    <col min="10236" max="10236" width="20.140625" style="10" customWidth="1"/>
+    <col min="9994" max="9994" width="8.09765625" style="10"/>
+    <col min="9995" max="9995" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9996" max="10233" width="8.09765625" style="10"/>
+    <col min="10234" max="10234" width="3.09765625" style="10" customWidth="1"/>
+    <col min="10235" max="10235" width="7.3984375" style="10" customWidth="1"/>
+    <col min="10236" max="10236" width="20.09765625" style="10" customWidth="1"/>
     <col min="10237" max="10237" width="6" style="10" customWidth="1"/>
-    <col min="10238" max="10238" width="4.85546875" style="10" customWidth="1"/>
+    <col min="10238" max="10238" width="4.8984375" style="10" customWidth="1"/>
     <col min="10239" max="10239" width="4" style="10" customWidth="1"/>
-    <col min="10240" max="10240" width="6.5703125" style="10" customWidth="1"/>
-    <col min="10241" max="10241" width="5.7109375" style="10" customWidth="1"/>
-    <col min="10242" max="10242" width="8.7109375" style="10" customWidth="1"/>
-    <col min="10243" max="10243" width="8.140625" style="10"/>
-    <col min="10244" max="10245" width="6.7109375" style="10" customWidth="1"/>
+    <col min="10240" max="10240" width="6.59765625" style="10" customWidth="1"/>
+    <col min="10241" max="10241" width="5.69921875" style="10" customWidth="1"/>
+    <col min="10242" max="10242" width="8.69921875" style="10" customWidth="1"/>
+    <col min="10243" max="10243" width="8.09765625" style="10"/>
+    <col min="10244" max="10245" width="6.69921875" style="10" customWidth="1"/>
     <col min="10246" max="10246" width="9" style="10" customWidth="1"/>
-    <col min="10247" max="10247" width="6.7109375" style="10" customWidth="1"/>
-    <col min="10248" max="10248" width="13.42578125" style="10" customWidth="1"/>
+    <col min="10247" max="10247" width="6.69921875" style="10" customWidth="1"/>
+    <col min="10248" max="10248" width="13.3984375" style="10" customWidth="1"/>
     <col min="10249" max="10249" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="8.140625" style="10"/>
-    <col min="10251" max="10251" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10489" width="8.140625" style="10"/>
-    <col min="10490" max="10490" width="3.140625" style="10" customWidth="1"/>
-    <col min="10491" max="10491" width="7.42578125" style="10" customWidth="1"/>
-    <col min="10492" max="10492" width="20.140625" style="10" customWidth="1"/>
+    <col min="10250" max="10250" width="8.09765625" style="10"/>
+    <col min="10251" max="10251" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10489" width="8.09765625" style="10"/>
+    <col min="10490" max="10490" width="3.09765625" style="10" customWidth="1"/>
+    <col min="10491" max="10491" width="7.3984375" style="10" customWidth="1"/>
+    <col min="10492" max="10492" width="20.09765625" style="10" customWidth="1"/>
     <col min="10493" max="10493" width="6" style="10" customWidth="1"/>
-    <col min="10494" max="10494" width="4.85546875" style="10" customWidth="1"/>
+    <col min="10494" max="10494" width="4.8984375" style="10" customWidth="1"/>
     <col min="10495" max="10495" width="4" style="10" customWidth="1"/>
-    <col min="10496" max="10496" width="6.5703125" style="10" customWidth="1"/>
-    <col min="10497" max="10497" width="5.7109375" style="10" customWidth="1"/>
-    <col min="10498" max="10498" width="8.7109375" style="10" customWidth="1"/>
-    <col min="10499" max="10499" width="8.140625" style="10"/>
-    <col min="10500" max="10501" width="6.7109375" style="10" customWidth="1"/>
+    <col min="10496" max="10496" width="6.59765625" style="10" customWidth="1"/>
+    <col min="10497" max="10497" width="5.69921875" style="10" customWidth="1"/>
+    <col min="10498" max="10498" width="8.69921875" style="10" customWidth="1"/>
+    <col min="10499" max="10499" width="8.09765625" style="10"/>
+    <col min="10500" max="10501" width="6.69921875" style="10" customWidth="1"/>
     <col min="10502" max="10502" width="9" style="10" customWidth="1"/>
-    <col min="10503" max="10503" width="6.7109375" style="10" customWidth="1"/>
-    <col min="10504" max="10504" width="13.42578125" style="10" customWidth="1"/>
+    <col min="10503" max="10503" width="6.69921875" style="10" customWidth="1"/>
+    <col min="10504" max="10504" width="13.3984375" style="10" customWidth="1"/>
     <col min="10505" max="10505" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="8.140625" style="10"/>
-    <col min="10507" max="10507" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10745" width="8.140625" style="10"/>
-    <col min="10746" max="10746" width="3.140625" style="10" customWidth="1"/>
-    <col min="10747" max="10747" width="7.42578125" style="10" customWidth="1"/>
-    <col min="10748" max="10748" width="20.140625" style="10" customWidth="1"/>
+    <col min="10506" max="10506" width="8.09765625" style="10"/>
+    <col min="10507" max="10507" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10745" width="8.09765625" style="10"/>
+    <col min="10746" max="10746" width="3.09765625" style="10" customWidth="1"/>
+    <col min="10747" max="10747" width="7.3984375" style="10" customWidth="1"/>
+    <col min="10748" max="10748" width="20.09765625" style="10" customWidth="1"/>
     <col min="10749" max="10749" width="6" style="10" customWidth="1"/>
-    <col min="10750" max="10750" width="4.85546875" style="10" customWidth="1"/>
+    <col min="10750" max="10750" width="4.8984375" style="10" customWidth="1"/>
     <col min="10751" max="10751" width="4" style="10" customWidth="1"/>
-    <col min="10752" max="10752" width="6.5703125" style="10" customWidth="1"/>
-    <col min="10753" max="10753" width="5.7109375" style="10" customWidth="1"/>
-    <col min="10754" max="10754" width="8.7109375" style="10" customWidth="1"/>
-    <col min="10755" max="10755" width="8.140625" style="10"/>
-    <col min="10756" max="10757" width="6.7109375" style="10" customWidth="1"/>
+    <col min="10752" max="10752" width="6.59765625" style="10" customWidth="1"/>
+    <col min="10753" max="10753" width="5.69921875" style="10" customWidth="1"/>
+    <col min="10754" max="10754" width="8.69921875" style="10" customWidth="1"/>
+    <col min="10755" max="10755" width="8.09765625" style="10"/>
+    <col min="10756" max="10757" width="6.69921875" style="10" customWidth="1"/>
     <col min="10758" max="10758" width="9" style="10" customWidth="1"/>
-    <col min="10759" max="10759" width="6.7109375" style="10" customWidth="1"/>
-    <col min="10760" max="10760" width="13.42578125" style="10" customWidth="1"/>
+    <col min="10759" max="10759" width="6.69921875" style="10" customWidth="1"/>
+    <col min="10760" max="10760" width="13.3984375" style="10" customWidth="1"/>
     <col min="10761" max="10761" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="8.140625" style="10"/>
-    <col min="10763" max="10763" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10764" max="11001" width="8.140625" style="10"/>
-    <col min="11002" max="11002" width="3.140625" style="10" customWidth="1"/>
-    <col min="11003" max="11003" width="7.42578125" style="10" customWidth="1"/>
-    <col min="11004" max="11004" width="20.140625" style="10" customWidth="1"/>
+    <col min="10762" max="10762" width="8.09765625" style="10"/>
+    <col min="10763" max="10763" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10764" max="11001" width="8.09765625" style="10"/>
+    <col min="11002" max="11002" width="3.09765625" style="10" customWidth="1"/>
+    <col min="11003" max="11003" width="7.3984375" style="10" customWidth="1"/>
+    <col min="11004" max="11004" width="20.09765625" style="10" customWidth="1"/>
     <col min="11005" max="11005" width="6" style="10" customWidth="1"/>
-    <col min="11006" max="11006" width="4.85546875" style="10" customWidth="1"/>
+    <col min="11006" max="11006" width="4.8984375" style="10" customWidth="1"/>
     <col min="11007" max="11007" width="4" style="10" customWidth="1"/>
-    <col min="11008" max="11008" width="6.5703125" style="10" customWidth="1"/>
-    <col min="11009" max="11009" width="5.7109375" style="10" customWidth="1"/>
-    <col min="11010" max="11010" width="8.7109375" style="10" customWidth="1"/>
-    <col min="11011" max="11011" width="8.140625" style="10"/>
-    <col min="11012" max="11013" width="6.7109375" style="10" customWidth="1"/>
+    <col min="11008" max="11008" width="6.59765625" style="10" customWidth="1"/>
+    <col min="11009" max="11009" width="5.69921875" style="10" customWidth="1"/>
+    <col min="11010" max="11010" width="8.69921875" style="10" customWidth="1"/>
+    <col min="11011" max="11011" width="8.09765625" style="10"/>
+    <col min="11012" max="11013" width="6.69921875" style="10" customWidth="1"/>
     <col min="11014" max="11014" width="9" style="10" customWidth="1"/>
-    <col min="11015" max="11015" width="6.7109375" style="10" customWidth="1"/>
-    <col min="11016" max="11016" width="13.42578125" style="10" customWidth="1"/>
+    <col min="11015" max="11015" width="6.69921875" style="10" customWidth="1"/>
+    <col min="11016" max="11016" width="13.3984375" style="10" customWidth="1"/>
     <col min="11017" max="11017" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="8.140625" style="10"/>
-    <col min="11019" max="11019" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11257" width="8.140625" style="10"/>
-    <col min="11258" max="11258" width="3.140625" style="10" customWidth="1"/>
-    <col min="11259" max="11259" width="7.42578125" style="10" customWidth="1"/>
-    <col min="11260" max="11260" width="20.140625" style="10" customWidth="1"/>
+    <col min="11018" max="11018" width="8.09765625" style="10"/>
+    <col min="11019" max="11019" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11257" width="8.09765625" style="10"/>
+    <col min="11258" max="11258" width="3.09765625" style="10" customWidth="1"/>
+    <col min="11259" max="11259" width="7.3984375" style="10" customWidth="1"/>
+    <col min="11260" max="11260" width="20.09765625" style="10" customWidth="1"/>
     <col min="11261" max="11261" width="6" style="10" customWidth="1"/>
-    <col min="11262" max="11262" width="4.85546875" style="10" customWidth="1"/>
+    <col min="11262" max="11262" width="4.8984375" style="10" customWidth="1"/>
     <col min="11263" max="11263" width="4" style="10" customWidth="1"/>
-    <col min="11264" max="11264" width="6.5703125" style="10" customWidth="1"/>
-    <col min="11265" max="11265" width="5.7109375" style="10" customWidth="1"/>
-    <col min="11266" max="11266" width="8.7109375" style="10" customWidth="1"/>
-    <col min="11267" max="11267" width="8.140625" style="10"/>
-    <col min="11268" max="11269" width="6.7109375" style="10" customWidth="1"/>
+    <col min="11264" max="11264" width="6.59765625" style="10" customWidth="1"/>
+    <col min="11265" max="11265" width="5.69921875" style="10" customWidth="1"/>
+    <col min="11266" max="11266" width="8.69921875" style="10" customWidth="1"/>
+    <col min="11267" max="11267" width="8.09765625" style="10"/>
+    <col min="11268" max="11269" width="6.69921875" style="10" customWidth="1"/>
     <col min="11270" max="11270" width="9" style="10" customWidth="1"/>
-    <col min="11271" max="11271" width="6.7109375" style="10" customWidth="1"/>
-    <col min="11272" max="11272" width="13.42578125" style="10" customWidth="1"/>
+    <col min="11271" max="11271" width="6.69921875" style="10" customWidth="1"/>
+    <col min="11272" max="11272" width="13.3984375" style="10" customWidth="1"/>
     <col min="11273" max="11273" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="8.140625" style="10"/>
-    <col min="11275" max="11275" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11513" width="8.140625" style="10"/>
-    <col min="11514" max="11514" width="3.140625" style="10" customWidth="1"/>
-    <col min="11515" max="11515" width="7.42578125" style="10" customWidth="1"/>
-    <col min="11516" max="11516" width="20.140625" style="10" customWidth="1"/>
+    <col min="11274" max="11274" width="8.09765625" style="10"/>
+    <col min="11275" max="11275" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11513" width="8.09765625" style="10"/>
+    <col min="11514" max="11514" width="3.09765625" style="10" customWidth="1"/>
+    <col min="11515" max="11515" width="7.3984375" style="10" customWidth="1"/>
+    <col min="11516" max="11516" width="20.09765625" style="10" customWidth="1"/>
     <col min="11517" max="11517" width="6" style="10" customWidth="1"/>
-    <col min="11518" max="11518" width="4.85546875" style="10" customWidth="1"/>
+    <col min="11518" max="11518" width="4.8984375" style="10" customWidth="1"/>
     <col min="11519" max="11519" width="4" style="10" customWidth="1"/>
-    <col min="11520" max="11520" width="6.5703125" style="10" customWidth="1"/>
-    <col min="11521" max="11521" width="5.7109375" style="10" customWidth="1"/>
-    <col min="11522" max="11522" width="8.7109375" style="10" customWidth="1"/>
-    <col min="11523" max="11523" width="8.140625" style="10"/>
-    <col min="11524" max="11525" width="6.7109375" style="10" customWidth="1"/>
+    <col min="11520" max="11520" width="6.59765625" style="10" customWidth="1"/>
+    <col min="11521" max="11521" width="5.69921875" style="10" customWidth="1"/>
+    <col min="11522" max="11522" width="8.69921875" style="10" customWidth="1"/>
+    <col min="11523" max="11523" width="8.09765625" style="10"/>
+    <col min="11524" max="11525" width="6.69921875" style="10" customWidth="1"/>
     <col min="11526" max="11526" width="9" style="10" customWidth="1"/>
-    <col min="11527" max="11527" width="6.7109375" style="10" customWidth="1"/>
-    <col min="11528" max="11528" width="13.42578125" style="10" customWidth="1"/>
+    <col min="11527" max="11527" width="6.69921875" style="10" customWidth="1"/>
+    <col min="11528" max="11528" width="13.3984375" style="10" customWidth="1"/>
     <col min="11529" max="11529" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="8.140625" style="10"/>
-    <col min="11531" max="11531" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11769" width="8.140625" style="10"/>
-    <col min="11770" max="11770" width="3.140625" style="10" customWidth="1"/>
-    <col min="11771" max="11771" width="7.42578125" style="10" customWidth="1"/>
-    <col min="11772" max="11772" width="20.140625" style="10" customWidth="1"/>
+    <col min="11530" max="11530" width="8.09765625" style="10"/>
+    <col min="11531" max="11531" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11769" width="8.09765625" style="10"/>
+    <col min="11770" max="11770" width="3.09765625" style="10" customWidth="1"/>
+    <col min="11771" max="11771" width="7.3984375" style="10" customWidth="1"/>
+    <col min="11772" max="11772" width="20.09765625" style="10" customWidth="1"/>
     <col min="11773" max="11773" width="6" style="10" customWidth="1"/>
-    <col min="11774" max="11774" width="4.85546875" style="10" customWidth="1"/>
+    <col min="11774" max="11774" width="4.8984375" style="10" customWidth="1"/>
     <col min="11775" max="11775" width="4" style="10" customWidth="1"/>
-    <col min="11776" max="11776" width="6.5703125" style="10" customWidth="1"/>
-    <col min="11777" max="11777" width="5.7109375" style="10" customWidth="1"/>
-    <col min="11778" max="11778" width="8.7109375" style="10" customWidth="1"/>
-    <col min="11779" max="11779" width="8.140625" style="10"/>
-    <col min="11780" max="11781" width="6.7109375" style="10" customWidth="1"/>
+    <col min="11776" max="11776" width="6.59765625" style="10" customWidth="1"/>
+    <col min="11777" max="11777" width="5.69921875" style="10" customWidth="1"/>
+    <col min="11778" max="11778" width="8.69921875" style="10" customWidth="1"/>
+    <col min="11779" max="11779" width="8.09765625" style="10"/>
+    <col min="11780" max="11781" width="6.69921875" style="10" customWidth="1"/>
     <col min="11782" max="11782" width="9" style="10" customWidth="1"/>
-    <col min="11783" max="11783" width="6.7109375" style="10" customWidth="1"/>
-    <col min="11784" max="11784" width="13.42578125" style="10" customWidth="1"/>
+    <col min="11783" max="11783" width="6.69921875" style="10" customWidth="1"/>
+    <col min="11784" max="11784" width="13.3984375" style="10" customWidth="1"/>
     <col min="11785" max="11785" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="8.140625" style="10"/>
-    <col min="11787" max="11787" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11788" max="12025" width="8.140625" style="10"/>
-    <col min="12026" max="12026" width="3.140625" style="10" customWidth="1"/>
-    <col min="12027" max="12027" width="7.42578125" style="10" customWidth="1"/>
-    <col min="12028" max="12028" width="20.140625" style="10" customWidth="1"/>
+    <col min="11786" max="11786" width="8.09765625" style="10"/>
+    <col min="11787" max="11787" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11788" max="12025" width="8.09765625" style="10"/>
+    <col min="12026" max="12026" width="3.09765625" style="10" customWidth="1"/>
+    <col min="12027" max="12027" width="7.3984375" style="10" customWidth="1"/>
+    <col min="12028" max="12028" width="20.09765625" style="10" customWidth="1"/>
     <col min="12029" max="12029" width="6" style="10" customWidth="1"/>
-    <col min="12030" max="12030" width="4.85546875" style="10" customWidth="1"/>
+    <col min="12030" max="12030" width="4.8984375" style="10" customWidth="1"/>
     <col min="12031" max="12031" width="4" style="10" customWidth="1"/>
-    <col min="12032" max="12032" width="6.5703125" style="10" customWidth="1"/>
-    <col min="12033" max="12033" width="5.7109375" style="10" customWidth="1"/>
-    <col min="12034" max="12034" width="8.7109375" style="10" customWidth="1"/>
-    <col min="12035" max="12035" width="8.140625" style="10"/>
-    <col min="12036" max="12037" width="6.7109375" style="10" customWidth="1"/>
+    <col min="12032" max="12032" width="6.59765625" style="10" customWidth="1"/>
+    <col min="12033" max="12033" width="5.69921875" style="10" customWidth="1"/>
+    <col min="12034" max="12034" width="8.69921875" style="10" customWidth="1"/>
+    <col min="12035" max="12035" width="8.09765625" style="10"/>
+    <col min="12036" max="12037" width="6.69921875" style="10" customWidth="1"/>
     <col min="12038" max="12038" width="9" style="10" customWidth="1"/>
-    <col min="12039" max="12039" width="6.7109375" style="10" customWidth="1"/>
-    <col min="12040" max="12040" width="13.42578125" style="10" customWidth="1"/>
+    <col min="12039" max="12039" width="6.69921875" style="10" customWidth="1"/>
+    <col min="12040" max="12040" width="13.3984375" style="10" customWidth="1"/>
     <col min="12041" max="12041" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="8.140625" style="10"/>
-    <col min="12043" max="12043" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12281" width="8.140625" style="10"/>
-    <col min="12282" max="12282" width="3.140625" style="10" customWidth="1"/>
-    <col min="12283" max="12283" width="7.42578125" style="10" customWidth="1"/>
-    <col min="12284" max="12284" width="20.140625" style="10" customWidth="1"/>
+    <col min="12042" max="12042" width="8.09765625" style="10"/>
+    <col min="12043" max="12043" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12281" width="8.09765625" style="10"/>
+    <col min="12282" max="12282" width="3.09765625" style="10" customWidth="1"/>
+    <col min="12283" max="12283" width="7.3984375" style="10" customWidth="1"/>
+    <col min="12284" max="12284" width="20.09765625" style="10" customWidth="1"/>
     <col min="12285" max="12285" width="6" style="10" customWidth="1"/>
-    <col min="12286" max="12286" width="4.85546875" style="10" customWidth="1"/>
+    <col min="12286" max="12286" width="4.8984375" style="10" customWidth="1"/>
     <col min="12287" max="12287" width="4" style="10" customWidth="1"/>
-    <col min="12288" max="12288" width="6.5703125" style="10" customWidth="1"/>
-    <col min="12289" max="12289" width="5.7109375" style="10" customWidth="1"/>
-    <col min="12290" max="12290" width="8.7109375" style="10" customWidth="1"/>
-    <col min="12291" max="12291" width="8.140625" style="10"/>
-    <col min="12292" max="12293" width="6.7109375" style="10" customWidth="1"/>
+    <col min="12288" max="12288" width="6.59765625" style="10" customWidth="1"/>
+    <col min="12289" max="12289" width="5.69921875" style="10" customWidth="1"/>
+    <col min="12290" max="12290" width="8.69921875" style="10" customWidth="1"/>
+    <col min="12291" max="12291" width="8.09765625" style="10"/>
+    <col min="12292" max="12293" width="6.69921875" style="10" customWidth="1"/>
     <col min="12294" max="12294" width="9" style="10" customWidth="1"/>
-    <col min="12295" max="12295" width="6.7109375" style="10" customWidth="1"/>
-    <col min="12296" max="12296" width="13.42578125" style="10" customWidth="1"/>
+    <col min="12295" max="12295" width="6.69921875" style="10" customWidth="1"/>
+    <col min="12296" max="12296" width="13.3984375" style="10" customWidth="1"/>
     <col min="12297" max="12297" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="8.140625" style="10"/>
-    <col min="12299" max="12299" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12537" width="8.140625" style="10"/>
-    <col min="12538" max="12538" width="3.140625" style="10" customWidth="1"/>
-    <col min="12539" max="12539" width="7.42578125" style="10" customWidth="1"/>
-    <col min="12540" max="12540" width="20.140625" style="10" customWidth="1"/>
+    <col min="12298" max="12298" width="8.09765625" style="10"/>
+    <col min="12299" max="12299" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12537" width="8.09765625" style="10"/>
+    <col min="12538" max="12538" width="3.09765625" style="10" customWidth="1"/>
+    <col min="12539" max="12539" width="7.3984375" style="10" customWidth="1"/>
+    <col min="12540" max="12540" width="20.09765625" style="10" customWidth="1"/>
     <col min="12541" max="12541" width="6" style="10" customWidth="1"/>
-    <col min="12542" max="12542" width="4.85546875" style="10" customWidth="1"/>
+    <col min="12542" max="12542" width="4.8984375" style="10" customWidth="1"/>
     <col min="12543" max="12543" width="4" style="10" customWidth="1"/>
-    <col min="12544" max="12544" width="6.5703125" style="10" customWidth="1"/>
-    <col min="12545" max="12545" width="5.7109375" style="10" customWidth="1"/>
-    <col min="12546" max="12546" width="8.7109375" style="10" customWidth="1"/>
-    <col min="12547" max="12547" width="8.140625" style="10"/>
-    <col min="12548" max="12549" width="6.7109375" style="10" customWidth="1"/>
+    <col min="12544" max="12544" width="6.59765625" style="10" customWidth="1"/>
+    <col min="12545" max="12545" width="5.69921875" style="10" customWidth="1"/>
+    <col min="12546" max="12546" width="8.69921875" style="10" customWidth="1"/>
+    <col min="12547" max="12547" width="8.09765625" style="10"/>
+    <col min="12548" max="12549" width="6.69921875" style="10" customWidth="1"/>
     <col min="12550" max="12550" width="9" style="10" customWidth="1"/>
-    <col min="12551" max="12551" width="6.7109375" style="10" customWidth="1"/>
-    <col min="12552" max="12552" width="13.42578125" style="10" customWidth="1"/>
+    <col min="12551" max="12551" width="6.69921875" style="10" customWidth="1"/>
+    <col min="12552" max="12552" width="13.3984375" style="10" customWidth="1"/>
     <col min="12553" max="12553" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="8.140625" style="10"/>
-    <col min="12555" max="12555" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12793" width="8.140625" style="10"/>
-    <col min="12794" max="12794" width="3.140625" style="10" customWidth="1"/>
-    <col min="12795" max="12795" width="7.42578125" style="10" customWidth="1"/>
-    <col min="12796" max="12796" width="20.140625" style="10" customWidth="1"/>
+    <col min="12554" max="12554" width="8.09765625" style="10"/>
+    <col min="12555" max="12555" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12793" width="8.09765625" style="10"/>
+    <col min="12794" max="12794" width="3.09765625" style="10" customWidth="1"/>
+    <col min="12795" max="12795" width="7.3984375" style="10" customWidth="1"/>
+    <col min="12796" max="12796" width="20.09765625" style="10" customWidth="1"/>
     <col min="12797" max="12797" width="6" style="10" customWidth="1"/>
-    <col min="12798" max="12798" width="4.85546875" style="10" customWidth="1"/>
+    <col min="12798" max="12798" width="4.8984375" style="10" customWidth="1"/>
     <col min="12799" max="12799" width="4" style="10" customWidth="1"/>
-    <col min="12800" max="12800" width="6.5703125" style="10" customWidth="1"/>
-    <col min="12801" max="12801" width="5.7109375" style="10" customWidth="1"/>
-    <col min="12802" max="12802" width="8.7109375" style="10" customWidth="1"/>
-    <col min="12803" max="12803" width="8.140625" style="10"/>
-    <col min="12804" max="12805" width="6.7109375" style="10" customWidth="1"/>
+    <col min="12800" max="12800" width="6.59765625" style="10" customWidth="1"/>
+    <col min="12801" max="12801" width="5.69921875" style="10" customWidth="1"/>
+    <col min="12802" max="12802" width="8.69921875" style="10" customWidth="1"/>
+    <col min="12803" max="12803" width="8.09765625" style="10"/>
+    <col min="12804" max="12805" width="6.69921875" style="10" customWidth="1"/>
     <col min="12806" max="12806" width="9" style="10" customWidth="1"/>
-    <col min="12807" max="12807" width="6.7109375" style="10" customWidth="1"/>
-    <col min="12808" max="12808" width="13.42578125" style="10" customWidth="1"/>
+    <col min="12807" max="12807" width="6.69921875" style="10" customWidth="1"/>
+    <col min="12808" max="12808" width="13.3984375" style="10" customWidth="1"/>
     <col min="12809" max="12809" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="8.140625" style="10"/>
-    <col min="12811" max="12811" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12812" max="13049" width="8.140625" style="10"/>
-    <col min="13050" max="13050" width="3.140625" style="10" customWidth="1"/>
-    <col min="13051" max="13051" width="7.42578125" style="10" customWidth="1"/>
-    <col min="13052" max="13052" width="20.140625" style="10" customWidth="1"/>
+    <col min="12810" max="12810" width="8.09765625" style="10"/>
+    <col min="12811" max="12811" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12812" max="13049" width="8.09765625" style="10"/>
+    <col min="13050" max="13050" width="3.09765625" style="10" customWidth="1"/>
+    <col min="13051" max="13051" width="7.3984375" style="10" customWidth="1"/>
+    <col min="13052" max="13052" width="20.09765625" style="10" customWidth="1"/>
     <col min="13053" max="13053" width="6" style="10" customWidth="1"/>
-    <col min="13054" max="13054" width="4.85546875" style="10" customWidth="1"/>
+    <col min="13054" max="13054" width="4.8984375" style="10" customWidth="1"/>
     <col min="13055" max="13055" width="4" style="10" customWidth="1"/>
-    <col min="13056" max="13056" width="6.5703125" style="10" customWidth="1"/>
-    <col min="13057" max="13057" width="5.7109375" style="10" customWidth="1"/>
-    <col min="13058" max="13058" width="8.7109375" style="10" customWidth="1"/>
-    <col min="13059" max="13059" width="8.140625" style="10"/>
-    <col min="13060" max="13061" width="6.7109375" style="10" customWidth="1"/>
+    <col min="13056" max="13056" width="6.59765625" style="10" customWidth="1"/>
+    <col min="13057" max="13057" width="5.69921875" style="10" customWidth="1"/>
+    <col min="13058" max="13058" width="8.69921875" style="10" customWidth="1"/>
+    <col min="13059" max="13059" width="8.09765625" style="10"/>
+    <col min="13060" max="13061" width="6.69921875" style="10" customWidth="1"/>
     <col min="13062" max="13062" width="9" style="10" customWidth="1"/>
-    <col min="13063" max="13063" width="6.7109375" style="10" customWidth="1"/>
-    <col min="13064" max="13064" width="13.42578125" style="10" customWidth="1"/>
+    <col min="13063" max="13063" width="6.69921875" style="10" customWidth="1"/>
+    <col min="13064" max="13064" width="13.3984375" style="10" customWidth="1"/>
     <col min="13065" max="13065" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="8.140625" style="10"/>
-    <col min="13067" max="13067" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13305" width="8.140625" style="10"/>
-    <col min="13306" max="13306" width="3.140625" style="10" customWidth="1"/>
-    <col min="13307" max="13307" width="7.42578125" style="10" customWidth="1"/>
-    <col min="13308" max="13308" width="20.140625" style="10" customWidth="1"/>
+    <col min="13066" max="13066" width="8.09765625" style="10"/>
+    <col min="13067" max="13067" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13305" width="8.09765625" style="10"/>
+    <col min="13306" max="13306" width="3.09765625" style="10" customWidth="1"/>
+    <col min="13307" max="13307" width="7.3984375" style="10" customWidth="1"/>
+    <col min="13308" max="13308" width="20.09765625" style="10" customWidth="1"/>
     <col min="13309" max="13309" width="6" style="10" customWidth="1"/>
-    <col min="13310" max="13310" width="4.85546875" style="10" customWidth="1"/>
+    <col min="13310" max="13310" width="4.8984375" style="10" customWidth="1"/>
     <col min="13311" max="13311" width="4" style="10" customWidth="1"/>
-    <col min="13312" max="13312" width="6.5703125" style="10" customWidth="1"/>
-    <col min="13313" max="13313" width="5.7109375" style="10" customWidth="1"/>
-    <col min="13314" max="13314" width="8.7109375" style="10" customWidth="1"/>
-    <col min="13315" max="13315" width="8.140625" style="10"/>
-    <col min="13316" max="13317" width="6.7109375" style="10" customWidth="1"/>
+    <col min="13312" max="13312" width="6.59765625" style="10" customWidth="1"/>
+    <col min="13313" max="13313" width="5.69921875" style="10" customWidth="1"/>
+    <col min="13314" max="13314" width="8.69921875" style="10" customWidth="1"/>
+    <col min="13315" max="13315" width="8.09765625" style="10"/>
+    <col min="13316" max="13317" width="6.69921875" style="10" customWidth="1"/>
     <col min="13318" max="13318" width="9" style="10" customWidth="1"/>
-    <col min="13319" max="13319" width="6.7109375" style="10" customWidth="1"/>
-    <col min="13320" max="13320" width="13.42578125" style="10" customWidth="1"/>
+    <col min="13319" max="13319" width="6.69921875" style="10" customWidth="1"/>
+    <col min="13320" max="13320" width="13.3984375" style="10" customWidth="1"/>
     <col min="13321" max="13321" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="8.140625" style="10"/>
-    <col min="13323" max="13323" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13561" width="8.140625" style="10"/>
-    <col min="13562" max="13562" width="3.140625" style="10" customWidth="1"/>
-    <col min="13563" max="13563" width="7.42578125" style="10" customWidth="1"/>
-    <col min="13564" max="13564" width="20.140625" style="10" customWidth="1"/>
+    <col min="13322" max="13322" width="8.09765625" style="10"/>
+    <col min="13323" max="13323" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13561" width="8.09765625" style="10"/>
+    <col min="13562" max="13562" width="3.09765625" style="10" customWidth="1"/>
+    <col min="13563" max="13563" width="7.3984375" style="10" customWidth="1"/>
+    <col min="13564" max="13564" width="20.09765625" style="10" customWidth="1"/>
     <col min="13565" max="13565" width="6" style="10" customWidth="1"/>
-    <col min="13566" max="13566" width="4.85546875" style="10" customWidth="1"/>
+    <col min="13566" max="13566" width="4.8984375" style="10" customWidth="1"/>
     <col min="13567" max="13567" width="4" style="10" customWidth="1"/>
-    <col min="13568" max="13568" width="6.5703125" style="10" customWidth="1"/>
-    <col min="13569" max="13569" width="5.7109375" style="10" customWidth="1"/>
-    <col min="13570" max="13570" width="8.7109375" style="10" customWidth="1"/>
-    <col min="13571" max="13571" width="8.140625" style="10"/>
-    <col min="13572" max="13573" width="6.7109375" style="10" customWidth="1"/>
+    <col min="13568" max="13568" width="6.59765625" style="10" customWidth="1"/>
+    <col min="13569" max="13569" width="5.69921875" style="10" customWidth="1"/>
+    <col min="13570" max="13570" width="8.69921875" style="10" customWidth="1"/>
+    <col min="13571" max="13571" width="8.09765625" style="10"/>
+    <col min="13572" max="13573" width="6.69921875" style="10" customWidth="1"/>
     <col min="13574" max="13574" width="9" style="10" customWidth="1"/>
-    <col min="13575" max="13575" width="6.7109375" style="10" customWidth="1"/>
-    <col min="13576" max="13576" width="13.42578125" style="10" customWidth="1"/>
+    <col min="13575" max="13575" width="6.69921875" style="10" customWidth="1"/>
+    <col min="13576" max="13576" width="13.3984375" style="10" customWidth="1"/>
     <col min="13577" max="13577" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="8.140625" style="10"/>
-    <col min="13579" max="13579" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13817" width="8.140625" style="10"/>
-    <col min="13818" max="13818" width="3.140625" style="10" customWidth="1"/>
-    <col min="13819" max="13819" width="7.42578125" style="10" customWidth="1"/>
-    <col min="13820" max="13820" width="20.140625" style="10" customWidth="1"/>
+    <col min="13578" max="13578" width="8.09765625" style="10"/>
+    <col min="13579" max="13579" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13817" width="8.09765625" style="10"/>
+    <col min="13818" max="13818" width="3.09765625" style="10" customWidth="1"/>
+    <col min="13819" max="13819" width="7.3984375" style="10" customWidth="1"/>
+    <col min="13820" max="13820" width="20.09765625" style="10" customWidth="1"/>
     <col min="13821" max="13821" width="6" style="10" customWidth="1"/>
-    <col min="13822" max="13822" width="4.85546875" style="10" customWidth="1"/>
+    <col min="13822" max="13822" width="4.8984375" style="10" customWidth="1"/>
     <col min="13823" max="13823" width="4" style="10" customWidth="1"/>
-    <col min="13824" max="13824" width="6.5703125" style="10" customWidth="1"/>
-    <col min="13825" max="13825" width="5.7109375" style="10" customWidth="1"/>
-    <col min="13826" max="13826" width="8.7109375" style="10" customWidth="1"/>
-    <col min="13827" max="13827" width="8.140625" style="10"/>
-    <col min="13828" max="13829" width="6.7109375" style="10" customWidth="1"/>
+    <col min="13824" max="13824" width="6.59765625" style="10" customWidth="1"/>
+    <col min="13825" max="13825" width="5.69921875" style="10" customWidth="1"/>
+    <col min="13826" max="13826" width="8.69921875" style="10" customWidth="1"/>
+    <col min="13827" max="13827" width="8.09765625" style="10"/>
+    <col min="13828" max="13829" width="6.69921875" style="10" customWidth="1"/>
     <col min="13830" max="13830" width="9" style="10" customWidth="1"/>
-    <col min="13831" max="13831" width="6.7109375" style="10" customWidth="1"/>
-    <col min="13832" max="13832" width="13.42578125" style="10" customWidth="1"/>
+    <col min="13831" max="13831" width="6.69921875" style="10" customWidth="1"/>
+    <col min="13832" max="13832" width="13.3984375" style="10" customWidth="1"/>
     <col min="13833" max="13833" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="8.140625" style="10"/>
-    <col min="13835" max="13835" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13836" max="14073" width="8.140625" style="10"/>
-    <col min="14074" max="14074" width="3.140625" style="10" customWidth="1"/>
-    <col min="14075" max="14075" width="7.42578125" style="10" customWidth="1"/>
-    <col min="14076" max="14076" width="20.140625" style="10" customWidth="1"/>
+    <col min="13834" max="13834" width="8.09765625" style="10"/>
+    <col min="13835" max="13835" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13836" max="14073" width="8.09765625" style="10"/>
+    <col min="14074" max="14074" width="3.09765625" style="10" customWidth="1"/>
+    <col min="14075" max="14075" width="7.3984375" style="10" customWidth="1"/>
+    <col min="14076" max="14076" width="20.09765625" style="10" customWidth="1"/>
     <col min="14077" max="14077" width="6" style="10" customWidth="1"/>
-    <col min="14078" max="14078" width="4.85546875" style="10" customWidth="1"/>
+    <col min="14078" max="14078" width="4.8984375" style="10" customWidth="1"/>
     <col min="14079" max="14079" width="4" style="10" customWidth="1"/>
-    <col min="14080" max="14080" width="6.5703125" style="10" customWidth="1"/>
-    <col min="14081" max="14081" width="5.7109375" style="10" customWidth="1"/>
-    <col min="14082" max="14082" width="8.7109375" style="10" customWidth="1"/>
-    <col min="14083" max="14083" width="8.140625" style="10"/>
-    <col min="14084" max="14085" width="6.7109375" style="10" customWidth="1"/>
+    <col min="14080" max="14080" width="6.59765625" style="10" customWidth="1"/>
+    <col min="14081" max="14081" width="5.69921875" style="10" customWidth="1"/>
+    <col min="14082" max="14082" width="8.69921875" style="10" customWidth="1"/>
+    <col min="14083" max="14083" width="8.09765625" style="10"/>
+    <col min="14084" max="14085" width="6.69921875" style="10" customWidth="1"/>
     <col min="14086" max="14086" width="9" style="10" customWidth="1"/>
-    <col min="14087" max="14087" width="6.7109375" style="10" customWidth="1"/>
-    <col min="14088" max="14088" width="13.42578125" style="10" customWidth="1"/>
+    <col min="14087" max="14087" width="6.69921875" style="10" customWidth="1"/>
+    <col min="14088" max="14088" width="13.3984375" style="10" customWidth="1"/>
     <col min="14089" max="14089" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="8.140625" style="10"/>
-    <col min="14091" max="14091" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14329" width="8.140625" style="10"/>
-    <col min="14330" max="14330" width="3.140625" style="10" customWidth="1"/>
-    <col min="14331" max="14331" width="7.42578125" style="10" customWidth="1"/>
-    <col min="14332" max="14332" width="20.140625" style="10" customWidth="1"/>
+    <col min="14090" max="14090" width="8.09765625" style="10"/>
+    <col min="14091" max="14091" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14329" width="8.09765625" style="10"/>
+    <col min="14330" max="14330" width="3.09765625" style="10" customWidth="1"/>
+    <col min="14331" max="14331" width="7.3984375" style="10" customWidth="1"/>
+    <col min="14332" max="14332" width="20.09765625" style="10" customWidth="1"/>
     <col min="14333" max="14333" width="6" style="10" customWidth="1"/>
-    <col min="14334" max="14334" width="4.85546875" style="10" customWidth="1"/>
+    <col min="14334" max="14334" width="4.8984375" style="10" customWidth="1"/>
     <col min="14335" max="14335" width="4" style="10" customWidth="1"/>
-    <col min="14336" max="14336" width="6.5703125" style="10" customWidth="1"/>
-    <col min="14337" max="14337" width="5.7109375" style="10" customWidth="1"/>
-    <col min="14338" max="14338" width="8.7109375" style="10" customWidth="1"/>
-    <col min="14339" max="14339" width="8.140625" style="10"/>
-    <col min="14340" max="14341" width="6.7109375" style="10" customWidth="1"/>
+    <col min="14336" max="14336" width="6.59765625" style="10" customWidth="1"/>
+    <col min="14337" max="14337" width="5.69921875" style="10" customWidth="1"/>
+    <col min="14338" max="14338" width="8.69921875" style="10" customWidth="1"/>
+    <col min="14339" max="14339" width="8.09765625" style="10"/>
+    <col min="14340" max="14341" width="6.69921875" style="10" customWidth="1"/>
     <col min="14342" max="14342" width="9" style="10" customWidth="1"/>
-    <col min="14343" max="14343" width="6.7109375" style="10" customWidth="1"/>
-    <col min="14344" max="14344" width="13.42578125" style="10" customWidth="1"/>
+    <col min="14343" max="14343" width="6.69921875" style="10" customWidth="1"/>
+    <col min="14344" max="14344" width="13.3984375" style="10" customWidth="1"/>
     <col min="14345" max="14345" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="8.140625" style="10"/>
-    <col min="14347" max="14347" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14585" width="8.140625" style="10"/>
-    <col min="14586" max="14586" width="3.140625" style="10" customWidth="1"/>
-    <col min="14587" max="14587" width="7.42578125" style="10" customWidth="1"/>
-    <col min="14588" max="14588" width="20.140625" style="10" customWidth="1"/>
+    <col min="14346" max="14346" width="8.09765625" style="10"/>
+    <col min="14347" max="14347" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14585" width="8.09765625" style="10"/>
+    <col min="14586" max="14586" width="3.09765625" style="10" customWidth="1"/>
+    <col min="14587" max="14587" width="7.3984375" style="10" customWidth="1"/>
+    <col min="14588" max="14588" width="20.09765625" style="10" customWidth="1"/>
     <col min="14589" max="14589" width="6" style="10" customWidth="1"/>
-    <col min="14590" max="14590" width="4.85546875" style="10" customWidth="1"/>
+    <col min="14590" max="14590" width="4.8984375" style="10" customWidth="1"/>
     <col min="14591" max="14591" width="4" style="10" customWidth="1"/>
-    <col min="14592" max="14592" width="6.5703125" style="10" customWidth="1"/>
-    <col min="14593" max="14593" width="5.7109375" style="10" customWidth="1"/>
-    <col min="14594" max="14594" width="8.7109375" style="10" customWidth="1"/>
-    <col min="14595" max="14595" width="8.140625" style="10"/>
-    <col min="14596" max="14597" width="6.7109375" style="10" customWidth="1"/>
+    <col min="14592" max="14592" width="6.59765625" style="10" customWidth="1"/>
+    <col min="14593" max="14593" width="5.69921875" style="10" customWidth="1"/>
+    <col min="14594" max="14594" width="8.69921875" style="10" customWidth="1"/>
+    <col min="14595" max="14595" width="8.09765625" style="10"/>
+    <col min="14596" max="14597" width="6.69921875" style="10" customWidth="1"/>
     <col min="14598" max="14598" width="9" style="10" customWidth="1"/>
-    <col min="14599" max="14599" width="6.7109375" style="10" customWidth="1"/>
-    <col min="14600" max="14600" width="13.42578125" style="10" customWidth="1"/>
+    <col min="14599" max="14599" width="6.69921875" style="10" customWidth="1"/>
+    <col min="14600" max="14600" width="13.3984375" style="10" customWidth="1"/>
     <col min="14601" max="14601" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="8.140625" style="10"/>
-    <col min="14603" max="14603" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14841" width="8.140625" style="10"/>
-    <col min="14842" max="14842" width="3.140625" style="10" customWidth="1"/>
-    <col min="14843" max="14843" width="7.42578125" style="10" customWidth="1"/>
-    <col min="14844" max="14844" width="20.140625" style="10" customWidth="1"/>
+    <col min="14602" max="14602" width="8.09765625" style="10"/>
+    <col min="14603" max="14603" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14841" width="8.09765625" style="10"/>
+    <col min="14842" max="14842" width="3.09765625" style="10" customWidth="1"/>
+    <col min="14843" max="14843" width="7.3984375" style="10" customWidth="1"/>
+    <col min="14844" max="14844" width="20.09765625" style="10" customWidth="1"/>
     <col min="14845" max="14845" width="6" style="10" customWidth="1"/>
-    <col min="14846" max="14846" width="4.85546875" style="10" customWidth="1"/>
+    <col min="14846" max="14846" width="4.8984375" style="10" customWidth="1"/>
     <col min="14847" max="14847" width="4" style="10" customWidth="1"/>
-    <col min="14848" max="14848" width="6.5703125" style="10" customWidth="1"/>
-    <col min="14849" max="14849" width="5.7109375" style="10" customWidth="1"/>
-    <col min="14850" max="14850" width="8.7109375" style="10" customWidth="1"/>
-    <col min="14851" max="14851" width="8.140625" style="10"/>
-    <col min="14852" max="14853" width="6.7109375" style="10" customWidth="1"/>
+    <col min="14848" max="14848" width="6.59765625" style="10" customWidth="1"/>
+    <col min="14849" max="14849" width="5.69921875" style="10" customWidth="1"/>
+    <col min="14850" max="14850" width="8.69921875" style="10" customWidth="1"/>
+    <col min="14851" max="14851" width="8.09765625" style="10"/>
+    <col min="14852" max="14853" width="6.69921875" style="10" customWidth="1"/>
     <col min="14854" max="14854" width="9" style="10" customWidth="1"/>
-    <col min="14855" max="14855" width="6.7109375" style="10" customWidth="1"/>
-    <col min="14856" max="14856" width="13.42578125" style="10" customWidth="1"/>
+    <col min="14855" max="14855" width="6.69921875" style="10" customWidth="1"/>
+    <col min="14856" max="14856" width="13.3984375" style="10" customWidth="1"/>
     <col min="14857" max="14857" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="8.140625" style="10"/>
-    <col min="14859" max="14859" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14860" max="15097" width="8.140625" style="10"/>
-    <col min="15098" max="15098" width="3.140625" style="10" customWidth="1"/>
-    <col min="15099" max="15099" width="7.42578125" style="10" customWidth="1"/>
-    <col min="15100" max="15100" width="20.140625" style="10" customWidth="1"/>
+    <col min="14858" max="14858" width="8.09765625" style="10"/>
+    <col min="14859" max="14859" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14860" max="15097" width="8.09765625" style="10"/>
+    <col min="15098" max="15098" width="3.09765625" style="10" customWidth="1"/>
+    <col min="15099" max="15099" width="7.3984375" style="10" customWidth="1"/>
+    <col min="15100" max="15100" width="20.09765625" style="10" customWidth="1"/>
     <col min="15101" max="15101" width="6" style="10" customWidth="1"/>
-    <col min="15102" max="15102" width="4.85546875" style="10" customWidth="1"/>
+    <col min="15102" max="15102" width="4.8984375" style="10" customWidth="1"/>
     <col min="15103" max="15103" width="4" style="10" customWidth="1"/>
-    <col min="15104" max="15104" width="6.5703125" style="10" customWidth="1"/>
-    <col min="15105" max="15105" width="5.7109375" style="10" customWidth="1"/>
-    <col min="15106" max="15106" width="8.7109375" style="10" customWidth="1"/>
-    <col min="15107" max="15107" width="8.140625" style="10"/>
-    <col min="15108" max="15109" width="6.7109375" style="10" customWidth="1"/>
+    <col min="15104" max="15104" width="6.59765625" style="10" customWidth="1"/>
+    <col min="15105" max="15105" width="5.69921875" style="10" customWidth="1"/>
+    <col min="15106" max="15106" width="8.69921875" style="10" customWidth="1"/>
+    <col min="15107" max="15107" width="8.09765625" style="10"/>
+    <col min="15108" max="15109" width="6.69921875" style="10" customWidth="1"/>
     <col min="15110" max="15110" width="9" style="10" customWidth="1"/>
-    <col min="15111" max="15111" width="6.7109375" style="10" customWidth="1"/>
-    <col min="15112" max="15112" width="13.42578125" style="10" customWidth="1"/>
+    <col min="15111" max="15111" width="6.69921875" style="10" customWidth="1"/>
+    <col min="15112" max="15112" width="13.3984375" style="10" customWidth="1"/>
     <col min="15113" max="15113" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="8.140625" style="10"/>
-    <col min="15115" max="15115" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15353" width="8.140625" style="10"/>
-    <col min="15354" max="15354" width="3.140625" style="10" customWidth="1"/>
-    <col min="15355" max="15355" width="7.42578125" style="10" customWidth="1"/>
-    <col min="15356" max="15356" width="20.140625" style="10" customWidth="1"/>
+    <col min="15114" max="15114" width="8.09765625" style="10"/>
+    <col min="15115" max="15115" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15353" width="8.09765625" style="10"/>
+    <col min="15354" max="15354" width="3.09765625" style="10" customWidth="1"/>
+    <col min="15355" max="15355" width="7.3984375" style="10" customWidth="1"/>
+    <col min="15356" max="15356" width="20.09765625" style="10" customWidth="1"/>
     <col min="15357" max="15357" width="6" style="10" customWidth="1"/>
-    <col min="15358" max="15358" width="4.85546875" style="10" customWidth="1"/>
+    <col min="15358" max="15358" width="4.8984375" style="10" customWidth="1"/>
     <col min="15359" max="15359" width="4" style="10" customWidth="1"/>
-    <col min="15360" max="15360" width="6.5703125" style="10" customWidth="1"/>
-    <col min="15361" max="15361" width="5.7109375" style="10" customWidth="1"/>
-    <col min="15362" max="15362" width="8.7109375" style="10" customWidth="1"/>
-    <col min="15363" max="15363" width="8.140625" style="10"/>
-    <col min="15364" max="15365" width="6.7109375" style="10" customWidth="1"/>
+    <col min="15360" max="15360" width="6.59765625" style="10" customWidth="1"/>
+    <col min="15361" max="15361" width="5.69921875" style="10" customWidth="1"/>
+    <col min="15362" max="15362" width="8.69921875" style="10" customWidth="1"/>
+    <col min="15363" max="15363" width="8.09765625" style="10"/>
+    <col min="15364" max="15365" width="6.69921875" style="10" customWidth="1"/>
     <col min="15366" max="15366" width="9" style="10" customWidth="1"/>
-    <col min="15367" max="15367" width="6.7109375" style="10" customWidth="1"/>
-    <col min="15368" max="15368" width="13.42578125" style="10" customWidth="1"/>
+    <col min="15367" max="15367" width="6.69921875" style="10" customWidth="1"/>
+    <col min="15368" max="15368" width="13.3984375" style="10" customWidth="1"/>
     <col min="15369" max="15369" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="8.140625" style="10"/>
-    <col min="15371" max="15371" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15609" width="8.140625" style="10"/>
-    <col min="15610" max="15610" width="3.140625" style="10" customWidth="1"/>
-    <col min="15611" max="15611" width="7.42578125" style="10" customWidth="1"/>
-    <col min="15612" max="15612" width="20.140625" style="10" customWidth="1"/>
+    <col min="15370" max="15370" width="8.09765625" style="10"/>
+    <col min="15371" max="15371" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15609" width="8.09765625" style="10"/>
+    <col min="15610" max="15610" width="3.09765625" style="10" customWidth="1"/>
+    <col min="15611" max="15611" width="7.3984375" style="10" customWidth="1"/>
+    <col min="15612" max="15612" width="20.09765625" style="10" customWidth="1"/>
     <col min="15613" max="15613" width="6" style="10" customWidth="1"/>
-    <col min="15614" max="15614" width="4.85546875" style="10" customWidth="1"/>
+    <col min="15614" max="15614" width="4.8984375" style="10" customWidth="1"/>
     <col min="15615" max="15615" width="4" style="10" customWidth="1"/>
-    <col min="15616" max="15616" width="6.5703125" style="10" customWidth="1"/>
-    <col min="15617" max="15617" width="5.7109375" style="10" customWidth="1"/>
-    <col min="15618" max="15618" width="8.7109375" style="10" customWidth="1"/>
-    <col min="15619" max="15619" width="8.140625" style="10"/>
-    <col min="15620" max="15621" width="6.7109375" style="10" customWidth="1"/>
+    <col min="15616" max="15616" width="6.59765625" style="10" customWidth="1"/>
+    <col min="15617" max="15617" width="5.69921875" style="10" customWidth="1"/>
+    <col min="15618" max="15618" width="8.69921875" style="10" customWidth="1"/>
+    <col min="15619" max="15619" width="8.09765625" style="10"/>
+    <col min="15620" max="15621" width="6.69921875" style="10" customWidth="1"/>
     <col min="15622" max="15622" width="9" style="10" customWidth="1"/>
-    <col min="15623" max="15623" width="6.7109375" style="10" customWidth="1"/>
-    <col min="15624" max="15624" width="13.42578125" style="10" customWidth="1"/>
+    <col min="15623" max="15623" width="6.69921875" style="10" customWidth="1"/>
+    <col min="15624" max="15624" width="13.3984375" style="10" customWidth="1"/>
     <col min="15625" max="15625" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="8.140625" style="10"/>
-    <col min="15627" max="15627" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15865" width="8.140625" style="10"/>
-    <col min="15866" max="15866" width="3.140625" style="10" customWidth="1"/>
-    <col min="15867" max="15867" width="7.42578125" style="10" customWidth="1"/>
-    <col min="15868" max="15868" width="20.140625" style="10" customWidth="1"/>
+    <col min="15626" max="15626" width="8.09765625" style="10"/>
+    <col min="15627" max="15627" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15865" width="8.09765625" style="10"/>
+    <col min="15866" max="15866" width="3.09765625" style="10" customWidth="1"/>
+    <col min="15867" max="15867" width="7.3984375" style="10" customWidth="1"/>
+    <col min="15868" max="15868" width="20.09765625" style="10" customWidth="1"/>
     <col min="15869" max="15869" width="6" style="10" customWidth="1"/>
-    <col min="15870" max="15870" width="4.85546875" style="10" customWidth="1"/>
+    <col min="15870" max="15870" width="4.8984375" style="10" customWidth="1"/>
     <col min="15871" max="15871" width="4" style="10" customWidth="1"/>
-    <col min="15872" max="15872" width="6.5703125" style="10" customWidth="1"/>
-    <col min="15873" max="15873" width="5.7109375" style="10" customWidth="1"/>
-    <col min="15874" max="15874" width="8.7109375" style="10" customWidth="1"/>
-    <col min="15875" max="15875" width="8.140625" style="10"/>
-    <col min="15876" max="15877" width="6.7109375" style="10" customWidth="1"/>
+    <col min="15872" max="15872" width="6.59765625" style="10" customWidth="1"/>
+    <col min="15873" max="15873" width="5.69921875" style="10" customWidth="1"/>
+    <col min="15874" max="15874" width="8.69921875" style="10" customWidth="1"/>
+    <col min="15875" max="15875" width="8.09765625" style="10"/>
+    <col min="15876" max="15877" width="6.69921875" style="10" customWidth="1"/>
     <col min="15878" max="15878" width="9" style="10" customWidth="1"/>
-    <col min="15879" max="15879" width="6.7109375" style="10" customWidth="1"/>
-    <col min="15880" max="15880" width="13.42578125" style="10" customWidth="1"/>
+    <col min="15879" max="15879" width="6.69921875" style="10" customWidth="1"/>
+    <col min="15880" max="15880" width="13.3984375" style="10" customWidth="1"/>
     <col min="15881" max="15881" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="8.140625" style="10"/>
-    <col min="15883" max="15883" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15884" max="16121" width="8.140625" style="10"/>
-    <col min="16122" max="16122" width="3.140625" style="10" customWidth="1"/>
-    <col min="16123" max="16123" width="7.42578125" style="10" customWidth="1"/>
-    <col min="16124" max="16124" width="20.140625" style="10" customWidth="1"/>
+    <col min="15882" max="15882" width="8.09765625" style="10"/>
+    <col min="15883" max="15883" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15884" max="16121" width="8.09765625" style="10"/>
+    <col min="16122" max="16122" width="3.09765625" style="10" customWidth="1"/>
+    <col min="16123" max="16123" width="7.3984375" style="10" customWidth="1"/>
+    <col min="16124" max="16124" width="20.09765625" style="10" customWidth="1"/>
     <col min="16125" max="16125" width="6" style="10" customWidth="1"/>
-    <col min="16126" max="16126" width="4.85546875" style="10" customWidth="1"/>
+    <col min="16126" max="16126" width="4.8984375" style="10" customWidth="1"/>
     <col min="16127" max="16127" width="4" style="10" customWidth="1"/>
-    <col min="16128" max="16128" width="6.5703125" style="10" customWidth="1"/>
-    <col min="16129" max="16129" width="5.7109375" style="10" customWidth="1"/>
-    <col min="16130" max="16130" width="8.7109375" style="10" customWidth="1"/>
-    <col min="16131" max="16131" width="8.140625" style="10"/>
-    <col min="16132" max="16133" width="6.7109375" style="10" customWidth="1"/>
+    <col min="16128" max="16128" width="6.59765625" style="10" customWidth="1"/>
+    <col min="16129" max="16129" width="5.69921875" style="10" customWidth="1"/>
+    <col min="16130" max="16130" width="8.69921875" style="10" customWidth="1"/>
+    <col min="16131" max="16131" width="8.09765625" style="10"/>
+    <col min="16132" max="16133" width="6.69921875" style="10" customWidth="1"/>
     <col min="16134" max="16134" width="9" style="10" customWidth="1"/>
-    <col min="16135" max="16135" width="6.7109375" style="10" customWidth="1"/>
-    <col min="16136" max="16136" width="13.42578125" style="10" customWidth="1"/>
+    <col min="16135" max="16135" width="6.69921875" style="10" customWidth="1"/>
+    <col min="16136" max="16136" width="13.3984375" style="10" customWidth="1"/>
     <col min="16137" max="16137" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="8.140625" style="10"/>
-    <col min="16139" max="16139" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16384" width="8.140625" style="10"/>
+    <col min="16138" max="16138" width="8.09765625" style="10"/>
+    <col min="16139" max="16139" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16384" width="8.09765625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
     </row>
     <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83" t="s">
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
     </row>
     <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83" t="s">
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
     </row>
     <row r="6" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="98" t="s">
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
     </row>
     <row r="8" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -3200,42 +3199,42 @@
       <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
     </row>
     <row r="10" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="92" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -3262,35 +3261,35 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="85" t="s">
+      <c r="E12" s="121"/>
+      <c r="F12" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
       <c r="O12" s="17"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -3304,12 +3303,12 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -3323,7 +3322,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="1.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -3342,353 +3341,353 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="96" t="s">
+    <row r="16" spans="1:17" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="114"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="86" t="s">
+      <c r="E16" s="108"/>
+      <c r="F16" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-    </row>
-    <row r="17" spans="1:19" s="15" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-    </row>
-    <row r="18" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="s">
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
+    </row>
+    <row r="17" spans="1:19" s="15" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="114"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="114"/>
+    </row>
+    <row r="18" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
     </row>
     <row r="19" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
     </row>
     <row r="22" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="95" t="s">
+      <c r="B23" s="104"/>
+      <c r="C23" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="71" t="s">
+      <c r="E23" s="104"/>
+      <c r="F23" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="99"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="71" t="s">
+      <c r="G23" s="111"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="99"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="94" t="s">
+      <c r="J23" s="111"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="94"/>
-      <c r="N23" s="71" t="s">
+      <c r="M23" s="102"/>
+      <c r="N23" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="72"/>
-      <c r="P23" s="41" t="s">
+      <c r="O23" s="104"/>
+      <c r="P23" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="Q23" s="41"/>
+      <c r="Q23" s="66"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="74"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="63"/>
       <c r="L24" s="29" t="s">
         <v>1</v>
       </c>
       <c r="M24" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N24" s="73"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
     </row>
     <row r="25" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="108" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="110" t="s">
+      <c r="D25" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="114" t="s">
+      <c r="E25" s="78"/>
+      <c r="F25" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="115"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="120" t="s">
+      <c r="G25" s="82"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="J25" s="121"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="126" t="s">
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="126" t="s">
+      <c r="M25" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="N25" s="128" t="s">
+      <c r="N25" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="129"/>
-      <c r="P25" s="65" t="s">
+      <c r="O25" s="94"/>
+      <c r="P25" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="Q25" s="66"/>
+      <c r="Q25" s="98"/>
     </row>
     <row r="26" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="49"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="100"/>
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="103" t="s">
+      <c r="A27" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
     </row>
     <row r="28" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
     </row>
     <row r="29" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
     </row>
     <row r="30" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="102"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="102"/>
-      <c r="O30" s="102"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
       <c r="S30" s="34"/>
     </row>
     <row r="31" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="41" t="s">
+      <c r="B31" s="104"/>
+      <c r="C31" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="133" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="31" t="s">
@@ -3697,43 +3696,43 @@
       <c r="F31" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="70" t="s">
+      <c r="G31" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41" t="s">
+      <c r="H31" s="66"/>
+      <c r="I31" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="41" t="s">
+      <c r="J31" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="41" t="s">
+      <c r="K31" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="L31" s="41" t="s">
+      <c r="L31" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M31" s="41" t="s">
+      <c r="M31" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="N31" s="41" t="s">
+      <c r="N31" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="O31" s="41" t="s">
+      <c r="O31" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="P31" s="41" t="s">
+      <c r="P31" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="Q31" s="41" t="s">
+      <c r="Q31" s="66" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
       <c r="E32" s="33" t="s">
         <v>1</v>
       </c>
@@ -3746,318 +3745,318 @@
       <c r="H32" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
     </row>
     <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="105"/>
-      <c r="C33" s="133" t="s">
+      <c r="B33" s="39"/>
+      <c r="C33" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="135" t="s">
+      <c r="D33" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="126" t="s">
+      <c r="E33" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="126" t="s">
+      <c r="F33" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="126" t="s">
+      <c r="G33" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="126" t="s">
+      <c r="H33" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="137" t="s">
+      <c r="I33" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="J33" s="137" t="s">
+      <c r="J33" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="139" t="s">
+      <c r="K33" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="L33" s="141" t="s">
+      <c r="L33" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="M33" s="67" t="s">
+      <c r="M33" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="N33" s="60" t="s">
+      <c r="N33" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="O33" s="143" t="s">
+      <c r="O33" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="P33" s="67" t="s">
+      <c r="P33" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="67" t="s">
+      <c r="Q33" s="54" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="140"/>
-      <c r="L34" s="142"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="144"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-    </row>
-    <row r="35" spans="1:17" s="149" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+    </row>
+    <row r="35" spans="1:17" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
     </row>
     <row r="37" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="84"/>
-    </row>
-    <row r="38" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
+    </row>
+    <row r="38" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="70" t="s">
+      <c r="C38" s="134"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="G38" s="69"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="70" t="s">
+      <c r="G38" s="133"/>
+      <c r="H38" s="135"/>
+      <c r="I38" s="135"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41" t="s">
+      <c r="L38" s="66"/>
+      <c r="M38" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41" t="s">
+      <c r="N38" s="66"/>
+      <c r="O38" s="66" t="s">
         <v>44</v>
       </c>
       <c r="P38" s="20"/>
       <c r="Q38" s="20"/>
     </row>
     <row r="39" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
+      <c r="A39" s="142"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="139"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="114"/>
+      <c r="Q39" s="114"/>
     </row>
     <row r="40" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="45" t="s">
+      <c r="A40" s="142"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="145" t="s">
+      <c r="D40" s="64"/>
+      <c r="E40" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="147" t="s">
+      <c r="F40" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="G40" s="74" t="s">
+      <c r="G40" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45" t="s">
+      <c r="H40" s="64"/>
+      <c r="I40" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="J40" s="45"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="114"/>
+      <c r="Q40" s="114"/>
     </row>
     <row r="41" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
+      <c r="A41" s="142"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="114"/>
+      <c r="Q41" s="114"/>
     </row>
     <row r="42" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="46" t="s">
+      <c r="A42" s="142"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="54" t="s">
+      <c r="D42" s="145"/>
+      <c r="E42" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="55"/>
-      <c r="G42" s="50" t="s">
+      <c r="F42" s="151"/>
+      <c r="G42" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="51"/>
-      <c r="I42" s="54" t="s">
+      <c r="H42" s="147"/>
+      <c r="I42" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="J42" s="55"/>
-      <c r="K42" s="56" t="s">
+      <c r="J42" s="151"/>
+      <c r="K42" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="L42" s="57"/>
-      <c r="M42" s="56" t="s">
+      <c r="L42" s="130"/>
+      <c r="M42" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="N42" s="57"/>
-      <c r="O42" s="60" t="s">
+      <c r="N42" s="130"/>
+      <c r="O42" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
     </row>
     <row r="43" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
+      <c r="A43" s="142"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="131"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
     </row>
     <row r="44" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="65" t="s">
+      <c r="A44" s="142"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="66"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="56" t="s">
+      <c r="D44" s="98"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="L44" s="57"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="60" t="s">
+      <c r="L44" s="130"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
     </row>
     <row r="45" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="42"/>
-    </row>
-    <row r="46" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="142"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="131"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="114"/>
+      <c r="Q45" s="114"/>
+    </row>
+    <row r="46" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
@@ -4076,214 +4075,302 @@
       <c r="Q46" s="20"/>
     </row>
     <row r="47" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="132" t="s">
+      <c r="A47" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="132"/>
-      <c r="C47" s="132"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="132"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="132"/>
-      <c r="N47" s="132"/>
-      <c r="O47" s="132"/>
-      <c r="P47" s="132"/>
-      <c r="Q47" s="132"/>
-    </row>
-    <row r="48" spans="1:17" s="26" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="132"/>
-      <c r="B48" s="132"/>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="132"/>
-      <c r="K48" s="132"/>
-      <c r="L48" s="132"/>
-      <c r="M48" s="132"/>
-      <c r="N48" s="132"/>
-      <c r="O48" s="132"/>
-      <c r="P48" s="132"/>
-      <c r="Q48" s="132"/>
-    </row>
-    <row r="49" spans="1:17" s="26" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="132" t="s">
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+    </row>
+    <row r="48" spans="1:17" s="26" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+    </row>
+    <row r="49" spans="1:17" s="26" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="132"/>
-      <c r="C49" s="132"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="132"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="132"/>
-      <c r="K49" s="132"/>
-      <c r="L49" s="132"/>
-      <c r="M49" s="132"/>
-      <c r="N49" s="132"/>
-      <c r="O49" s="132"/>
-      <c r="P49" s="132"/>
-      <c r="Q49" s="132"/>
-    </row>
-    <row r="50" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="132"/>
-      <c r="B50" s="132"/>
-      <c r="C50" s="132"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="132"/>
-      <c r="K50" s="132"/>
-      <c r="L50" s="132"/>
-      <c r="M50" s="132"/>
-      <c r="N50" s="132"/>
-      <c r="O50" s="132"/>
-      <c r="P50" s="132"/>
-      <c r="Q50" s="132"/>
-    </row>
-    <row r="51" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="132" t="s">
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+    </row>
+    <row r="50" spans="1:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+    </row>
+    <row r="51" spans="1:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="132"/>
-      <c r="C51" s="132"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="132"/>
-      <c r="F51" s="132"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="132"/>
-      <c r="K51" s="132"/>
-      <c r="L51" s="132"/>
-      <c r="M51" s="132"/>
-      <c r="N51" s="132"/>
-      <c r="O51" s="132"/>
-      <c r="P51" s="132"/>
-      <c r="Q51" s="132"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="132"/>
-      <c r="B52" s="132"/>
-      <c r="C52" s="132"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="132"/>
-      <c r="K52" s="132"/>
-      <c r="L52" s="132"/>
-      <c r="M52" s="132"/>
-      <c r="N52" s="132"/>
-      <c r="O52" s="132"/>
-      <c r="P52" s="132"/>
-      <c r="Q52" s="132"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
     </row>
     <row r="53" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="64" t="s">
+      <c r="B53" s="127"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="64"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="64"/>
-      <c r="Q53" s="64"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="128"/>
+      <c r="O53" s="128"/>
+      <c r="P53" s="128"/>
+      <c r="Q53" s="128"/>
     </row>
     <row r="54" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64"/>
-      <c r="O54" s="64"/>
-      <c r="P54" s="64"/>
-      <c r="Q54" s="64"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="127"/>
+      <c r="I54" s="128"/>
+      <c r="J54" s="128"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="128"/>
+      <c r="M54" s="128"/>
+      <c r="N54" s="128"/>
+      <c r="O54" s="128"/>
+      <c r="P54" s="128"/>
+      <c r="Q54" s="128"/>
     </row>
     <row r="55" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="62" t="s">
+      <c r="A55" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62" t="s">
+      <c r="B55" s="126"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="126"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
+      <c r="J55" s="126"/>
+      <c r="K55" s="126"/>
+      <c r="L55" s="126"/>
+      <c r="M55" s="126"/>
+      <c r="N55" s="126"/>
+      <c r="O55" s="126"/>
+      <c r="P55" s="126"/>
+      <c r="Q55" s="126"/>
     </row>
     <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="62"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="62"/>
+      <c r="A56" s="126"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="126"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="126"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="126"/>
+      <c r="L56" s="126"/>
+      <c r="M56" s="126"/>
+      <c r="N56" s="126"/>
+      <c r="O56" s="126"/>
+      <c r="P56" s="126"/>
+      <c r="Q56" s="126"/>
     </row>
     <row r="58" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="E44:J45"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="P39:Q45"/>
+    <mergeCell ref="A39:B45"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="G42:H43"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="M42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="A55:H56"/>
+    <mergeCell ref="I55:Q56"/>
+    <mergeCell ref="A53:H54"/>
+    <mergeCell ref="I53:Q54"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="I40:J41"/>
+    <mergeCell ref="C38:E39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="F38:G39"/>
+    <mergeCell ref="K38:L41"/>
+    <mergeCell ref="M38:N41"/>
+    <mergeCell ref="O38:O41"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="A21:Q22"/>
+    <mergeCell ref="A19:Q20"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O24"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="P23:Q24"/>
+    <mergeCell ref="I23:K24"/>
+    <mergeCell ref="F23:H24"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:N17"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="A29:Q30"/>
+    <mergeCell ref="A27:Q28"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:H26"/>
+    <mergeCell ref="I25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:O26"/>
+    <mergeCell ref="P25:Q26"/>
     <mergeCell ref="A47:Q48"/>
     <mergeCell ref="A49:Q50"/>
     <mergeCell ref="A51:Q52"/>
@@ -4308,94 +4395,6 @@
     <mergeCell ref="G40:H41"/>
     <mergeCell ref="A35:XFD35"/>
     <mergeCell ref="M44:N45"/>
-    <mergeCell ref="A29:Q30"/>
-    <mergeCell ref="A27:Q28"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="F25:H26"/>
-    <mergeCell ref="I25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:O26"/>
-    <mergeCell ref="P25:Q26"/>
-    <mergeCell ref="A21:Q22"/>
-    <mergeCell ref="A19:Q20"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O24"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="P23:Q24"/>
-    <mergeCell ref="I23:K24"/>
-    <mergeCell ref="F23:H24"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:N17"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="A55:H56"/>
-    <mergeCell ref="I55:Q56"/>
-    <mergeCell ref="A53:H54"/>
-    <mergeCell ref="I53:Q54"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="K44:L45"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="I40:J41"/>
-    <mergeCell ref="C38:E39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="K38:L41"/>
-    <mergeCell ref="M38:N41"/>
-    <mergeCell ref="O38:O41"/>
-    <mergeCell ref="E44:J45"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="P39:Q45"/>
-    <mergeCell ref="A39:B45"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="G42:H43"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="M42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="E42:F43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -4408,21 +4407,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" customWidth="1"/>
+    <col min="2" max="2" width="29.59765625" customWidth="1"/>
+    <col min="3" max="3" width="33.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4566,7 +4565,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
